--- a/Luban/Config/Datas/SwordSkillBase.xlsx
+++ b/Luban/Config/Datas/SwordSkillBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
     <t>(list#sep=,),string</t>
   </si>
   <si>
-    <t>(list#sep=;|),PassSkillBase.Attribute</t>
+    <t>(list#sep=|),RectList</t>
   </si>
   <si>
     <t>##</t>
@@ -124,7 +124,7 @@
     <t>技能描述</t>
   </si>
   <si>
-    <t>装备属性</t>
+    <t>技能属性</t>
   </si>
   <si>
     <t>剑术(1级),剑术(2级),剑术(3级),剑术(4级),剑术(5级),剑术(6级),剑术(7级),剑术(8级),剑术(9级),剑术(10级),进阶剑术(11级),进阶剑术(12级),进阶剑术(12级),进阶剑术(13级),进阶剑术(14级),进阶剑术(15级),高级剑术(16级),高级剑术(17级),高级剑术(18级),剑术专精(19级),剑术专精(20级),剑术大师(21级)</t>
@@ -329,7 +329,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,12 +351,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3AA036"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEDE0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,7 +803,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -833,16 +827,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -857,79 +851,79 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -955,16 +949,16 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1301,16 +1295,16 @@
   <dimension ref="A1:AB235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9.12037037037037" customWidth="1"/>
-    <col min="3" max="3" width="11.1574074074074" customWidth="1"/>
-    <col min="4" max="4" width="11.5277777777778" customWidth="1"/>
-    <col min="5" max="6" width="11.1574074074074" customWidth="1"/>
-    <col min="7" max="7" width="34.6018518518519" customWidth="1"/>
+    <col min="1" max="2" width="9.11666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.1583333333333" customWidth="1"/>
+    <col min="4" max="4" width="11.525" customWidth="1"/>
+    <col min="5" max="6" width="11.1583333333333" customWidth="1"/>
+    <col min="7" max="7" width="34.6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:28">

--- a/Luban/Config/Datas/SwordSkillBase.xlsx
+++ b/Luban/Config/Datas/SwordSkillBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,8 @@
     <t>(list#sep=,),string</t>
   </si>
   <si>
-    <t>(list#sep=|),RectList</t>
+    <t xml:space="preserve">(array#sep=|),Tb.SwordSkill.SkillAttrArray
+</t>
   </si>
   <si>
     <t>##</t>
@@ -1295,16 +1296,16 @@
   <dimension ref="A1:AB235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="9.11666666666667" customWidth="1"/>
-    <col min="3" max="3" width="11.1583333333333" customWidth="1"/>
-    <col min="4" max="4" width="11.525" customWidth="1"/>
-    <col min="5" max="6" width="11.1583333333333" customWidth="1"/>
-    <col min="7" max="7" width="34.6" customWidth="1"/>
+    <col min="1" max="2" width="9.12037037037037" customWidth="1"/>
+    <col min="3" max="3" width="11.1574074074074" customWidth="1"/>
+    <col min="4" max="4" width="11.5277777777778" customWidth="1"/>
+    <col min="5" max="6" width="11.1574074074074" customWidth="1"/>
+    <col min="7" max="7" width="34.6018518518519" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:28">

--- a/Luban/Config/Datas/SwordSkillBase.xlsx
+++ b/Luban/Config/Datas/SwordSkillBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
     <t>剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0}暴击{1},剑类武器伤害{0}暴击{1},剑类武器伤害{0}暴击{1},剑类武器伤害{0}暴击{1},剑类武器伤害{0}暴击{1},剑类武器伤害{0}暴击{1},剑类武器伤害{0}暴击{1}</t>
   </si>
   <si>
-    <t>0,10,0;19,1,0|0,20,0;19,2,0|0,30,0;19,3,0</t>
+    <t>101,5,1|101,10,1|101,15,1|101,20,1|101,25,1|101,30,1|101,35,1|101,40,1|101,45,1|101,55,1|101,60,1|101,65,1|101,90,1|101,105,1|101,115,1|101,130,1;19,5,0|101,140,1;19,10,0|101,155,1;19,15,0|101,165,1;19,20,0|101,175,1;19,25,0|101,200,1;19,30,0</t>
   </si>
 </sst>
 </file>
@@ -319,12 +319,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1296,16 +1296,16 @@
   <dimension ref="A1:AB235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9.12037037037037" customWidth="1"/>
-    <col min="3" max="3" width="11.1574074074074" customWidth="1"/>
-    <col min="4" max="4" width="11.5277777777778" customWidth="1"/>
-    <col min="5" max="6" width="11.1574074074074" customWidth="1"/>
-    <col min="7" max="7" width="34.6018518518519" customWidth="1"/>
+    <col min="1" max="2" width="9.11666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.1583333333333" customWidth="1"/>
+    <col min="4" max="4" width="11.525" customWidth="1"/>
+    <col min="5" max="6" width="11.1583333333333" customWidth="1"/>
+    <col min="7" max="7" width="34.6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:28">

--- a/Luban/Config/Datas/SwordSkillBase.xlsx
+++ b/Luban/Config/Datas/SwordSkillBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>101,5,1|101,10,1|101,15,1|101,20,1|101,25,1|101,30,1|101,35,1|101,40,1|101,45,1|101,55,1|101,60,1|101,65,1|101,90,1|101,105,1|101,115,1|101,130,1;19,5,0|101,140,1;19,10,0|101,155,1;19,15,0|101,165,1;19,20,0|101,175,1;19,25,0|101,200,1;19,30,0</t>
+  </si>
+  <si>
+    <t>剑客之心(1级),剑客之心(2级),剑客之心(3级),剑客之心(4级),剑客之心(5级),剑客之心(6级),剑客之心(7级),剑客之心(8级),剑客之心(9级),剑客之心(10级),进阶剑客之心(11级),进阶剑客之心(12级),进阶剑客之心(12级),进阶剑客之心(13级),进阶剑客之心(14级),进阶剑客之心(15级),高级剑客之心(16级),高级剑客之心(17级),高级剑客之心(18级),剑客之心专精(19级),剑客之心专精(20级),剑客之心大师(21级)</t>
   </si>
 </sst>
 </file>
@@ -319,12 +322,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -960,7 +963,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1296,16 +1299,16 @@
   <dimension ref="A1:AB235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="9.11666666666667" customWidth="1"/>
-    <col min="3" max="3" width="11.1583333333333" customWidth="1"/>
-    <col min="4" max="4" width="11.525" customWidth="1"/>
-    <col min="5" max="6" width="11.1583333333333" customWidth="1"/>
-    <col min="7" max="7" width="34.6" customWidth="1"/>
+    <col min="1" max="2" width="9.12037037037037" customWidth="1"/>
+    <col min="3" max="3" width="11.1574074074074" customWidth="1"/>
+    <col min="4" max="4" width="11.5277777777778" customWidth="1"/>
+    <col min="5" max="6" width="11.1574074074074" customWidth="1"/>
+    <col min="7" max="7" width="34.6018518518519" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
@@ -1462,12 +1465,25 @@
       </c>
     </row>
     <row r="5" ht="18.45" customHeight="1" spans="1:9">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="I5" s="16"/>
     </row>
     <row r="6" ht="18.45" customHeight="1" spans="1:6">

--- a/Luban/Config/Datas/SwordSkillBase.xlsx
+++ b/Luban/Config/Datas/SwordSkillBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -131,13 +131,49 @@
     <t>剑术(1级),剑术(2级),剑术(3级),剑术(4级),剑术(5级),剑术(6级),剑术(7级),剑术(8级),剑术(9级),剑术(10级),进阶剑术(11级),进阶剑术(12级),进阶剑术(12级),进阶剑术(13级),进阶剑术(14级),进阶剑术(15级),高级剑术(16级),高级剑术(17级),高级剑术(18级),剑术专精(19级),剑术专精(20级),剑术大师(21级)</t>
   </si>
   <si>
-    <t>剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0}暴击{1},剑类武器伤害{0}暴击{1},剑类武器伤害{0}暴击{1},剑类武器伤害{0}暴击{1},剑类武器伤害{0}暴击{1},剑类武器伤害{0}暴击{1},剑类武器伤害{0}暴击{1}</t>
+    <t>剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},暴击{1},剑类武器伤害{0},暴击{1},剑类武器伤害{0},暴击{1},剑类武器伤害{0},暴击{1},剑类武器伤害{0},暴击{1},剑类武器伤害{0},暴击{1},剑类武器伤害{0},暴击{1}</t>
   </si>
   <si>
     <t>101,5,1|101,10,1|101,15,1|101,20,1|101,25,1|101,30,1|101,35,1|101,40,1|101,45,1|101,55,1|101,60,1|101,65,1|101,90,1|101,105,1|101,115,1|101,130,1;19,5,0|101,140,1;19,10,0|101,155,1;19,15,0|101,165,1;19,20,0|101,175,1;19,25,0|101,200,1;19,30,0</t>
   </si>
   <si>
     <t>剑客之心(1级),剑客之心(2级),剑客之心(3级),剑客之心(4级),剑客之心(5级),剑客之心(6级),剑客之心(7级),剑客之心(8级),剑客之心(9级),剑客之心(10级),进阶剑客之心(11级),进阶剑客之心(12级),进阶剑客之心(12级),进阶剑客之心(13级),进阶剑客之心(14级),进阶剑客之心(15级),高级剑客之心(16级),高级剑客之心(17级),高级剑客之心(18级),剑客之心专精(19级),剑客之心专精(20级),剑客之心大师(21级)</t>
+  </si>
+  <si>
+    <t>近战攻击力{0},近战攻击力{0},近战攻击力{0},近战攻击力{0},近战攻击力{0},近战攻击力{0},近战攻击力{0},近战攻击力{0},近战攻击力{0},近战攻击力{0},近战攻击力{0},近战攻击力{0},近战攻击力{0},近战攻击力{0},近战攻击力{0},近战攻击力{0},出手速度{1},近战攻击力{0},出手速度{1},近战攻击力{0},出手速度{1},近战攻击力{0},出手速度{1},近战攻击力{0},出手速度{1},近战攻击力{0},出手速度{1},近战攻击力{0},出手速度{1}</t>
+  </si>
+  <si>
+    <t>4,10,0|4,20,0|4,30,0|4,40,0|4,50,0|4,60,0|4,100,0|4,120,0|4,120,0|4,140,0|4,160,0|4,180,0|4,200,0|4,240,1|4,260,0|4,280,0;18,20,0|4,350,0;18,50,0|4,380,0;18,60,0|4,450,0;18,70,0|4,490,0;18,80,0|4,650,0;18,250,0</t>
+  </si>
+  <si>
+    <t>武器精通(1级),武器精通(2级),武器精通(3级),武器精通(4级),武器精通(5级),武器精通(6级),武器精通(7级),武器精通(8级),武器精通(9级),武器精通(10级),进阶武器精通(11级),进阶武器精通(12级),进阶武器精通(12级),进阶武器精通(13级),进阶武器精通(14级),进阶武器精通(15级),高级武器精通(16级),高级武器精通(17级),高级武器精通(18级),武器精通专精(19级),武器精通专精(20级),武器精通大师(21级)</t>
+  </si>
+  <si>
+    <t>物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0}</t>
+  </si>
+  <si>
+    <t>13,2,0|13,4,0|13,6,0|13,10,0|13,15,0|13,20,0|13,25,0|13,30,0|13,35,0|13,40,0|13,45,0|13,50,0|13,55,0|13,60,0|13,65,0|13,70,0|13,75,0|13,80,0|13,85,0|13,90,0|13,100,0</t>
+  </si>
+  <si>
+    <t>九阳神功(1级),九阳神功(2级),九阳神功(3级),九阳神功(4级),九阳神功(5级),九阳神功(6级),九阳神功(7级),九阳神功(8级),九阳神功(9级),九阳神功(10级),进阶九阳神功(11级),进阶九阳神功(12级),进阶九阳神功(12级),进阶九阳神功(13级),进阶九阳神功(14级),进阶九阳神功(15级),高级九阳神功(16级),高级九阳神功(17级),高级九阳神功(18级),九阳神功专精(19级),九阳神功专精(20级),九阳神功大师(21级)</t>
+  </si>
+  <si>
+    <t>最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0}</t>
+  </si>
+  <si>
+    <t>2,5,1|2,8,1|2,11,1|2,14,1|2,17,1|2,20,1|2,23,1|2,25,1|2,28,1|2,31,1|2,35,1|2,40,1|2,45,1|2,60,0|2,65,1|2,70,1|2,75,1|2,80,1|2,85,1|2,90,1|2,100,1</t>
+  </si>
+  <si>
+    <t>暴躁天性(1级),暴躁天性(2级),暴躁天性(3级),暴躁天性(4级),暴躁天性(5级),暴躁天性(6级),暴躁天性(7级),暴躁天性(8级),暴躁天性(9级),暴躁天性(10级),进阶暴躁天性(11级),进阶暴躁天性(12级),进阶暴躁天性(12级),进阶暴躁天性(13级),进阶暴躁天性(14级),进阶暴躁天性(15级),高级暴躁天性(16级),高级暴躁天性(17级),高级暴躁天性(18级),暴躁天性专精(19级),暴躁天性专精(20级),暴躁天性大师(21级)</t>
+  </si>
+  <si>
+    <t>暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0}</t>
+  </si>
+  <si>
+    <t>19,5,0|19,6,0|19,10,0|19,12,0|19,13,0|19,190,0|19,21,0|19,22,0|19,23,0|19,31,0|19,35,0|19,40,0|19,45,0|19,50,0|19,55,0|19,60,0|19,65,0|19,70,0|19,75,0|19,80,0|19,85,0</t>
+  </si>
+  <si>
+    <t>旋风斩!(1级),旋风斩!(2级),旋风斩!(3级),旋风斩!(4级),旋风斩!(5级),旋风斩!(6级),旋风斩!(7级),旋风斩!(8级),旋风斩!(9级),旋风斩!(10级),进阶旋风斩!(11级),进阶旋风斩!(12级),进阶旋风斩!(12级),进阶旋风斩!(13级),进阶旋风斩!(14级),进阶旋风斩!(15级),高级旋风斩!(16级),高级旋风斩!(17级),高级旋风斩!(18级),旋风斩!专精(19级),旋风斩!专精(20级),旋风斩!大师(21级)</t>
   </si>
 </sst>
 </file>
@@ -150,7 +186,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,12 +218,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -801,52 +831,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -855,83 +885,83 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
@@ -964,9 +994,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1299,16 +1326,16 @@
   <dimension ref="A1:AB235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9.12037037037037" customWidth="1"/>
-    <col min="3" max="3" width="11.1574074074074" customWidth="1"/>
-    <col min="4" max="4" width="11.5277777777778" customWidth="1"/>
-    <col min="5" max="6" width="11.1574074074074" customWidth="1"/>
-    <col min="7" max="7" width="34.6018518518519" customWidth="1"/>
+    <col min="1" max="2" width="9.11666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.1583333333333" customWidth="1"/>
+    <col min="4" max="4" width="11.525" customWidth="1"/>
+    <col min="5" max="6" width="11.1583333333333" customWidth="1"/>
+    <col min="7" max="7" width="34.6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
@@ -1422,7 +1449,7 @@
         <v>17</v>
       </c>
       <c r="H3"/>
-      <c r="I3" s="15"/>
+      <c r="I3" s="14"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -1479,1174 +1506,1226 @@
         <v>21</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" ht="18.45" customHeight="1" spans="1:6">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" ht="18.45" customHeight="1" spans="1:6">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" ht="18.45" customHeight="1" spans="1:6">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" ht="18.45" customHeight="1" spans="1:6">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" ht="18.45" customHeight="1" spans="1:7">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" ht="18.45" customHeight="1" spans="1:7">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" ht="18.45" customHeight="1" spans="1:7">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" ht="18.45" customHeight="1" spans="1:7">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10">
+        <v>101</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="4:6">
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="4:6">
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="4:6">
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="4:6">
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="4:6">
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="4:6">
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="4:6">
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="4:6">
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="4:6">
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="4:6">
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="4:6">
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" spans="4:6">
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="4:6">
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="4:6">
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="4:6">
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="4:6">
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="4:6">
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="4:6">
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="4:6">
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="4:6">
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="4:6">
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" spans="4:6">
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="4:6">
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" spans="4:6">
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" spans="4:6">
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" spans="4:6">
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" spans="4:6">
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" spans="4:6">
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
     </row>
     <row r="38" spans="4:6">
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="4:6">
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
     </row>
     <row r="40" spans="4:6">
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
     </row>
     <row r="41" spans="4:6">
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
     </row>
     <row r="42" spans="4:6">
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" spans="4:6">
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
     </row>
     <row r="44" spans="4:6">
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
     </row>
     <row r="45" spans="4:6">
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
     </row>
     <row r="46" spans="4:6">
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
     </row>
     <row r="47" spans="4:6">
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
     </row>
     <row r="48" spans="4:6">
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
     </row>
     <row r="49" spans="4:6">
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
     </row>
     <row r="50" spans="4:6">
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
     </row>
     <row r="51" spans="4:6">
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
     </row>
     <row r="52" spans="4:6">
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
     </row>
     <row r="53" spans="4:6">
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
     </row>
     <row r="54" spans="4:6">
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
     </row>
     <row r="55" spans="4:6">
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
     </row>
     <row r="56" spans="4:6">
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
     </row>
     <row r="57" spans="4:6">
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
     </row>
     <row r="58" spans="4:6">
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
     </row>
     <row r="59" spans="4:6">
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
     </row>
     <row r="60" spans="4:6">
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
     </row>
     <row r="61" spans="4:6">
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
     </row>
     <row r="62" spans="4:6">
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
     </row>
     <row r="63" spans="4:6">
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
     </row>
     <row r="64" spans="4:6">
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
     </row>
     <row r="65" spans="4:6">
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
     </row>
     <row r="66" spans="4:6">
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
     </row>
     <row r="67" spans="4:6">
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
     </row>
     <row r="68" spans="4:6">
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
     </row>
     <row r="69" spans="4:6">
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
     </row>
     <row r="70" spans="4:6">
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
     </row>
     <row r="71" spans="4:6">
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
     </row>
     <row r="72" spans="4:6">
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
     </row>
     <row r="73" spans="4:6">
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
     </row>
     <row r="74" spans="4:6">
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
     </row>
     <row r="75" spans="4:6">
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
     </row>
     <row r="76" spans="4:6">
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
     </row>
     <row r="77" spans="4:6">
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
     </row>
     <row r="78" spans="4:6">
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
     </row>
     <row r="79" spans="4:6">
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
     </row>
     <row r="80" spans="4:6">
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
     </row>
     <row r="81" spans="4:6">
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
     </row>
     <row r="82" spans="4:6">
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
     </row>
     <row r="83" spans="4:6">
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
     </row>
     <row r="84" spans="4:6">
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
     </row>
     <row r="85" spans="4:6">
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
     </row>
     <row r="86" spans="4:6">
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
     </row>
     <row r="87" spans="4:6">
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
     </row>
     <row r="88" spans="4:6">
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
     </row>
     <row r="89" spans="4:6">
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
     </row>
     <row r="90" spans="4:6">
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
     </row>
     <row r="91" spans="4:6">
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
     </row>
     <row r="92" spans="4:6">
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
     </row>
     <row r="93" spans="4:6">
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
     </row>
     <row r="94" spans="4:6">
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
     </row>
     <row r="95" spans="4:6">
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
     </row>
     <row r="96" spans="4:6">
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
     </row>
     <row r="97" spans="4:6">
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
     </row>
     <row r="98" spans="4:6">
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
     </row>
     <row r="99" spans="4:6">
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
     </row>
     <row r="100" spans="4:6">
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
     </row>
     <row r="101" spans="4:6">
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
     </row>
     <row r="102" spans="4:6">
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
     </row>
     <row r="103" spans="4:6">
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
     </row>
     <row r="104" spans="4:6">
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
     </row>
     <row r="105" spans="4:6">
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
     </row>
     <row r="106" spans="4:6">
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
     </row>
     <row r="107" spans="4:6">
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
     </row>
     <row r="108" spans="4:6">
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
     </row>
     <row r="109" spans="4:6">
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
     </row>
     <row r="110" spans="4:6">
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
     </row>
     <row r="111" spans="4:6">
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
     </row>
     <row r="112" spans="4:6">
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
     </row>
     <row r="113" spans="4:6">
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
     </row>
     <row r="114" spans="4:6">
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
     </row>
     <row r="115" spans="4:6">
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
     </row>
     <row r="116" spans="4:6">
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
     </row>
     <row r="117" spans="4:6">
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
     </row>
     <row r="118" spans="4:6">
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
     </row>
     <row r="119" spans="4:6">
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
     </row>
     <row r="120" spans="4:6">
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
     </row>
     <row r="121" spans="4:6">
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
     </row>
     <row r="122" spans="4:6">
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
     </row>
     <row r="123" spans="4:6">
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
     </row>
     <row r="124" spans="4:6">
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
     </row>
     <row r="125" spans="4:6">
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
     </row>
     <row r="126" spans="4:6">
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
     </row>
     <row r="127" spans="4:6">
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
     </row>
     <row r="128" spans="4:6">
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
     </row>
     <row r="129" spans="4:6">
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
     </row>
     <row r="130" spans="4:6">
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
     </row>
     <row r="131" spans="4:6">
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
     </row>
     <row r="132" spans="4:6">
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
     </row>
     <row r="133" spans="4:6">
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
     </row>
     <row r="134" spans="4:6">
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
     </row>
     <row r="135" spans="4:6">
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
     </row>
     <row r="136" spans="4:6">
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
     </row>
     <row r="137" spans="4:6">
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13"/>
     </row>
     <row r="138" spans="4:6">
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
     </row>
     <row r="139" spans="4:6">
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
     </row>
     <row r="140" spans="4:6">
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
     </row>
     <row r="141" spans="4:6">
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
     </row>
     <row r="142" spans="4:6">
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
     </row>
     <row r="143" spans="4:6">
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13"/>
     </row>
     <row r="144" spans="4:6">
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
     </row>
     <row r="145" spans="4:6">
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
     </row>
     <row r="146" spans="4:6">
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
     </row>
     <row r="147" spans="4:6">
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
     </row>
     <row r="148" spans="4:6">
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13"/>
     </row>
     <row r="149" spans="4:6">
-      <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="14"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
     </row>
     <row r="150" spans="4:6">
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
     </row>
     <row r="151" spans="4:6">
-      <c r="D151" s="14"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="14"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
     </row>
     <row r="152" spans="4:6">
-      <c r="D152" s="14"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="14"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
     </row>
     <row r="153" spans="4:6">
-      <c r="D153" s="14"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
     </row>
     <row r="154" spans="4:6">
-      <c r="D154" s="14"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
     </row>
     <row r="155" spans="4:6">
-      <c r="D155" s="14"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="14"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13"/>
     </row>
     <row r="156" spans="4:6">
-      <c r="D156" s="14"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="14"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
     </row>
     <row r="157" spans="4:6">
-      <c r="D157" s="14"/>
-      <c r="E157" s="14"/>
-      <c r="F157" s="14"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="13"/>
     </row>
     <row r="158" spans="4:6">
-      <c r="D158" s="14"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="14"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
     </row>
     <row r="159" spans="4:6">
-      <c r="D159" s="14"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="14"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13"/>
     </row>
     <row r="160" spans="4:6">
-      <c r="D160" s="14"/>
-      <c r="E160" s="14"/>
-      <c r="F160" s="14"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
     </row>
     <row r="161" spans="4:6">
-      <c r="D161" s="14"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="14"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
     </row>
     <row r="162" spans="4:6">
-      <c r="D162" s="14"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="14"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13"/>
     </row>
     <row r="163" spans="4:6">
-      <c r="D163" s="14"/>
-      <c r="E163" s="14"/>
-      <c r="F163" s="14"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="13"/>
     </row>
     <row r="164" spans="4:6">
-      <c r="D164" s="14"/>
-      <c r="E164" s="14"/>
-      <c r="F164" s="14"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
     </row>
     <row r="165" spans="4:6">
-      <c r="D165" s="14"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="14"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13"/>
     </row>
     <row r="166" spans="4:6">
-      <c r="D166" s="14"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="14"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13"/>
     </row>
     <row r="167" spans="4:6">
-      <c r="D167" s="14"/>
-      <c r="E167" s="14"/>
-      <c r="F167" s="14"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="13"/>
     </row>
     <row r="168" spans="4:6">
-      <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="14"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13"/>
     </row>
     <row r="169" spans="4:6">
-      <c r="D169" s="14"/>
-      <c r="E169" s="14"/>
-      <c r="F169" s="14"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13"/>
     </row>
     <row r="170" spans="4:6">
-      <c r="D170" s="14"/>
-      <c r="E170" s="14"/>
-      <c r="F170" s="14"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="13"/>
+      <c r="F170" s="13"/>
     </row>
     <row r="171" spans="4:6">
-      <c r="D171" s="14"/>
-      <c r="E171" s="14"/>
-      <c r="F171" s="14"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="13"/>
     </row>
     <row r="172" spans="4:6">
-      <c r="D172" s="14"/>
-      <c r="E172" s="14"/>
-      <c r="F172" s="14"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="13"/>
+      <c r="F172" s="13"/>
     </row>
     <row r="173" spans="4:6">
-      <c r="D173" s="14"/>
-      <c r="E173" s="14"/>
-      <c r="F173" s="14"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="13"/>
+      <c r="F173" s="13"/>
     </row>
     <row r="174" spans="4:6">
-      <c r="D174" s="14"/>
-      <c r="E174" s="14"/>
-      <c r="F174" s="14"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="13"/>
     </row>
     <row r="175" spans="4:6">
-      <c r="D175" s="14"/>
-      <c r="E175" s="14"/>
-      <c r="F175" s="14"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="13"/>
+      <c r="F175" s="13"/>
     </row>
     <row r="176" spans="4:6">
-      <c r="D176" s="14"/>
-      <c r="E176" s="14"/>
-      <c r="F176" s="14"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="13"/>
     </row>
     <row r="177" spans="4:6">
-      <c r="D177" s="14"/>
-      <c r="E177" s="14"/>
-      <c r="F177" s="14"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="13"/>
     </row>
     <row r="178" spans="4:6">
-      <c r="D178" s="14"/>
-      <c r="E178" s="14"/>
-      <c r="F178" s="14"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="13"/>
     </row>
     <row r="179" spans="4:6">
-      <c r="D179" s="14"/>
-      <c r="E179" s="14"/>
-      <c r="F179" s="14"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="13"/>
     </row>
     <row r="180" spans="4:6">
-      <c r="D180" s="14"/>
-      <c r="E180" s="14"/>
-      <c r="F180" s="14"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="13"/>
+      <c r="F180" s="13"/>
     </row>
     <row r="181" spans="4:6">
-      <c r="D181" s="14"/>
-      <c r="E181" s="14"/>
-      <c r="F181" s="14"/>
+      <c r="D181" s="13"/>
+      <c r="E181" s="13"/>
+      <c r="F181" s="13"/>
     </row>
     <row r="182" spans="4:6">
-      <c r="D182" s="14"/>
-      <c r="E182" s="14"/>
-      <c r="F182" s="14"/>
+      <c r="D182" s="13"/>
+      <c r="E182" s="13"/>
+      <c r="F182" s="13"/>
     </row>
     <row r="183" spans="4:6">
-      <c r="D183" s="14"/>
-      <c r="E183" s="14"/>
-      <c r="F183" s="14"/>
+      <c r="D183" s="13"/>
+      <c r="E183" s="13"/>
+      <c r="F183" s="13"/>
     </row>
     <row r="184" spans="4:6">
-      <c r="D184" s="14"/>
-      <c r="E184" s="14"/>
-      <c r="F184" s="14"/>
+      <c r="D184" s="13"/>
+      <c r="E184" s="13"/>
+      <c r="F184" s="13"/>
     </row>
     <row r="185" spans="4:6">
-      <c r="D185" s="14"/>
-      <c r="E185" s="14"/>
-      <c r="F185" s="14"/>
+      <c r="D185" s="13"/>
+      <c r="E185" s="13"/>
+      <c r="F185" s="13"/>
     </row>
     <row r="186" spans="4:6">
-      <c r="D186" s="14"/>
-      <c r="E186" s="14"/>
-      <c r="F186" s="14"/>
+      <c r="D186" s="13"/>
+      <c r="E186" s="13"/>
+      <c r="F186" s="13"/>
     </row>
     <row r="187" spans="4:6">
-      <c r="D187" s="14"/>
-      <c r="E187" s="14"/>
-      <c r="F187" s="14"/>
+      <c r="D187" s="13"/>
+      <c r="E187" s="13"/>
+      <c r="F187" s="13"/>
     </row>
     <row r="188" spans="4:6">
-      <c r="D188" s="14"/>
-      <c r="E188" s="14"/>
-      <c r="F188" s="14"/>
+      <c r="D188" s="13"/>
+      <c r="E188" s="13"/>
+      <c r="F188" s="13"/>
     </row>
     <row r="189" spans="4:6">
-      <c r="D189" s="14"/>
-      <c r="E189" s="14"/>
-      <c r="F189" s="14"/>
+      <c r="D189" s="13"/>
+      <c r="E189" s="13"/>
+      <c r="F189" s="13"/>
     </row>
     <row r="190" spans="4:6">
-      <c r="D190" s="14"/>
-      <c r="E190" s="14"/>
-      <c r="F190" s="14"/>
+      <c r="D190" s="13"/>
+      <c r="E190" s="13"/>
+      <c r="F190" s="13"/>
     </row>
     <row r="191" spans="4:6">
-      <c r="D191" s="14"/>
-      <c r="E191" s="14"/>
-      <c r="F191" s="14"/>
+      <c r="D191" s="13"/>
+      <c r="E191" s="13"/>
+      <c r="F191" s="13"/>
     </row>
     <row r="192" spans="4:6">
-      <c r="D192" s="14"/>
-      <c r="E192" s="14"/>
-      <c r="F192" s="14"/>
+      <c r="D192" s="13"/>
+      <c r="E192" s="13"/>
+      <c r="F192" s="13"/>
     </row>
     <row r="193" spans="4:6">
-      <c r="D193" s="14"/>
-      <c r="E193" s="14"/>
-      <c r="F193" s="14"/>
+      <c r="D193" s="13"/>
+      <c r="E193" s="13"/>
+      <c r="F193" s="13"/>
     </row>
     <row r="194" spans="4:6">
-      <c r="D194" s="14"/>
-      <c r="E194" s="14"/>
-      <c r="F194" s="14"/>
+      <c r="D194" s="13"/>
+      <c r="E194" s="13"/>
+      <c r="F194" s="13"/>
     </row>
     <row r="195" spans="4:6">
-      <c r="D195" s="14"/>
-      <c r="E195" s="14"/>
-      <c r="F195" s="14"/>
+      <c r="D195" s="13"/>
+      <c r="E195" s="13"/>
+      <c r="F195" s="13"/>
     </row>
     <row r="196" spans="4:6">
-      <c r="D196" s="14"/>
-      <c r="E196" s="14"/>
-      <c r="F196" s="14"/>
+      <c r="D196" s="13"/>
+      <c r="E196" s="13"/>
+      <c r="F196" s="13"/>
     </row>
     <row r="197" spans="4:6">
-      <c r="D197" s="14"/>
-      <c r="E197" s="14"/>
-      <c r="F197" s="14"/>
+      <c r="D197" s="13"/>
+      <c r="E197" s="13"/>
+      <c r="F197" s="13"/>
     </row>
     <row r="198" spans="4:6">
-      <c r="D198" s="14"/>
-      <c r="E198" s="14"/>
-      <c r="F198" s="14"/>
+      <c r="D198" s="13"/>
+      <c r="E198" s="13"/>
+      <c r="F198" s="13"/>
     </row>
     <row r="199" spans="4:6">
-      <c r="D199" s="14"/>
-      <c r="E199" s="14"/>
-      <c r="F199" s="14"/>
+      <c r="D199" s="13"/>
+      <c r="E199" s="13"/>
+      <c r="F199" s="13"/>
     </row>
     <row r="200" spans="4:6">
-      <c r="D200" s="14"/>
-      <c r="E200" s="14"/>
-      <c r="F200" s="14"/>
+      <c r="D200" s="13"/>
+      <c r="E200" s="13"/>
+      <c r="F200" s="13"/>
     </row>
     <row r="201" spans="4:6">
-      <c r="D201" s="14"/>
-      <c r="E201" s="14"/>
-      <c r="F201" s="14"/>
+      <c r="D201" s="13"/>
+      <c r="E201" s="13"/>
+      <c r="F201" s="13"/>
     </row>
     <row r="202" spans="4:6">
-      <c r="D202" s="14"/>
-      <c r="E202" s="14"/>
-      <c r="F202" s="14"/>
+      <c r="D202" s="13"/>
+      <c r="E202" s="13"/>
+      <c r="F202" s="13"/>
     </row>
     <row r="203" spans="4:6">
-      <c r="D203" s="14"/>
-      <c r="E203" s="14"/>
-      <c r="F203" s="14"/>
+      <c r="D203" s="13"/>
+      <c r="E203" s="13"/>
+      <c r="F203" s="13"/>
     </row>
     <row r="204" spans="4:6">
-      <c r="D204" s="14"/>
-      <c r="E204" s="14"/>
-      <c r="F204" s="14"/>
+      <c r="D204" s="13"/>
+      <c r="E204" s="13"/>
+      <c r="F204" s="13"/>
     </row>
     <row r="205" spans="4:6">
-      <c r="D205" s="14"/>
-      <c r="E205" s="14"/>
-      <c r="F205" s="14"/>
+      <c r="D205" s="13"/>
+      <c r="E205" s="13"/>
+      <c r="F205" s="13"/>
     </row>
     <row r="206" spans="4:6">
-      <c r="D206" s="14"/>
-      <c r="E206" s="14"/>
-      <c r="F206" s="14"/>
+      <c r="D206" s="13"/>
+      <c r="E206" s="13"/>
+      <c r="F206" s="13"/>
     </row>
     <row r="207" spans="4:6">
-      <c r="D207" s="14"/>
-      <c r="E207" s="14"/>
-      <c r="F207" s="14"/>
+      <c r="D207" s="13"/>
+      <c r="E207" s="13"/>
+      <c r="F207" s="13"/>
     </row>
     <row r="208" spans="4:6">
-      <c r="D208" s="14"/>
-      <c r="E208" s="14"/>
-      <c r="F208" s="14"/>
+      <c r="D208" s="13"/>
+      <c r="E208" s="13"/>
+      <c r="F208" s="13"/>
     </row>
     <row r="209" spans="4:6">
-      <c r="D209" s="14"/>
-      <c r="E209" s="14"/>
-      <c r="F209" s="14"/>
+      <c r="D209" s="13"/>
+      <c r="E209" s="13"/>
+      <c r="F209" s="13"/>
     </row>
     <row r="210" spans="4:6">
-      <c r="D210" s="14"/>
-      <c r="E210" s="14"/>
-      <c r="F210" s="14"/>
+      <c r="D210" s="13"/>
+      <c r="E210" s="13"/>
+      <c r="F210" s="13"/>
     </row>
     <row r="211" spans="4:6">
-      <c r="D211" s="14"/>
-      <c r="E211" s="14"/>
-      <c r="F211" s="14"/>
+      <c r="D211" s="13"/>
+      <c r="E211" s="13"/>
+      <c r="F211" s="13"/>
     </row>
     <row r="212" spans="4:6">
-      <c r="D212" s="14"/>
-      <c r="E212" s="14"/>
-      <c r="F212" s="14"/>
+      <c r="D212" s="13"/>
+      <c r="E212" s="13"/>
+      <c r="F212" s="13"/>
     </row>
     <row r="213" spans="4:6">
-      <c r="D213" s="14"/>
-      <c r="E213" s="14"/>
-      <c r="F213" s="14"/>
+      <c r="D213" s="13"/>
+      <c r="E213" s="13"/>
+      <c r="F213" s="13"/>
     </row>
     <row r="214" spans="4:6">
-      <c r="D214" s="14"/>
-      <c r="E214" s="14"/>
-      <c r="F214" s="14"/>
+      <c r="D214" s="13"/>
+      <c r="E214" s="13"/>
+      <c r="F214" s="13"/>
     </row>
     <row r="215" spans="4:6">
-      <c r="D215" s="14"/>
-      <c r="E215" s="14"/>
-      <c r="F215" s="14"/>
+      <c r="D215" s="13"/>
+      <c r="E215" s="13"/>
+      <c r="F215" s="13"/>
     </row>
     <row r="216" spans="4:6">
-      <c r="D216" s="14"/>
-      <c r="E216" s="14"/>
-      <c r="F216" s="14"/>
+      <c r="D216" s="13"/>
+      <c r="E216" s="13"/>
+      <c r="F216" s="13"/>
     </row>
     <row r="217" spans="4:6">
-      <c r="D217" s="14"/>
-      <c r="E217" s="14"/>
-      <c r="F217" s="14"/>
+      <c r="D217" s="13"/>
+      <c r="E217" s="13"/>
+      <c r="F217" s="13"/>
     </row>
     <row r="218" spans="4:6">
-      <c r="D218" s="14"/>
-      <c r="E218" s="14"/>
-      <c r="F218" s="14"/>
+      <c r="D218" s="13"/>
+      <c r="E218" s="13"/>
+      <c r="F218" s="13"/>
     </row>
     <row r="219" spans="4:6">
-      <c r="D219" s="14"/>
-      <c r="E219" s="14"/>
-      <c r="F219" s="14"/>
+      <c r="D219" s="13"/>
+      <c r="E219" s="13"/>
+      <c r="F219" s="13"/>
     </row>
     <row r="220" spans="4:6">
-      <c r="D220" s="14"/>
-      <c r="E220" s="14"/>
-      <c r="F220" s="14"/>
+      <c r="D220" s="13"/>
+      <c r="E220" s="13"/>
+      <c r="F220" s="13"/>
     </row>
     <row r="221" spans="4:6">
-      <c r="D221" s="14"/>
-      <c r="E221" s="14"/>
-      <c r="F221" s="14"/>
+      <c r="D221" s="13"/>
+      <c r="E221" s="13"/>
+      <c r="F221" s="13"/>
     </row>
     <row r="222" spans="4:6">
-      <c r="D222" s="14"/>
-      <c r="E222" s="14"/>
-      <c r="F222" s="14"/>
+      <c r="D222" s="13"/>
+      <c r="E222" s="13"/>
+      <c r="F222" s="13"/>
     </row>
     <row r="223" spans="4:6">
-      <c r="D223" s="14"/>
-      <c r="E223" s="14"/>
-      <c r="F223" s="14"/>
+      <c r="D223" s="13"/>
+      <c r="E223" s="13"/>
+      <c r="F223" s="13"/>
     </row>
     <row r="224" spans="4:6">
-      <c r="D224" s="14"/>
-      <c r="E224" s="14"/>
-      <c r="F224" s="14"/>
+      <c r="D224" s="13"/>
+      <c r="E224" s="13"/>
+      <c r="F224" s="13"/>
     </row>
     <row r="225" spans="4:6">
-      <c r="D225" s="14"/>
-      <c r="E225" s="14"/>
-      <c r="F225" s="14"/>
+      <c r="D225" s="13"/>
+      <c r="E225" s="13"/>
+      <c r="F225" s="13"/>
     </row>
     <row r="226" spans="4:6">
-      <c r="D226" s="14"/>
-      <c r="E226" s="14"/>
-      <c r="F226" s="14"/>
+      <c r="D226" s="13"/>
+      <c r="E226" s="13"/>
+      <c r="F226" s="13"/>
     </row>
     <row r="227" spans="4:6">
-      <c r="D227" s="14"/>
-      <c r="E227" s="14"/>
-      <c r="F227" s="14"/>
+      <c r="D227" s="13"/>
+      <c r="E227" s="13"/>
+      <c r="F227" s="13"/>
     </row>
     <row r="228" spans="4:6">
-      <c r="D228" s="14"/>
-      <c r="E228" s="14"/>
-      <c r="F228" s="14"/>
+      <c r="D228" s="13"/>
+      <c r="E228" s="13"/>
+      <c r="F228" s="13"/>
     </row>
     <row r="229" spans="4:6">
-      <c r="D229" s="14"/>
-      <c r="E229" s="14"/>
-      <c r="F229" s="14"/>
+      <c r="D229" s="13"/>
+      <c r="E229" s="13"/>
+      <c r="F229" s="13"/>
     </row>
     <row r="230" spans="4:6">
-      <c r="D230" s="14"/>
-      <c r="E230" s="14"/>
-      <c r="F230" s="14"/>
+      <c r="D230" s="13"/>
+      <c r="E230" s="13"/>
+      <c r="F230" s="13"/>
     </row>
     <row r="231" spans="4:6">
-      <c r="D231" s="14"/>
-      <c r="E231" s="14"/>
-      <c r="F231" s="14"/>
+      <c r="D231" s="13"/>
+      <c r="E231" s="13"/>
+      <c r="F231" s="13"/>
     </row>
     <row r="232" spans="4:6">
-      <c r="D232" s="14"/>
-      <c r="E232" s="14"/>
-      <c r="F232" s="14"/>
+      <c r="D232" s="13"/>
+      <c r="E232" s="13"/>
+      <c r="F232" s="13"/>
     </row>
     <row r="233" spans="4:6">
-      <c r="D233" s="14"/>
-      <c r="E233" s="14"/>
-      <c r="F233" s="14"/>
+      <c r="D233" s="13"/>
+      <c r="E233" s="13"/>
+      <c r="F233" s="13"/>
     </row>
     <row r="234" spans="4:6">
-      <c r="D234" s="14"/>
-      <c r="E234" s="14"/>
-      <c r="F234" s="14"/>
+      <c r="D234" s="13"/>
+      <c r="E234" s="13"/>
+      <c r="F234" s="13"/>
     </row>
     <row r="235" spans="4:6">
-      <c r="D235" s="14"/>
-      <c r="E235" s="14"/>
-      <c r="F235" s="14"/>
+      <c r="D235" s="13"/>
+      <c r="E235" s="13"/>
+      <c r="F235" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Config/Datas/SwordSkillBase.xlsx
+++ b/Luban/Config/Datas/SwordSkillBase.xlsx
@@ -66,12 +66,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+第一个表示MP消耗
+第二个表示目标范围
+第三个表示持续回合</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -92,6 +116,12 @@
   </si>
   <si>
     <t>Attribute</t>
+  </si>
+  <si>
+    <t>AttackType</t>
+  </si>
+  <si>
+    <t>AttackParam</t>
   </si>
   <si>
     <t>##type</t>
@@ -107,6 +137,12 @@
 </t>
   </si>
   <si>
+    <t>SKILL.TYPE</t>
+  </si>
+  <si>
+    <t>(list#sep=|),Tb.SwordSkill.SkillFontValue</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -128,6 +164,12 @@
     <t>技能属性</t>
   </si>
   <si>
+    <t>技能攻击类型</t>
+  </si>
+  <si>
+    <t>技能前置参数</t>
+  </si>
+  <si>
     <t>剑术(1级),剑术(2级),剑术(3级),剑术(4级),剑术(5级),剑术(6级),剑术(7级),剑术(8级),剑术(9级),剑术(10级),进阶剑术(11级),进阶剑术(12级),进阶剑术(12级),进阶剑术(13级),进阶剑术(14级),进阶剑术(15级),高级剑术(16级),高级剑术(17级),高级剑术(18级),剑术专精(19级),剑术专精(20级),剑术大师(21级)</t>
   </si>
   <si>
@@ -174,6 +216,12 @@
   </si>
   <si>
     <t>旋风斩!(1级),旋风斩!(2级),旋风斩!(3级),旋风斩!(4级),旋风斩!(5级),旋风斩!(6级),旋风斩!(7级),旋风斩!(8级),旋风斩!(9级),旋风斩!(10级),进阶旋风斩!(11级),进阶旋风斩!(12级),进阶旋风斩!(12级),进阶旋风斩!(13级),进阶旋风斩!(14级),进阶旋风斩!(15级),高级旋风斩!(16级),高级旋风斩!(17级),高级旋风斩!(18级),旋风斩!专精(19级),旋风斩!专精(20级),旋风斩!大师(21级)</t>
+  </si>
+  <si>
+    <t>SwordType</t>
+  </si>
+  <si>
+    <t>0,1,1|10,1,1|20,1,1|0,1,1|20,1,1|40,1,1|50,1,1|0,1,1|0,1,1|60,1,1|0,1,1|100,1,1|0,1,1|0,1,1|200,1,1|199,1,1|20,3,1|50,3,1|50,3,1|100,3,1|0,3,1</t>
   </si>
 </sst>
 </file>
@@ -961,7 +1009,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
@@ -997,12 +1045,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1325,8 +1367,8 @@
   <sheetPr/>
   <dimension ref="A1:AB235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1360,8 +1402,12 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1"/>
-      <c r="I1"/>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
@@ -1384,28 +1430,32 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
       <c r="A2" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2"/>
-      <c r="I2"/>
+        <v>12</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -1428,28 +1478,32 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3"/>
-      <c r="I3" s="14"/>
+        <v>21</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -1470,7 +1524,7 @@
       <c r="AA3"/>
       <c r="AB3"/>
     </row>
-    <row r="4" ht="18.5" customHeight="1" spans="1:7">
+    <row r="4" ht="18.5" customHeight="1" spans="1:9">
       <c r="A4" s="9"/>
       <c r="B4" s="10">
         <v>1</v>
@@ -1482,14 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" ht="18.45" customHeight="1" spans="1:9">
       <c r="A5" s="9"/>
@@ -1503,17 +1559,18 @@
         <v>0</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" ht="18.45" customHeight="1" spans="1:7">
+        <v>29</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" ht="18.45" customHeight="1" spans="1:9">
       <c r="A6" s="9"/>
       <c r="B6" s="10">
         <v>3</v>
@@ -1525,16 +1582,18 @@
         <v>0</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" ht="18.45" customHeight="1" spans="1:7">
+        <v>32</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" ht="18.45" customHeight="1" spans="1:9">
       <c r="A7" s="9"/>
       <c r="B7" s="10">
         <v>4</v>
@@ -1546,16 +1605,18 @@
         <v>0</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" ht="18.45" customHeight="1" spans="1:7">
+        <v>35</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" ht="18.45" customHeight="1" spans="1:9">
       <c r="A8" s="9"/>
       <c r="B8" s="10">
         <v>5</v>
@@ -1567,16 +1628,18 @@
         <v>0</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" ht="18.45" customHeight="1" spans="1:7">
+        <v>38</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" ht="18.45" customHeight="1" spans="1:9">
       <c r="A9" s="9"/>
       <c r="B9" s="10">
         <v>101</v>
@@ -1588,13 +1651,19 @@
         <v>1</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="4:6">

--- a/Luban/Config/Datas/SwordSkillBase.xlsx
+++ b/Luban/Config/Datas/SwordSkillBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,12 +90,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="J3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+第一个表示MP消耗
+第二个表示目标范围
+第三个表示持续回合</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -122,6 +146,9 @@
   </si>
   <si>
     <t>AttackParam</t>
+  </si>
+  <si>
+    <t>SkillParam</t>
   </si>
   <si>
     <t>##type</t>
@@ -170,6 +197,9 @@
     <t>技能前置参数</t>
   </si>
   <si>
+    <t>技能执行参数</t>
+  </si>
+  <si>
     <t>剑术(1级),剑术(2级),剑术(3级),剑术(4级),剑术(5级),剑术(6级),剑术(7级),剑术(8级),剑术(9级),剑术(10级),进阶剑术(11级),进阶剑术(12级),进阶剑术(12级),进阶剑术(13级),进阶剑术(14级),进阶剑术(15级),高级剑术(16级),高级剑术(17级),高级剑术(18级),剑术专精(19级),剑术专精(20级),剑术大师(21级)</t>
   </si>
   <si>
@@ -218,10 +248,16 @@
     <t>旋风斩!(1级),旋风斩!(2级),旋风斩!(3级),旋风斩!(4级),旋风斩!(5级),旋风斩!(6级),旋风斩!(7级),旋风斩!(8级),旋风斩!(9级),旋风斩!(10级),进阶旋风斩!(11级),进阶旋风斩!(12级),进阶旋风斩!(12级),进阶旋风斩!(13级),进阶旋风斩!(14级),进阶旋风斩!(15级),高级旋风斩!(16级),高级旋风斩!(17级),高级旋风斩!(18级),旋风斩!专精(19级),旋风斩!专精(20级),旋风斩!大师(21级)</t>
   </si>
   <si>
-    <t>SwordType</t>
+    <t>技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0}</t>
+  </si>
+  <si>
+    <t>Close_Combat</t>
   </si>
   <si>
     <t>0,1,1|10,1,1|20,1,1|0,1,1|20,1,1|40,1,1|50,1,1|0,1,1|0,1,1|60,1,1|0,1,1|100,1,1|0,1,1|0,1,1|200,1,1|199,1,1|20,3,1|50,3,1|50,3,1|100,3,1|0,3,1</t>
+  </si>
+  <si>
+    <t>3,100,FALSE,0|3,110,FALSE,0|3,120,FALSE,0|3,130,FALSE,0|3,100,FALSE,0|3,140,FALSE,0|3,150,FALSE,0|3,160,FALSE,0|3,170,FALSE,0|3,180,FALSE,0|3,190,FALSE,0|3,200,FALSE,0|3,210,FALSE,0|3,220,FALSE,0|3,230,FALSE,0|3,240,FALSE,0|3,250,FALSE,0|3,260,FALSE,0|3,270,FALSE,0|3,280,FALSE,0|3,290,FALSE,0</t>
   </si>
 </sst>
 </file>
@@ -1367,17 +1403,17 @@
   <sheetPr/>
   <dimension ref="A1:AB235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="9.11666666666667" customWidth="1"/>
-    <col min="3" max="3" width="11.1583333333333" customWidth="1"/>
-    <col min="4" max="4" width="11.525" customWidth="1"/>
-    <col min="5" max="6" width="11.1583333333333" customWidth="1"/>
-    <col min="7" max="7" width="34.6" customWidth="1"/>
+    <col min="1" max="2" width="9.12037037037037" customWidth="1"/>
+    <col min="3" max="3" width="11.1574074074074" customWidth="1"/>
+    <col min="4" max="4" width="11.5277777777778" customWidth="1"/>
+    <col min="5" max="6" width="11.1574074074074" customWidth="1"/>
+    <col min="7" max="7" width="34.6018518518519" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
@@ -1408,7 +1444,9 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1"/>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
@@ -1430,33 +1468,35 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2"/>
+        <v>15</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -1478,33 +1518,35 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3"/>
+        <v>24</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -1524,7 +1566,7 @@
       <c r="AA3"/>
       <c r="AB3"/>
     </row>
-    <row r="4" ht="18.5" customHeight="1" spans="1:9">
+    <row r="4" ht="18.5" customHeight="1" spans="1:10">
       <c r="A4" s="9"/>
       <c r="B4" s="10">
         <v>1</v>
@@ -1536,18 +1578,19 @@
         <v>0</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-    </row>
-    <row r="5" ht="18.45" customHeight="1" spans="1:9">
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" ht="18.45" customHeight="1" spans="1:10">
       <c r="A5" s="9"/>
       <c r="B5" s="10">
         <v>2</v>
@@ -1559,18 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-    </row>
-    <row r="6" ht="18.45" customHeight="1" spans="1:9">
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" ht="18.45" customHeight="1" spans="1:10">
       <c r="A6" s="9"/>
       <c r="B6" s="10">
         <v>3</v>
@@ -1582,18 +1626,19 @@
         <v>0</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-    </row>
-    <row r="7" ht="18.45" customHeight="1" spans="1:9">
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" ht="18.45" customHeight="1" spans="1:10">
       <c r="A7" s="9"/>
       <c r="B7" s="10">
         <v>4</v>
@@ -1605,18 +1650,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-    </row>
-    <row r="8" ht="18.45" customHeight="1" spans="1:9">
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" ht="18.45" customHeight="1" spans="1:10">
       <c r="A8" s="9"/>
       <c r="B8" s="10">
         <v>5</v>
@@ -1628,18 +1674,19 @@
         <v>0</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-    </row>
-    <row r="9" ht="18.45" customHeight="1" spans="1:9">
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" ht="18.45" customHeight="1" spans="1:10">
       <c r="A9" s="9"/>
       <c r="B9" s="10">
         <v>101</v>
@@ -1651,19 +1698,22 @@
         <v>1</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="4:6">

--- a/Luban/Config/Datas/SwordSkillBase.xlsx
+++ b/Luban/Config/Datas/SwordSkillBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,9 +108,10 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-第一个表示MP消耗
-第二个表示目标范围
-第三个表示持续回合</t>
+第一个表示属性值类型
+第二个表示数值
+第三个表示是否是百分比
+第四个表示附加的BUFFID</t>
         </r>
       </text>
     </comment>
@@ -119,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -170,6 +171,9 @@
     <t>(list#sep=|),Tb.SwordSkill.SkillFontValue</t>
   </si>
   <si>
+    <t>(list#sep=|),Tb.SwordSkill.SkillParamValue</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -258,6 +262,21 @@
   </si>
   <si>
     <t>3,100,FALSE,0|3,110,FALSE,0|3,120,FALSE,0|3,130,FALSE,0|3,100,FALSE,0|3,140,FALSE,0|3,150,FALSE,0|3,160,FALSE,0|3,170,FALSE,0|3,180,FALSE,0|3,190,FALSE,0|3,200,FALSE,0|3,210,FALSE,0|3,220,FALSE,0|3,230,FALSE,0|3,240,FALSE,0|3,250,FALSE,0|3,260,FALSE,0|3,270,FALSE,0|3,280,FALSE,0|3,290,FALSE,0</t>
+  </si>
+  <si>
+    <t>九阳真气(1级),九阳真气(2级),九阳真气(3级),九阳真气(4级),九阳真气(5级),九阳真气(6级),九阳真气(7级),九阳真气(8级),九阳真气(9级),九阳真气(10级),进阶九阳真气(11级),进阶九阳真气(12级),进阶九阳真气(12级),进阶九阳真气(13级),进阶九阳真气(14级),进阶九阳真气(15级),高级九阳真气(16级),高级九阳真气(17级),高级九阳真气(18级),九阳真气专精(19级),九阳真气专精(20级),九阳真气大师(21级)</t>
+  </si>
+  <si>
+    <t>生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0}</t>
+  </si>
+  <si>
+    <t>SUBSIDIARY</t>
+  </si>
+  <si>
+    <t>0,5,1|10,5,1|20,5,1|0,5,1|20,5,1|40,5,1|50,5,1|0,5,1|0,5,1|60,5,1|0,5,1|100,5,1|0,5,1|0,5,1|200,5,1|199,5,1|20,5,1|50,5,1|50,5,1|100,5,1|0,5,1</t>
+  </si>
+  <si>
+    <t>1,100,FALSE,4|1,110,FALSE,4|1,120,FALSE,4|1,110,FALSE,4|1,100,FALSE,4|1,140,FALSE,4|1,150,FALSE,4|1,160,FALSE,4|1,170,FALSE,4|1,180,FALSE,4|1,190,FALSE,4|1,200,FALSE,4|1,210,FALSE,4|1,220,FALSE,4|1,210,FALSE,4|1,240,FALSE,4|1,250,FALSE,4|1,260,FALSE,4|1,270,FALSE,4|1,280,FALSE,4|1,290,FALSE,4</t>
   </si>
 </sst>
 </file>
@@ -436,12 +455,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1404,16 +1423,16 @@
   <dimension ref="A1:AB235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9.12037037037037" customWidth="1"/>
-    <col min="3" max="3" width="11.1574074074074" customWidth="1"/>
-    <col min="4" max="4" width="11.5277777777778" customWidth="1"/>
-    <col min="5" max="6" width="11.1574074074074" customWidth="1"/>
-    <col min="7" max="7" width="34.6018518518519" customWidth="1"/>
+    <col min="1" max="2" width="9.11666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.1583333333333" customWidth="1"/>
+    <col min="4" max="4" width="11.525" customWidth="1"/>
+    <col min="5" max="6" width="11.1583333333333" customWidth="1"/>
+    <col min="7" max="7" width="34.6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
@@ -1495,7 +1514,7 @@
         <v>15</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2"/>
       <c r="L2"/>
@@ -1518,34 +1537,34 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -1578,13 +1597,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -1602,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -1626,13 +1645,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -1650,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -1674,13 +1693,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -1698,28 +1717,49 @@
         <v>1</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>40</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G9" s="12"/>
       <c r="H9" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6">
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" ht="18.45" customHeight="1" spans="1:10">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10">
+        <v>201</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="4:6">
       <c r="D11" s="13"/>

--- a/Luban/Config/Datas/SwordSkillBase.xlsx
+++ b/Luban/Config/Datas/SwordSkillBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>##var</t>
   </si>
@@ -137,6 +137,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Icon</t>
+  </si>
+  <si>
     <t>Des</t>
   </si>
   <si>
@@ -159,6 +162,9 @@
   </si>
   <si>
     <t>(list#sep=,),string</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
   <si>
     <t xml:space="preserve">(array#sep=|),Tb.SwordSkill.SkillAttrArray
@@ -189,6 +195,9 @@
     <t>技能名称</t>
   </si>
   <si>
+    <t>图标</t>
+  </si>
+  <si>
     <t>技能描述</t>
   </si>
   <si>
@@ -207,6 +216,9 @@
     <t>剑术(1级),剑术(2级),剑术(3级),剑术(4级),剑术(5级),剑术(6级),剑术(7级),剑术(8级),剑术(9级),剑术(10级),进阶剑术(11级),进阶剑术(12级),进阶剑术(12级),进阶剑术(13级),进阶剑术(14级),进阶剑术(15级),高级剑术(16级),高级剑术(17级),高级剑术(18级),剑术专精(19级),剑术专精(20级),剑术大师(21级)</t>
   </si>
   <si>
+    <t>Skill_Icon_1</t>
+  </si>
+  <si>
     <t>剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},剑类武器伤害{0},暴击{1},剑类武器伤害{0},暴击{1},剑类武器伤害{0},暴击{1},剑类武器伤害{0},暴击{1},剑类武器伤害{0},暴击{1},剑类武器伤害{0},暴击{1},剑类武器伤害{0},暴击{1}</t>
   </si>
   <si>
@@ -216,6 +228,9 @@
     <t>剑客之心(1级),剑客之心(2级),剑客之心(3级),剑客之心(4级),剑客之心(5级),剑客之心(6级),剑客之心(7级),剑客之心(8级),剑客之心(9级),剑客之心(10级),进阶剑客之心(11级),进阶剑客之心(12级),进阶剑客之心(12级),进阶剑客之心(13级),进阶剑客之心(14级),进阶剑客之心(15级),高级剑客之心(16级),高级剑客之心(17级),高级剑客之心(18级),剑客之心专精(19级),剑客之心专精(20级),剑客之心大师(21级)</t>
   </si>
   <si>
+    <t>Skill_Icon_2</t>
+  </si>
+  <si>
     <t>近战攻击力{0},近战攻击力{0},近战攻击力{0},近战攻击力{0},近战攻击力{0},近战攻击力{0},近战攻击力{0},近战攻击力{0},近战攻击力{0},近战攻击力{0},近战攻击力{0},近战攻击力{0},近战攻击力{0},近战攻击力{0},近战攻击力{0},近战攻击力{0},出手速度{1},近战攻击力{0},出手速度{1},近战攻击力{0},出手速度{1},近战攻击力{0},出手速度{1},近战攻击力{0},出手速度{1},近战攻击力{0},出手速度{1},近战攻击力{0},出手速度{1}</t>
   </si>
   <si>
@@ -225,6 +240,9 @@
     <t>武器精通(1级),武器精通(2级),武器精通(3级),武器精通(4级),武器精通(5级),武器精通(6级),武器精通(7级),武器精通(8级),武器精通(9级),武器精通(10级),进阶武器精通(11级),进阶武器精通(12级),进阶武器精通(12级),进阶武器精通(13级),进阶武器精通(14级),进阶武器精通(15级),高级武器精通(16级),高级武器精通(17级),高级武器精通(18级),武器精通专精(19级),武器精通专精(20级),武器精通大师(21级)</t>
   </si>
   <si>
+    <t>Skill_Icon_3</t>
+  </si>
+  <si>
     <t>物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0},物理攻击命中{0}</t>
   </si>
   <si>
@@ -234,6 +252,9 @@
     <t>九阳神功(1级),九阳神功(2级),九阳神功(3级),九阳神功(4级),九阳神功(5级),九阳神功(6级),九阳神功(7级),九阳神功(8级),九阳神功(9级),九阳神功(10级),进阶九阳神功(11级),进阶九阳神功(12级),进阶九阳神功(12级),进阶九阳神功(13级),进阶九阳神功(14级),进阶九阳神功(15级),高级九阳神功(16级),高级九阳神功(17级),高级九阳神功(18级),九阳神功专精(19级),九阳神功专精(20级),九阳神功大师(21级)</t>
   </si>
   <si>
+    <t>Skill_Icon_4</t>
+  </si>
+  <si>
     <t>最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0},最大生命{0}</t>
   </si>
   <si>
@@ -243,6 +264,9 @@
     <t>暴躁天性(1级),暴躁天性(2级),暴躁天性(3级),暴躁天性(4级),暴躁天性(5级),暴躁天性(6级),暴躁天性(7级),暴躁天性(8级),暴躁天性(9级),暴躁天性(10级),进阶暴躁天性(11级),进阶暴躁天性(12级),进阶暴躁天性(12级),进阶暴躁天性(13级),进阶暴躁天性(14级),进阶暴躁天性(15级),高级暴躁天性(16级),高级暴躁天性(17级),高级暴躁天性(18级),暴躁天性专精(19级),暴躁天性专精(20级),暴躁天性大师(21级)</t>
   </si>
   <si>
+    <t>Skill_Icon_5</t>
+  </si>
+  <si>
     <t>暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0}</t>
   </si>
   <si>
@@ -252,6 +276,9 @@
     <t>旋风斩!(1级),旋风斩!(2级),旋风斩!(3级),旋风斩!(4级),旋风斩!(5级),旋风斩!(6级),旋风斩!(7级),旋风斩!(8级),旋风斩!(9级),旋风斩!(10级),进阶旋风斩!(11级),进阶旋风斩!(12级),进阶旋风斩!(12级),进阶旋风斩!(13级),进阶旋风斩!(14级),进阶旋风斩!(15级),高级旋风斩!(16级),高级旋风斩!(17级),高级旋风斩!(18级),旋风斩!专精(19级),旋风斩!专精(20级),旋风斩!大师(21级)</t>
   </si>
   <si>
+    <t>Skill_Icon_6</t>
+  </si>
+  <si>
     <t>技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0}</t>
   </si>
   <si>
@@ -265,6 +292,9 @@
   </si>
   <si>
     <t>九阳真气(1级),九阳真气(2级),九阳真气(3级),九阳真气(4级),九阳真气(5级),九阳真气(6级),九阳真气(7级),九阳真气(8级),九阳真气(9级),九阳真气(10级),进阶九阳真气(11级),进阶九阳真气(12级),进阶九阳真气(12级),进阶九阳真气(13级),进阶九阳真气(14级),进阶九阳真气(15级),高级九阳真气(16级),高级九阳真气(17级),高级九阳真气(18级),九阳真气专精(19级),九阳真气专精(20级),九阳真气大师(21级)</t>
+  </si>
+  <si>
+    <t>Skill_Icon_7</t>
   </si>
   <si>
     <t>生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0}</t>
@@ -455,12 +485,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1064,7 +1094,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
@@ -1090,6 +1120,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1420,22 +1453,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB235"/>
+  <dimension ref="A1:AC235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="9.11666666666667" customWidth="1"/>
-    <col min="3" max="3" width="11.1583333333333" customWidth="1"/>
-    <col min="4" max="4" width="11.525" customWidth="1"/>
-    <col min="5" max="6" width="11.1583333333333" customWidth="1"/>
-    <col min="7" max="7" width="34.6" customWidth="1"/>
+    <col min="1" max="2" width="9.12037037037037" customWidth="1"/>
+    <col min="3" max="3" width="11.1574074074074" customWidth="1"/>
+    <col min="4" max="4" width="11.5277777777778" customWidth="1"/>
+    <col min="5" max="7" width="11.1574074074074" customWidth="1"/>
+    <col min="8" max="8" width="34.6018518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
+    <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:29">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1454,10 +1487,10 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -1466,7 +1499,9 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1"/>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1"/>
@@ -1484,39 +1519,42 @@
       <c r="Z1"/>
       <c r="AA1"/>
       <c r="AB1"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
+      <c r="AC1"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:29">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>14</v>
+      <c r="H2" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2"/>
+        <v>17</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
@@ -1534,39 +1572,42 @@
       <c r="Z2"/>
       <c r="AA2"/>
       <c r="AB2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
+      <c r="AC2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:29">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="I3" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3"/>
+        <v>28</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
@@ -1584,8 +1625,9 @@
       <c r="Z3"/>
       <c r="AA3"/>
       <c r="AB3"/>
-    </row>
-    <row r="4" ht="18.5" customHeight="1" spans="1:10">
+      <c r="AC3"/>
+    </row>
+    <row r="4" ht="18.5" customHeight="1" spans="1:11">
       <c r="A4" s="9"/>
       <c r="B4" s="10">
         <v>1</v>
@@ -1597,19 +1639,22 @@
         <v>0</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" ht="18.45" customHeight="1" spans="1:10">
+        <v>32</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" ht="18.45" customHeight="1" spans="1:11">
       <c r="A5" s="9"/>
       <c r="B5" s="10">
         <v>2</v>
@@ -1621,19 +1666,22 @@
         <v>0</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" ht="18.45" customHeight="1" spans="1:10">
+        <v>36</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" ht="18.45" customHeight="1" spans="1:11">
       <c r="A6" s="9"/>
       <c r="B6" s="10">
         <v>3</v>
@@ -1645,19 +1693,22 @@
         <v>0</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" ht="18.45" customHeight="1" spans="1:10">
+        <v>40</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" ht="18.45" customHeight="1" spans="1:11">
       <c r="A7" s="9"/>
       <c r="B7" s="10">
         <v>4</v>
@@ -1669,19 +1720,22 @@
         <v>0</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" ht="18.45" customHeight="1" spans="1:10">
+        <v>44</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" ht="18.45" customHeight="1" spans="1:11">
       <c r="A8" s="9"/>
       <c r="B8" s="10">
         <v>5</v>
@@ -1693,19 +1747,22 @@
         <v>0</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" ht="18.45" customHeight="1" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" ht="18.45" customHeight="1" spans="1:11">
       <c r="A9" s="9"/>
       <c r="B9" s="10">
         <v>101</v>
@@ -1717,23 +1774,26 @@
         <v>1</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" ht="18.45" customHeight="1" spans="1:10">
+        <v>51</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" ht="18.45" customHeight="1" spans="1:11">
       <c r="A10" s="9"/>
       <c r="B10" s="10">
         <v>201</v>
@@ -1745,1146 +1805,1374 @@
         <v>2</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6">
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="4:6">
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="4:6">
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="4:6">
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="4:6">
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="4:6">
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="4:6">
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="4:6">
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="4:6">
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="4:6">
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="4:6">
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="4:6">
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="4:6">
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="4:6">
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="4:6">
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="4:6">
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="4:6">
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="4:6">
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="4:6">
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="4:6">
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="4:6">
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="4:6">
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="4:6">
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="4:6">
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="4:6">
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="4:6">
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="4:6">
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="4:6">
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="4:6">
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" spans="4:6">
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="4:6">
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="4:6">
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" spans="4:6">
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-    </row>
-    <row r="44" spans="4:6">
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-    </row>
-    <row r="45" spans="4:6">
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-    </row>
-    <row r="46" spans="4:6">
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-    </row>
-    <row r="47" spans="4:6">
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-    </row>
-    <row r="48" spans="4:6">
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-    </row>
-    <row r="49" spans="4:6">
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-    </row>
-    <row r="50" spans="4:6">
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-    </row>
-    <row r="51" spans="4:6">
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-    </row>
-    <row r="52" spans="4:6">
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-    </row>
-    <row r="53" spans="4:6">
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-    </row>
-    <row r="54" spans="4:6">
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-    </row>
-    <row r="55" spans="4:6">
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-    </row>
-    <row r="56" spans="4:6">
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-    </row>
-    <row r="57" spans="4:6">
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-    </row>
-    <row r="58" spans="4:6">
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-    </row>
-    <row r="59" spans="4:6">
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-    </row>
-    <row r="60" spans="4:6">
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-    </row>
-    <row r="61" spans="4:6">
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-    </row>
-    <row r="62" spans="4:6">
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-    </row>
-    <row r="63" spans="4:6">
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-    </row>
-    <row r="64" spans="4:6">
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-    </row>
-    <row r="65" spans="4:6">
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-    </row>
-    <row r="66" spans="4:6">
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-    </row>
-    <row r="67" spans="4:6">
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-    </row>
-    <row r="68" spans="4:6">
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-    </row>
-    <row r="69" spans="4:6">
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-    </row>
-    <row r="70" spans="4:6">
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-    </row>
-    <row r="71" spans="4:6">
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-    </row>
-    <row r="72" spans="4:6">
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-    </row>
-    <row r="73" spans="4:6">
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-    </row>
-    <row r="74" spans="4:6">
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-    </row>
-    <row r="75" spans="4:6">
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-    </row>
-    <row r="76" spans="4:6">
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-    </row>
-    <row r="77" spans="4:6">
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-    </row>
-    <row r="78" spans="4:6">
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-    </row>
-    <row r="79" spans="4:6">
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-    </row>
-    <row r="80" spans="4:6">
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-    </row>
-    <row r="81" spans="4:6">
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-    </row>
-    <row r="82" spans="4:6">
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-    </row>
-    <row r="83" spans="4:6">
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-    </row>
-    <row r="84" spans="4:6">
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-    </row>
-    <row r="85" spans="4:6">
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-    </row>
-    <row r="86" spans="4:6">
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-    </row>
-    <row r="87" spans="4:6">
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-    </row>
-    <row r="88" spans="4:6">
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-    </row>
-    <row r="89" spans="4:6">
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-    </row>
-    <row r="90" spans="4:6">
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-    </row>
-    <row r="91" spans="4:6">
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-    </row>
-    <row r="92" spans="4:6">
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-    </row>
-    <row r="93" spans="4:6">
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-    </row>
-    <row r="94" spans="4:6">
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-    </row>
-    <row r="95" spans="4:6">
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-    </row>
-    <row r="96" spans="4:6">
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-    </row>
-    <row r="97" spans="4:6">
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-    </row>
-    <row r="98" spans="4:6">
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-    </row>
-    <row r="99" spans="4:6">
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
-    </row>
-    <row r="100" spans="4:6">
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-    </row>
-    <row r="101" spans="4:6">
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
-    </row>
-    <row r="102" spans="4:6">
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
-    </row>
-    <row r="103" spans="4:6">
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
-    </row>
-    <row r="104" spans="4:6">
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13"/>
-    </row>
-    <row r="105" spans="4:6">
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-    </row>
-    <row r="106" spans="4:6">
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
-    </row>
-    <row r="107" spans="4:6">
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-    </row>
-    <row r="108" spans="4:6">
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-    </row>
-    <row r="109" spans="4:6">
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
-    </row>
-    <row r="110" spans="4:6">
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-    </row>
-    <row r="111" spans="4:6">
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-    </row>
-    <row r="112" spans="4:6">
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-    </row>
-    <row r="113" spans="4:6">
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-    </row>
-    <row r="114" spans="4:6">
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-    </row>
-    <row r="115" spans="4:6">
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-    </row>
-    <row r="116" spans="4:6">
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-    </row>
-    <row r="117" spans="4:6">
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
-    </row>
-    <row r="118" spans="4:6">
-      <c r="D118" s="13"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
-    </row>
-    <row r="119" spans="4:6">
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
-    </row>
-    <row r="120" spans="4:6">
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-    </row>
-    <row r="121" spans="4:6">
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-    </row>
-    <row r="122" spans="4:6">
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-    </row>
-    <row r="123" spans="4:6">
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
-    </row>
-    <row r="124" spans="4:6">
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-    </row>
-    <row r="125" spans="4:6">
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
-    </row>
-    <row r="126" spans="4:6">
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-    </row>
-    <row r="127" spans="4:6">
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
-    </row>
-    <row r="128" spans="4:6">
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-    </row>
-    <row r="129" spans="4:6">
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
-    </row>
-    <row r="130" spans="4:6">
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
-    </row>
-    <row r="131" spans="4:6">
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
-    </row>
-    <row r="132" spans="4:6">
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
-    </row>
-    <row r="133" spans="4:6">
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
-    </row>
-    <row r="134" spans="4:6">
-      <c r="D134" s="13"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13"/>
-    </row>
-    <row r="135" spans="4:6">
-      <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="13"/>
-    </row>
-    <row r="136" spans="4:6">
-      <c r="D136" s="13"/>
-      <c r="E136" s="13"/>
-      <c r="F136" s="13"/>
-    </row>
-    <row r="137" spans="4:6">
-      <c r="D137" s="13"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13"/>
-    </row>
-    <row r="138" spans="4:6">
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13"/>
-    </row>
-    <row r="139" spans="4:6">
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="13"/>
-    </row>
-    <row r="140" spans="4:6">
-      <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="13"/>
-    </row>
-    <row r="141" spans="4:6">
-      <c r="D141" s="13"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="13"/>
-    </row>
-    <row r="142" spans="4:6">
-      <c r="D142" s="13"/>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13"/>
-    </row>
-    <row r="143" spans="4:6">
-      <c r="D143" s="13"/>
-      <c r="E143" s="13"/>
-      <c r="F143" s="13"/>
-    </row>
-    <row r="144" spans="4:6">
-      <c r="D144" s="13"/>
-      <c r="E144" s="13"/>
-      <c r="F144" s="13"/>
-    </row>
-    <row r="145" spans="4:6">
-      <c r="D145" s="13"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13"/>
-    </row>
-    <row r="146" spans="4:6">
-      <c r="D146" s="13"/>
-      <c r="E146" s="13"/>
-      <c r="F146" s="13"/>
-    </row>
-    <row r="147" spans="4:6">
-      <c r="D147" s="13"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="13"/>
-    </row>
-    <row r="148" spans="4:6">
-      <c r="D148" s="13"/>
-      <c r="E148" s="13"/>
-      <c r="F148" s="13"/>
-    </row>
-    <row r="149" spans="4:6">
-      <c r="D149" s="13"/>
-      <c r="E149" s="13"/>
-      <c r="F149" s="13"/>
-    </row>
-    <row r="150" spans="4:6">
-      <c r="D150" s="13"/>
-      <c r="E150" s="13"/>
-      <c r="F150" s="13"/>
-    </row>
-    <row r="151" spans="4:6">
-      <c r="D151" s="13"/>
-      <c r="E151" s="13"/>
-      <c r="F151" s="13"/>
-    </row>
-    <row r="152" spans="4:6">
-      <c r="D152" s="13"/>
-      <c r="E152" s="13"/>
-      <c r="F152" s="13"/>
-    </row>
-    <row r="153" spans="4:6">
-      <c r="D153" s="13"/>
-      <c r="E153" s="13"/>
-      <c r="F153" s="13"/>
-    </row>
-    <row r="154" spans="4:6">
-      <c r="D154" s="13"/>
-      <c r="E154" s="13"/>
-      <c r="F154" s="13"/>
-    </row>
-    <row r="155" spans="4:6">
-      <c r="D155" s="13"/>
-      <c r="E155" s="13"/>
-      <c r="F155" s="13"/>
-    </row>
-    <row r="156" spans="4:6">
-      <c r="D156" s="13"/>
-      <c r="E156" s="13"/>
-      <c r="F156" s="13"/>
-    </row>
-    <row r="157" spans="4:6">
-      <c r="D157" s="13"/>
-      <c r="E157" s="13"/>
-      <c r="F157" s="13"/>
-    </row>
-    <row r="158" spans="4:6">
-      <c r="D158" s="13"/>
-      <c r="E158" s="13"/>
-      <c r="F158" s="13"/>
-    </row>
-    <row r="159" spans="4:6">
-      <c r="D159" s="13"/>
-      <c r="E159" s="13"/>
-      <c r="F159" s="13"/>
-    </row>
-    <row r="160" spans="4:6">
-      <c r="D160" s="13"/>
-      <c r="E160" s="13"/>
-      <c r="F160" s="13"/>
-    </row>
-    <row r="161" spans="4:6">
-      <c r="D161" s="13"/>
-      <c r="E161" s="13"/>
-      <c r="F161" s="13"/>
-    </row>
-    <row r="162" spans="4:6">
-      <c r="D162" s="13"/>
-      <c r="E162" s="13"/>
-      <c r="F162" s="13"/>
-    </row>
-    <row r="163" spans="4:6">
-      <c r="D163" s="13"/>
-      <c r="E163" s="13"/>
-      <c r="F163" s="13"/>
-    </row>
-    <row r="164" spans="4:6">
-      <c r="D164" s="13"/>
-      <c r="E164" s="13"/>
-      <c r="F164" s="13"/>
-    </row>
-    <row r="165" spans="4:6">
-      <c r="D165" s="13"/>
-      <c r="E165" s="13"/>
-      <c r="F165" s="13"/>
-    </row>
-    <row r="166" spans="4:6">
-      <c r="D166" s="13"/>
-      <c r="E166" s="13"/>
-      <c r="F166" s="13"/>
-    </row>
-    <row r="167" spans="4:6">
-      <c r="D167" s="13"/>
-      <c r="E167" s="13"/>
-      <c r="F167" s="13"/>
-    </row>
-    <row r="168" spans="4:6">
-      <c r="D168" s="13"/>
-      <c r="E168" s="13"/>
-      <c r="F168" s="13"/>
-    </row>
-    <row r="169" spans="4:6">
-      <c r="D169" s="13"/>
-      <c r="E169" s="13"/>
-      <c r="F169" s="13"/>
-    </row>
-    <row r="170" spans="4:6">
-      <c r="D170" s="13"/>
-      <c r="E170" s="13"/>
-      <c r="F170" s="13"/>
-    </row>
-    <row r="171" spans="4:6">
-      <c r="D171" s="13"/>
-      <c r="E171" s="13"/>
-      <c r="F171" s="13"/>
-    </row>
-    <row r="172" spans="4:6">
-      <c r="D172" s="13"/>
-      <c r="E172" s="13"/>
-      <c r="F172" s="13"/>
-    </row>
-    <row r="173" spans="4:6">
-      <c r="D173" s="13"/>
-      <c r="E173" s="13"/>
-      <c r="F173" s="13"/>
-    </row>
-    <row r="174" spans="4:6">
-      <c r="D174" s="13"/>
-      <c r="E174" s="13"/>
-      <c r="F174" s="13"/>
-    </row>
-    <row r="175" spans="4:6">
-      <c r="D175" s="13"/>
-      <c r="E175" s="13"/>
-      <c r="F175" s="13"/>
-    </row>
-    <row r="176" spans="4:6">
-      <c r="D176" s="13"/>
-      <c r="E176" s="13"/>
-      <c r="F176" s="13"/>
-    </row>
-    <row r="177" spans="4:6">
-      <c r="D177" s="13"/>
-      <c r="E177" s="13"/>
-      <c r="F177" s="13"/>
-    </row>
-    <row r="178" spans="4:6">
-      <c r="D178" s="13"/>
-      <c r="E178" s="13"/>
-      <c r="F178" s="13"/>
-    </row>
-    <row r="179" spans="4:6">
-      <c r="D179" s="13"/>
-      <c r="E179" s="13"/>
-      <c r="F179" s="13"/>
-    </row>
-    <row r="180" spans="4:6">
-      <c r="D180" s="13"/>
-      <c r="E180" s="13"/>
-      <c r="F180" s="13"/>
-    </row>
-    <row r="181" spans="4:6">
-      <c r="D181" s="13"/>
-      <c r="E181" s="13"/>
-      <c r="F181" s="13"/>
-    </row>
-    <row r="182" spans="4:6">
-      <c r="D182" s="13"/>
-      <c r="E182" s="13"/>
-      <c r="F182" s="13"/>
-    </row>
-    <row r="183" spans="4:6">
-      <c r="D183" s="13"/>
-      <c r="E183" s="13"/>
-      <c r="F183" s="13"/>
-    </row>
-    <row r="184" spans="4:6">
-      <c r="D184" s="13"/>
-      <c r="E184" s="13"/>
-      <c r="F184" s="13"/>
-    </row>
-    <row r="185" spans="4:6">
-      <c r="D185" s="13"/>
-      <c r="E185" s="13"/>
-      <c r="F185" s="13"/>
-    </row>
-    <row r="186" spans="4:6">
-      <c r="D186" s="13"/>
-      <c r="E186" s="13"/>
-      <c r="F186" s="13"/>
-    </row>
-    <row r="187" spans="4:6">
-      <c r="D187" s="13"/>
-      <c r="E187" s="13"/>
-      <c r="F187" s="13"/>
-    </row>
-    <row r="188" spans="4:6">
-      <c r="D188" s="13"/>
-      <c r="E188" s="13"/>
-      <c r="F188" s="13"/>
-    </row>
-    <row r="189" spans="4:6">
-      <c r="D189" s="13"/>
-      <c r="E189" s="13"/>
-      <c r="F189" s="13"/>
-    </row>
-    <row r="190" spans="4:6">
-      <c r="D190" s="13"/>
-      <c r="E190" s="13"/>
-      <c r="F190" s="13"/>
-    </row>
-    <row r="191" spans="4:6">
-      <c r="D191" s="13"/>
-      <c r="E191" s="13"/>
-      <c r="F191" s="13"/>
-    </row>
-    <row r="192" spans="4:6">
-      <c r="D192" s="13"/>
-      <c r="E192" s="13"/>
-      <c r="F192" s="13"/>
-    </row>
-    <row r="193" spans="4:6">
-      <c r="D193" s="13"/>
-      <c r="E193" s="13"/>
-      <c r="F193" s="13"/>
-    </row>
-    <row r="194" spans="4:6">
-      <c r="D194" s="13"/>
-      <c r="E194" s="13"/>
-      <c r="F194" s="13"/>
-    </row>
-    <row r="195" spans="4:6">
-      <c r="D195" s="13"/>
-      <c r="E195" s="13"/>
-      <c r="F195" s="13"/>
-    </row>
-    <row r="196" spans="4:6">
-      <c r="D196" s="13"/>
-      <c r="E196" s="13"/>
-      <c r="F196" s="13"/>
-    </row>
-    <row r="197" spans="4:6">
-      <c r="D197" s="13"/>
-      <c r="E197" s="13"/>
-      <c r="F197" s="13"/>
-    </row>
-    <row r="198" spans="4:6">
-      <c r="D198" s="13"/>
-      <c r="E198" s="13"/>
-      <c r="F198" s="13"/>
-    </row>
-    <row r="199" spans="4:6">
-      <c r="D199" s="13"/>
-      <c r="E199" s="13"/>
-      <c r="F199" s="13"/>
-    </row>
-    <row r="200" spans="4:6">
-      <c r="D200" s="13"/>
-      <c r="E200" s="13"/>
-      <c r="F200" s="13"/>
-    </row>
-    <row r="201" spans="4:6">
-      <c r="D201" s="13"/>
-      <c r="E201" s="13"/>
-      <c r="F201" s="13"/>
-    </row>
-    <row r="202" spans="4:6">
-      <c r="D202" s="13"/>
-      <c r="E202" s="13"/>
-      <c r="F202" s="13"/>
-    </row>
-    <row r="203" spans="4:6">
-      <c r="D203" s="13"/>
-      <c r="E203" s="13"/>
-      <c r="F203" s="13"/>
-    </row>
-    <row r="204" spans="4:6">
-      <c r="D204" s="13"/>
-      <c r="E204" s="13"/>
-      <c r="F204" s="13"/>
-    </row>
-    <row r="205" spans="4:6">
-      <c r="D205" s="13"/>
-      <c r="E205" s="13"/>
-      <c r="F205" s="13"/>
-    </row>
-    <row r="206" spans="4:6">
-      <c r="D206" s="13"/>
-      <c r="E206" s="13"/>
-      <c r="F206" s="13"/>
-    </row>
-    <row r="207" spans="4:6">
-      <c r="D207" s="13"/>
-      <c r="E207" s="13"/>
-      <c r="F207" s="13"/>
-    </row>
-    <row r="208" spans="4:6">
-      <c r="D208" s="13"/>
-      <c r="E208" s="13"/>
-      <c r="F208" s="13"/>
-    </row>
-    <row r="209" spans="4:6">
-      <c r="D209" s="13"/>
-      <c r="E209" s="13"/>
-      <c r="F209" s="13"/>
-    </row>
-    <row r="210" spans="4:6">
-      <c r="D210" s="13"/>
-      <c r="E210" s="13"/>
-      <c r="F210" s="13"/>
-    </row>
-    <row r="211" spans="4:6">
-      <c r="D211" s="13"/>
-      <c r="E211" s="13"/>
-      <c r="F211" s="13"/>
-    </row>
-    <row r="212" spans="4:6">
-      <c r="D212" s="13"/>
-      <c r="E212" s="13"/>
-      <c r="F212" s="13"/>
-    </row>
-    <row r="213" spans="4:6">
-      <c r="D213" s="13"/>
-      <c r="E213" s="13"/>
-      <c r="F213" s="13"/>
-    </row>
-    <row r="214" spans="4:6">
-      <c r="D214" s="13"/>
-      <c r="E214" s="13"/>
-      <c r="F214" s="13"/>
-    </row>
-    <row r="215" spans="4:6">
-      <c r="D215" s="13"/>
-      <c r="E215" s="13"/>
-      <c r="F215" s="13"/>
-    </row>
-    <row r="216" spans="4:6">
-      <c r="D216" s="13"/>
-      <c r="E216" s="13"/>
-      <c r="F216" s="13"/>
-    </row>
-    <row r="217" spans="4:6">
-      <c r="D217" s="13"/>
-      <c r="E217" s="13"/>
-      <c r="F217" s="13"/>
-    </row>
-    <row r="218" spans="4:6">
-      <c r="D218" s="13"/>
-      <c r="E218" s="13"/>
-      <c r="F218" s="13"/>
-    </row>
-    <row r="219" spans="4:6">
-      <c r="D219" s="13"/>
-      <c r="E219" s="13"/>
-      <c r="F219" s="13"/>
-    </row>
-    <row r="220" spans="4:6">
-      <c r="D220" s="13"/>
-      <c r="E220" s="13"/>
-      <c r="F220" s="13"/>
-    </row>
-    <row r="221" spans="4:6">
-      <c r="D221" s="13"/>
-      <c r="E221" s="13"/>
-      <c r="F221" s="13"/>
-    </row>
-    <row r="222" spans="4:6">
-      <c r="D222" s="13"/>
-      <c r="E222" s="13"/>
-      <c r="F222" s="13"/>
-    </row>
-    <row r="223" spans="4:6">
-      <c r="D223" s="13"/>
-      <c r="E223" s="13"/>
-      <c r="F223" s="13"/>
-    </row>
-    <row r="224" spans="4:6">
-      <c r="D224" s="13"/>
-      <c r="E224" s="13"/>
-      <c r="F224" s="13"/>
-    </row>
-    <row r="225" spans="4:6">
-      <c r="D225" s="13"/>
-      <c r="E225" s="13"/>
-      <c r="F225" s="13"/>
-    </row>
-    <row r="226" spans="4:6">
-      <c r="D226" s="13"/>
-      <c r="E226" s="13"/>
-      <c r="F226" s="13"/>
-    </row>
-    <row r="227" spans="4:6">
-      <c r="D227" s="13"/>
-      <c r="E227" s="13"/>
-      <c r="F227" s="13"/>
-    </row>
-    <row r="228" spans="4:6">
-      <c r="D228" s="13"/>
-      <c r="E228" s="13"/>
-      <c r="F228" s="13"/>
-    </row>
-    <row r="229" spans="4:6">
-      <c r="D229" s="13"/>
-      <c r="E229" s="13"/>
-      <c r="F229" s="13"/>
-    </row>
-    <row r="230" spans="4:6">
-      <c r="D230" s="13"/>
-      <c r="E230" s="13"/>
-      <c r="F230" s="13"/>
-    </row>
-    <row r="231" spans="4:6">
-      <c r="D231" s="13"/>
-      <c r="E231" s="13"/>
-      <c r="F231" s="13"/>
-    </row>
-    <row r="232" spans="4:6">
-      <c r="D232" s="13"/>
-      <c r="E232" s="13"/>
-      <c r="F232" s="13"/>
-    </row>
-    <row r="233" spans="4:6">
-      <c r="D233" s="13"/>
-      <c r="E233" s="13"/>
-      <c r="F233" s="13"/>
-    </row>
-    <row r="234" spans="4:6">
-      <c r="D234" s="13"/>
-      <c r="E234" s="13"/>
-      <c r="F234" s="13"/>
-    </row>
-    <row r="235" spans="4:6">
-      <c r="D235" s="13"/>
-      <c r="E235" s="13"/>
-      <c r="F235" s="13"/>
+        <v>57</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="4:7">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="4:7">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="4:7">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="4:7">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="4:7">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="4:7">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="4:7">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="4:7">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="4:7">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="4:7">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="4:7">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="4:7">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="4:7">
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="4:7">
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="4:7">
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="4:7">
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="4:7">
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="4:7">
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="4:7">
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="4:7">
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="4:7">
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="4:7">
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="4:7">
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="4:7">
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="4:7">
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="4:7">
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="4:7">
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="4:7">
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="4:7">
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="4:7">
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" spans="4:7">
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="4:7">
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="4:7">
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="4:7">
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="4:7">
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+    </row>
+    <row r="47" spans="4:7">
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+    </row>
+    <row r="48" spans="4:7">
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" spans="4:7">
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+    </row>
+    <row r="50" spans="4:7">
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+    </row>
+    <row r="51" spans="4:7">
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+    </row>
+    <row r="52" spans="4:7">
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+    </row>
+    <row r="53" spans="4:7">
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+    </row>
+    <row r="54" spans="4:7">
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+    </row>
+    <row r="55" spans="4:7">
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+    </row>
+    <row r="56" spans="4:7">
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+    </row>
+    <row r="57" spans="4:7">
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+    </row>
+    <row r="58" spans="4:7">
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+    </row>
+    <row r="59" spans="4:7">
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+    </row>
+    <row r="60" spans="4:7">
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+    </row>
+    <row r="61" spans="4:7">
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+    </row>
+    <row r="62" spans="4:7">
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+    </row>
+    <row r="63" spans="4:7">
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+    </row>
+    <row r="64" spans="4:7">
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+    </row>
+    <row r="65" spans="4:7">
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+    </row>
+    <row r="66" spans="4:7">
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+    </row>
+    <row r="67" spans="4:7">
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+    </row>
+    <row r="68" spans="4:7">
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+    </row>
+    <row r="69" spans="4:7">
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+    </row>
+    <row r="70" spans="4:7">
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+    </row>
+    <row r="71" spans="4:7">
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+    </row>
+    <row r="72" spans="4:7">
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+    </row>
+    <row r="73" spans="4:7">
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+    </row>
+    <row r="74" spans="4:7">
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+    </row>
+    <row r="75" spans="4:7">
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+    </row>
+    <row r="76" spans="4:7">
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+    </row>
+    <row r="77" spans="4:7">
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+    </row>
+    <row r="78" spans="4:7">
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+    </row>
+    <row r="79" spans="4:7">
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+    </row>
+    <row r="80" spans="4:7">
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+    </row>
+    <row r="81" spans="4:7">
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+    </row>
+    <row r="82" spans="4:7">
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+    </row>
+    <row r="83" spans="4:7">
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+    </row>
+    <row r="84" spans="4:7">
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+    </row>
+    <row r="85" spans="4:7">
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+    </row>
+    <row r="86" spans="4:7">
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+    </row>
+    <row r="87" spans="4:7">
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+    </row>
+    <row r="88" spans="4:7">
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+    </row>
+    <row r="89" spans="4:7">
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+    </row>
+    <row r="90" spans="4:7">
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+    </row>
+    <row r="91" spans="4:7">
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+    </row>
+    <row r="92" spans="4:7">
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+    </row>
+    <row r="93" spans="4:7">
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+    </row>
+    <row r="94" spans="4:7">
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+    </row>
+    <row r="95" spans="4:7">
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+    </row>
+    <row r="96" spans="4:7">
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+    </row>
+    <row r="97" spans="4:7">
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+    </row>
+    <row r="98" spans="4:7">
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+    </row>
+    <row r="99" spans="4:7">
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+    </row>
+    <row r="100" spans="4:7">
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+    </row>
+    <row r="101" spans="4:7">
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+    </row>
+    <row r="102" spans="4:7">
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+    </row>
+    <row r="103" spans="4:7">
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+    </row>
+    <row r="104" spans="4:7">
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+    </row>
+    <row r="105" spans="4:7">
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+    </row>
+    <row r="106" spans="4:7">
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+    </row>
+    <row r="107" spans="4:7">
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
+    </row>
+    <row r="108" spans="4:7">
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
+    </row>
+    <row r="109" spans="4:7">
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+    </row>
+    <row r="110" spans="4:7">
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
+    </row>
+    <row r="111" spans="4:7">
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+    </row>
+    <row r="112" spans="4:7">
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+    </row>
+    <row r="113" spans="4:7">
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
+    </row>
+    <row r="114" spans="4:7">
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+    </row>
+    <row r="115" spans="4:7">
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+    </row>
+    <row r="116" spans="4:7">
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
+    </row>
+    <row r="117" spans="4:7">
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+    </row>
+    <row r="118" spans="4:7">
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
+    </row>
+    <row r="119" spans="4:7">
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+    </row>
+    <row r="120" spans="4:7">
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+    </row>
+    <row r="121" spans="4:7">
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+    </row>
+    <row r="122" spans="4:7">
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+    </row>
+    <row r="123" spans="4:7">
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+    </row>
+    <row r="124" spans="4:7">
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+    </row>
+    <row r="125" spans="4:7">
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+    </row>
+    <row r="126" spans="4:7">
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+    </row>
+    <row r="127" spans="4:7">
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
+    </row>
+    <row r="128" spans="4:7">
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
+    </row>
+    <row r="129" spans="4:7">
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+    </row>
+    <row r="130" spans="4:7">
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
+    </row>
+    <row r="131" spans="4:7">
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+    </row>
+    <row r="132" spans="4:7">
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="14"/>
+    </row>
+    <row r="133" spans="4:7">
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14"/>
+    </row>
+    <row r="134" spans="4:7">
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="14"/>
+    </row>
+    <row r="135" spans="4:7">
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c r="G135" s="14"/>
+    </row>
+    <row r="136" spans="4:7">
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="14"/>
+    </row>
+    <row r="137" spans="4:7">
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="14"/>
+    </row>
+    <row r="138" spans="4:7">
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="14"/>
+    </row>
+    <row r="139" spans="4:7">
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
+    </row>
+    <row r="140" spans="4:7">
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
+    </row>
+    <row r="141" spans="4:7">
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="14"/>
+    </row>
+    <row r="142" spans="4:7">
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="14"/>
+    </row>
+    <row r="143" spans="4:7">
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="14"/>
+    </row>
+    <row r="144" spans="4:7">
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="14"/>
+    </row>
+    <row r="145" spans="4:7">
+      <c r="D145" s="14"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14"/>
+      <c r="G145" s="14"/>
+    </row>
+    <row r="146" spans="4:7">
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="14"/>
+    </row>
+    <row r="147" spans="4:7">
+      <c r="D147" s="14"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+      <c r="G147" s="14"/>
+    </row>
+    <row r="148" spans="4:7">
+      <c r="D148" s="14"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="14"/>
+    </row>
+    <row r="149" spans="4:7">
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14"/>
+      <c r="G149" s="14"/>
+    </row>
+    <row r="150" spans="4:7">
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14"/>
+      <c r="G150" s="14"/>
+    </row>
+    <row r="151" spans="4:7">
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14"/>
+    </row>
+    <row r="152" spans="4:7">
+      <c r="D152" s="14"/>
+      <c r="E152" s="14"/>
+      <c r="F152" s="14"/>
+      <c r="G152" s="14"/>
+    </row>
+    <row r="153" spans="4:7">
+      <c r="D153" s="14"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
+    </row>
+    <row r="154" spans="4:7">
+      <c r="D154" s="14"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="14"/>
+      <c r="G154" s="14"/>
+    </row>
+    <row r="155" spans="4:7">
+      <c r="D155" s="14"/>
+      <c r="E155" s="14"/>
+      <c r="F155" s="14"/>
+      <c r="G155" s="14"/>
+    </row>
+    <row r="156" spans="4:7">
+      <c r="D156" s="14"/>
+      <c r="E156" s="14"/>
+      <c r="F156" s="14"/>
+      <c r="G156" s="14"/>
+    </row>
+    <row r="157" spans="4:7">
+      <c r="D157" s="14"/>
+      <c r="E157" s="14"/>
+      <c r="F157" s="14"/>
+      <c r="G157" s="14"/>
+    </row>
+    <row r="158" spans="4:7">
+      <c r="D158" s="14"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="14"/>
+      <c r="G158" s="14"/>
+    </row>
+    <row r="159" spans="4:7">
+      <c r="D159" s="14"/>
+      <c r="E159" s="14"/>
+      <c r="F159" s="14"/>
+      <c r="G159" s="14"/>
+    </row>
+    <row r="160" spans="4:7">
+      <c r="D160" s="14"/>
+      <c r="E160" s="14"/>
+      <c r="F160" s="14"/>
+      <c r="G160" s="14"/>
+    </row>
+    <row r="161" spans="4:7">
+      <c r="D161" s="14"/>
+      <c r="E161" s="14"/>
+      <c r="F161" s="14"/>
+      <c r="G161" s="14"/>
+    </row>
+    <row r="162" spans="4:7">
+      <c r="D162" s="14"/>
+      <c r="E162" s="14"/>
+      <c r="F162" s="14"/>
+      <c r="G162" s="14"/>
+    </row>
+    <row r="163" spans="4:7">
+      <c r="D163" s="14"/>
+      <c r="E163" s="14"/>
+      <c r="F163" s="14"/>
+      <c r="G163" s="14"/>
+    </row>
+    <row r="164" spans="4:7">
+      <c r="D164" s="14"/>
+      <c r="E164" s="14"/>
+      <c r="F164" s="14"/>
+      <c r="G164" s="14"/>
+    </row>
+    <row r="165" spans="4:7">
+      <c r="D165" s="14"/>
+      <c r="E165" s="14"/>
+      <c r="F165" s="14"/>
+      <c r="G165" s="14"/>
+    </row>
+    <row r="166" spans="4:7">
+      <c r="D166" s="14"/>
+      <c r="E166" s="14"/>
+      <c r="F166" s="14"/>
+      <c r="G166" s="14"/>
+    </row>
+    <row r="167" spans="4:7">
+      <c r="D167" s="14"/>
+      <c r="E167" s="14"/>
+      <c r="F167" s="14"/>
+      <c r="G167" s="14"/>
+    </row>
+    <row r="168" spans="4:7">
+      <c r="D168" s="14"/>
+      <c r="E168" s="14"/>
+      <c r="F168" s="14"/>
+      <c r="G168" s="14"/>
+    </row>
+    <row r="169" spans="4:7">
+      <c r="D169" s="14"/>
+      <c r="E169" s="14"/>
+      <c r="F169" s="14"/>
+      <c r="G169" s="14"/>
+    </row>
+    <row r="170" spans="4:7">
+      <c r="D170" s="14"/>
+      <c r="E170" s="14"/>
+      <c r="F170" s="14"/>
+      <c r="G170" s="14"/>
+    </row>
+    <row r="171" spans="4:7">
+      <c r="D171" s="14"/>
+      <c r="E171" s="14"/>
+      <c r="F171" s="14"/>
+      <c r="G171" s="14"/>
+    </row>
+    <row r="172" spans="4:7">
+      <c r="D172" s="14"/>
+      <c r="E172" s="14"/>
+      <c r="F172" s="14"/>
+      <c r="G172" s="14"/>
+    </row>
+    <row r="173" spans="4:7">
+      <c r="D173" s="14"/>
+      <c r="E173" s="14"/>
+      <c r="F173" s="14"/>
+      <c r="G173" s="14"/>
+    </row>
+    <row r="174" spans="4:7">
+      <c r="D174" s="14"/>
+      <c r="E174" s="14"/>
+      <c r="F174" s="14"/>
+      <c r="G174" s="14"/>
+    </row>
+    <row r="175" spans="4:7">
+      <c r="D175" s="14"/>
+      <c r="E175" s="14"/>
+      <c r="F175" s="14"/>
+      <c r="G175" s="14"/>
+    </row>
+    <row r="176" spans="4:7">
+      <c r="D176" s="14"/>
+      <c r="E176" s="14"/>
+      <c r="F176" s="14"/>
+      <c r="G176" s="14"/>
+    </row>
+    <row r="177" spans="4:7">
+      <c r="D177" s="14"/>
+      <c r="E177" s="14"/>
+      <c r="F177" s="14"/>
+      <c r="G177" s="14"/>
+    </row>
+    <row r="178" spans="4:7">
+      <c r="D178" s="14"/>
+      <c r="E178" s="14"/>
+      <c r="F178" s="14"/>
+      <c r="G178" s="14"/>
+    </row>
+    <row r="179" spans="4:7">
+      <c r="D179" s="14"/>
+      <c r="E179" s="14"/>
+      <c r="F179" s="14"/>
+      <c r="G179" s="14"/>
+    </row>
+    <row r="180" spans="4:7">
+      <c r="D180" s="14"/>
+      <c r="E180" s="14"/>
+      <c r="F180" s="14"/>
+      <c r="G180" s="14"/>
+    </row>
+    <row r="181" spans="4:7">
+      <c r="D181" s="14"/>
+      <c r="E181" s="14"/>
+      <c r="F181" s="14"/>
+      <c r="G181" s="14"/>
+    </row>
+    <row r="182" spans="4:7">
+      <c r="D182" s="14"/>
+      <c r="E182" s="14"/>
+      <c r="F182" s="14"/>
+      <c r="G182" s="14"/>
+    </row>
+    <row r="183" spans="4:7">
+      <c r="D183" s="14"/>
+      <c r="E183" s="14"/>
+      <c r="F183" s="14"/>
+      <c r="G183" s="14"/>
+    </row>
+    <row r="184" spans="4:7">
+      <c r="D184" s="14"/>
+      <c r="E184" s="14"/>
+      <c r="F184" s="14"/>
+      <c r="G184" s="14"/>
+    </row>
+    <row r="185" spans="4:7">
+      <c r="D185" s="14"/>
+      <c r="E185" s="14"/>
+      <c r="F185" s="14"/>
+      <c r="G185" s="14"/>
+    </row>
+    <row r="186" spans="4:7">
+      <c r="D186" s="14"/>
+      <c r="E186" s="14"/>
+      <c r="F186" s="14"/>
+      <c r="G186" s="14"/>
+    </row>
+    <row r="187" spans="4:7">
+      <c r="D187" s="14"/>
+      <c r="E187" s="14"/>
+      <c r="F187" s="14"/>
+      <c r="G187" s="14"/>
+    </row>
+    <row r="188" spans="4:7">
+      <c r="D188" s="14"/>
+      <c r="E188" s="14"/>
+      <c r="F188" s="14"/>
+      <c r="G188" s="14"/>
+    </row>
+    <row r="189" spans="4:7">
+      <c r="D189" s="14"/>
+      <c r="E189" s="14"/>
+      <c r="F189" s="14"/>
+      <c r="G189" s="14"/>
+    </row>
+    <row r="190" spans="4:7">
+      <c r="D190" s="14"/>
+      <c r="E190" s="14"/>
+      <c r="F190" s="14"/>
+      <c r="G190" s="14"/>
+    </row>
+    <row r="191" spans="4:7">
+      <c r="D191" s="14"/>
+      <c r="E191" s="14"/>
+      <c r="F191" s="14"/>
+      <c r="G191" s="14"/>
+    </row>
+    <row r="192" spans="4:7">
+      <c r="D192" s="14"/>
+      <c r="E192" s="14"/>
+      <c r="F192" s="14"/>
+      <c r="G192" s="14"/>
+    </row>
+    <row r="193" spans="4:7">
+      <c r="D193" s="14"/>
+      <c r="E193" s="14"/>
+      <c r="F193" s="14"/>
+      <c r="G193" s="14"/>
+    </row>
+    <row r="194" spans="4:7">
+      <c r="D194" s="14"/>
+      <c r="E194" s="14"/>
+      <c r="F194" s="14"/>
+      <c r="G194" s="14"/>
+    </row>
+    <row r="195" spans="4:7">
+      <c r="D195" s="14"/>
+      <c r="E195" s="14"/>
+      <c r="F195" s="14"/>
+      <c r="G195" s="14"/>
+    </row>
+    <row r="196" spans="4:7">
+      <c r="D196" s="14"/>
+      <c r="E196" s="14"/>
+      <c r="F196" s="14"/>
+      <c r="G196" s="14"/>
+    </row>
+    <row r="197" spans="4:7">
+      <c r="D197" s="14"/>
+      <c r="E197" s="14"/>
+      <c r="F197" s="14"/>
+      <c r="G197" s="14"/>
+    </row>
+    <row r="198" spans="4:7">
+      <c r="D198" s="14"/>
+      <c r="E198" s="14"/>
+      <c r="F198" s="14"/>
+      <c r="G198" s="14"/>
+    </row>
+    <row r="199" spans="4:7">
+      <c r="D199" s="14"/>
+      <c r="E199" s="14"/>
+      <c r="F199" s="14"/>
+      <c r="G199" s="14"/>
+    </row>
+    <row r="200" spans="4:7">
+      <c r="D200" s="14"/>
+      <c r="E200" s="14"/>
+      <c r="F200" s="14"/>
+      <c r="G200" s="14"/>
+    </row>
+    <row r="201" spans="4:7">
+      <c r="D201" s="14"/>
+      <c r="E201" s="14"/>
+      <c r="F201" s="14"/>
+      <c r="G201" s="14"/>
+    </row>
+    <row r="202" spans="4:7">
+      <c r="D202" s="14"/>
+      <c r="E202" s="14"/>
+      <c r="F202" s="14"/>
+      <c r="G202" s="14"/>
+    </row>
+    <row r="203" spans="4:7">
+      <c r="D203" s="14"/>
+      <c r="E203" s="14"/>
+      <c r="F203" s="14"/>
+      <c r="G203" s="14"/>
+    </row>
+    <row r="204" spans="4:7">
+      <c r="D204" s="14"/>
+      <c r="E204" s="14"/>
+      <c r="F204" s="14"/>
+      <c r="G204" s="14"/>
+    </row>
+    <row r="205" spans="4:7">
+      <c r="D205" s="14"/>
+      <c r="E205" s="14"/>
+      <c r="F205" s="14"/>
+      <c r="G205" s="14"/>
+    </row>
+    <row r="206" spans="4:7">
+      <c r="D206" s="14"/>
+      <c r="E206" s="14"/>
+      <c r="F206" s="14"/>
+      <c r="G206" s="14"/>
+    </row>
+    <row r="207" spans="4:7">
+      <c r="D207" s="14"/>
+      <c r="E207" s="14"/>
+      <c r="F207" s="14"/>
+      <c r="G207" s="14"/>
+    </row>
+    <row r="208" spans="4:7">
+      <c r="D208" s="14"/>
+      <c r="E208" s="14"/>
+      <c r="F208" s="14"/>
+      <c r="G208" s="14"/>
+    </row>
+    <row r="209" spans="4:7">
+      <c r="D209" s="14"/>
+      <c r="E209" s="14"/>
+      <c r="F209" s="14"/>
+      <c r="G209" s="14"/>
+    </row>
+    <row r="210" spans="4:7">
+      <c r="D210" s="14"/>
+      <c r="E210" s="14"/>
+      <c r="F210" s="14"/>
+      <c r="G210" s="14"/>
+    </row>
+    <row r="211" spans="4:7">
+      <c r="D211" s="14"/>
+      <c r="E211" s="14"/>
+      <c r="F211" s="14"/>
+      <c r="G211" s="14"/>
+    </row>
+    <row r="212" spans="4:7">
+      <c r="D212" s="14"/>
+      <c r="E212" s="14"/>
+      <c r="F212" s="14"/>
+      <c r="G212" s="14"/>
+    </row>
+    <row r="213" spans="4:7">
+      <c r="D213" s="14"/>
+      <c r="E213" s="14"/>
+      <c r="F213" s="14"/>
+      <c r="G213" s="14"/>
+    </row>
+    <row r="214" spans="4:7">
+      <c r="D214" s="14"/>
+      <c r="E214" s="14"/>
+      <c r="F214" s="14"/>
+      <c r="G214" s="14"/>
+    </row>
+    <row r="215" spans="4:7">
+      <c r="D215" s="14"/>
+      <c r="E215" s="14"/>
+      <c r="F215" s="14"/>
+      <c r="G215" s="14"/>
+    </row>
+    <row r="216" spans="4:7">
+      <c r="D216" s="14"/>
+      <c r="E216" s="14"/>
+      <c r="F216" s="14"/>
+      <c r="G216" s="14"/>
+    </row>
+    <row r="217" spans="4:7">
+      <c r="D217" s="14"/>
+      <c r="E217" s="14"/>
+      <c r="F217" s="14"/>
+      <c r="G217" s="14"/>
+    </row>
+    <row r="218" spans="4:7">
+      <c r="D218" s="14"/>
+      <c r="E218" s="14"/>
+      <c r="F218" s="14"/>
+      <c r="G218" s="14"/>
+    </row>
+    <row r="219" spans="4:7">
+      <c r="D219" s="14"/>
+      <c r="E219" s="14"/>
+      <c r="F219" s="14"/>
+      <c r="G219" s="14"/>
+    </row>
+    <row r="220" spans="4:7">
+      <c r="D220" s="14"/>
+      <c r="E220" s="14"/>
+      <c r="F220" s="14"/>
+      <c r="G220" s="14"/>
+    </row>
+    <row r="221" spans="4:7">
+      <c r="D221" s="14"/>
+      <c r="E221" s="14"/>
+      <c r="F221" s="14"/>
+      <c r="G221" s="14"/>
+    </row>
+    <row r="222" spans="4:7">
+      <c r="D222" s="14"/>
+      <c r="E222" s="14"/>
+      <c r="F222" s="14"/>
+      <c r="G222" s="14"/>
+    </row>
+    <row r="223" spans="4:7">
+      <c r="D223" s="14"/>
+      <c r="E223" s="14"/>
+      <c r="F223" s="14"/>
+      <c r="G223" s="14"/>
+    </row>
+    <row r="224" spans="4:7">
+      <c r="D224" s="14"/>
+      <c r="E224" s="14"/>
+      <c r="F224" s="14"/>
+      <c r="G224" s="14"/>
+    </row>
+    <row r="225" spans="4:7">
+      <c r="D225" s="14"/>
+      <c r="E225" s="14"/>
+      <c r="F225" s="14"/>
+      <c r="G225" s="14"/>
+    </row>
+    <row r="226" spans="4:7">
+      <c r="D226" s="14"/>
+      <c r="E226" s="14"/>
+      <c r="F226" s="14"/>
+      <c r="G226" s="14"/>
+    </row>
+    <row r="227" spans="4:7">
+      <c r="D227" s="14"/>
+      <c r="E227" s="14"/>
+      <c r="F227" s="14"/>
+      <c r="G227" s="14"/>
+    </row>
+    <row r="228" spans="4:7">
+      <c r="D228" s="14"/>
+      <c r="E228" s="14"/>
+      <c r="F228" s="14"/>
+      <c r="G228" s="14"/>
+    </row>
+    <row r="229" spans="4:7">
+      <c r="D229" s="14"/>
+      <c r="E229" s="14"/>
+      <c r="F229" s="14"/>
+      <c r="G229" s="14"/>
+    </row>
+    <row r="230" spans="4:7">
+      <c r="D230" s="14"/>
+      <c r="E230" s="14"/>
+      <c r="F230" s="14"/>
+      <c r="G230" s="14"/>
+    </row>
+    <row r="231" spans="4:7">
+      <c r="D231" s="14"/>
+      <c r="E231" s="14"/>
+      <c r="F231" s="14"/>
+      <c r="G231" s="14"/>
+    </row>
+    <row r="232" spans="4:7">
+      <c r="D232" s="14"/>
+      <c r="E232" s="14"/>
+      <c r="F232" s="14"/>
+      <c r="G232" s="14"/>
+    </row>
+    <row r="233" spans="4:7">
+      <c r="D233" s="14"/>
+      <c r="E233" s="14"/>
+      <c r="F233" s="14"/>
+      <c r="G233" s="14"/>
+    </row>
+    <row r="234" spans="4:7">
+      <c r="D234" s="14"/>
+      <c r="E234" s="14"/>
+      <c r="F234" s="14"/>
+      <c r="G234" s="14"/>
+    </row>
+    <row r="235" spans="4:7">
+      <c r="D235" s="14"/>
+      <c r="E235" s="14"/>
+      <c r="F235" s="14"/>
+      <c r="G235" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Config/Datas/SwordSkillBase.xlsx
+++ b/Luban/Config/Datas/SwordSkillBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>##var</t>
   </si>
@@ -177,7 +177,7 @@
     <t>(list#sep=|),Tb.SwordSkill.SkillFontValue</t>
   </si>
   <si>
-    <t>(list#sep=|),Tb.SwordSkill.SkillParamValue</t>
+    <t>(array#sep=|),Tb.SwordSkill.SkillParamArray</t>
   </si>
   <si>
     <t>##</t>
@@ -270,7 +270,7 @@
     <t>暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0},暴击{0}</t>
   </si>
   <si>
-    <t>19,5,0|19,6,0|19,10,0|19,12,0|19,13,0|19,190,0|19,21,0|19,22,0|19,23,0|19,31,0|19,35,0|19,40,0|19,45,0|19,50,0|19,55,0|19,60,0|19,65,0|19,70,0|19,75,0|19,80,0|19,85,0</t>
+    <t>19,5,0|19,6,0|19,10,0|19,12,0|19,13,0|19,19,0|19,21,0|19,22,0|19,23,0|19,31,0|19,35,0|19,40,0|19,45,0|19,50,0|19,55,0|19,60,0|19,65,0|19,70,0|19,75,0|19,80,0|19,85,0</t>
   </si>
   <si>
     <t>旋风斩!(1级),旋风斩!(2级),旋风斩!(3级),旋风斩!(4级),旋风斩!(5级),旋风斩!(6级),旋风斩!(7级),旋风斩!(8级),旋风斩!(9级),旋风斩!(10级),进阶旋风斩!(11级),进阶旋风斩!(12级),进阶旋风斩!(12级),进阶旋风斩!(13级),进阶旋风斩!(14级),进阶旋风斩!(15级),高级旋风斩!(16级),高级旋风斩!(17级),高级旋风斩!(18级),旋风斩!专精(19级),旋风斩!专精(20级),旋风斩!大师(21级)</t>
@@ -307,6 +307,15 @@
   </si>
   <si>
     <t>1,100,FALSE,4|1,110,FALSE,4|1,120,FALSE,4|1,110,FALSE,4|1,100,FALSE,4|1,140,FALSE,4|1,150,FALSE,4|1,160,FALSE,4|1,170,FALSE,4|1,180,FALSE,4|1,190,FALSE,4|1,200,FALSE,4|1,210,FALSE,4|1,220,FALSE,4|1,210,FALSE,4|1,240,FALSE,4|1,250,FALSE,4|1,260,FALSE,4|1,270,FALSE,4|1,280,FALSE,4|1,290,FALSE,4</t>
+  </si>
+  <si>
+    <t>剑刃先攻(1级),剑刃先攻(2级),剑刃先攻(3级),剑刃先攻(4级),剑刃先攻(5级),剑刃先攻(6级),剑刃先攻(7级),剑刃先攻(8级),剑刃先攻(9级),剑刃先攻(10级),剑刃先攻(11级),剑刃先攻(12级),剑刃先攻(12级),剑刃先攻(13级),剑刃先攻(14级),剑刃先攻(15级),剑刃先攻(16级),剑刃先攻(17级),剑刃先攻(18级),剑刃先攻(19级),剑刃先攻(20级),剑刃先攻(21级)</t>
+  </si>
+  <si>
+    <t>Skill_Icon_8</t>
+  </si>
+  <si>
+    <t>近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0}</t>
   </si>
 </sst>
 </file>
@@ -319,7 +328,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +354,19 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -964,52 +986,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1018,83 +1040,83 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
@@ -1116,20 +1138,41 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1455,17 +1498,21 @@
   <sheetPr/>
   <dimension ref="A1:AC235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9.12037037037037" customWidth="1"/>
-    <col min="3" max="3" width="11.1574074074074" customWidth="1"/>
-    <col min="4" max="4" width="11.5277777777778" customWidth="1"/>
-    <col min="5" max="7" width="11.1574074074074" customWidth="1"/>
-    <col min="8" max="8" width="34.6018518518519" customWidth="1"/>
+    <col min="1" max="1" width="9.175" customWidth="1"/>
+    <col min="2" max="2" width="8.50833333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.3416666666667" customWidth="1"/>
+    <col min="4" max="4" width="10.675" customWidth="1"/>
+    <col min="5" max="5" width="40.625" customWidth="1"/>
+    <col min="6" max="6" width="12.0083333333333" customWidth="1"/>
+    <col min="7" max="8" width="40.625" customWidth="1"/>
+    <col min="9" max="9" width="14.5083333333333" customWidth="1"/>
+    <col min="10" max="11" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:29">
@@ -1521,7 +1568,7 @@
       <c r="AB1"/>
       <c r="AC1"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:29">
+    <row r="2" s="2" customFormat="1" ht="35" customHeight="1" spans="1:29">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -1627,7 +1674,7 @@
       <c r="AB3"/>
       <c r="AC3"/>
     </row>
-    <row r="4" ht="18.5" customHeight="1" spans="1:11">
+    <row r="4" ht="134" customHeight="1" spans="1:11">
       <c r="A4" s="9"/>
       <c r="B4" s="10">
         <v>1</v>
@@ -1638,1541 +1685,1566 @@
       <c r="D4" s="10">
         <v>0</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="14" t="s">
         <v>33</v>
       </c>
       <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" ht="18.45" customHeight="1" spans="1:11">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10">
+      <c r="J4" s="13"/>
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" ht="134" customHeight="1" spans="1:11">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16">
         <v>2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="16">
         <v>0</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="16">
         <v>0</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" ht="18.45" customHeight="1" spans="1:11">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10">
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" ht="134" customHeight="1" spans="1:11">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16">
         <v>3</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="16">
         <v>0</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="16">
         <v>0</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" ht="18.45" customHeight="1" spans="1:11">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10">
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" ht="134" customHeight="1" spans="1:11">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="16">
         <v>0</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="16">
         <v>0</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" ht="18.45" customHeight="1" spans="1:11">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10">
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" ht="134" customHeight="1" spans="1:11">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16">
         <v>5</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="16">
         <v>0</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="16">
         <v>0</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" ht="18.45" customHeight="1" spans="1:11">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10">
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" ht="117.5" customHeight="1" spans="1:11">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16">
         <v>101</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="16">
         <v>0</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="16">
         <v>1</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="12" t="s">
+      <c r="H9" s="20"/>
+      <c r="I9" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" ht="18.45" customHeight="1" spans="1:11">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10">
+    <row r="10" ht="134" customHeight="1" spans="1:11">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16">
         <v>201</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="16">
         <v>0</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="16">
         <v>2</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="12" t="s">
+      <c r="H10" s="20"/>
+      <c r="I10" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="4:7">
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+    <row r="11" ht="134" customHeight="1" spans="1:11">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16">
+        <v>201</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <v>2</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="4:7">
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="4:7">
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="4:7">
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" spans="4:7">
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="4:7">
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="4:7">
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="4:7">
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" spans="4:7">
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" spans="4:7">
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" spans="4:7">
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" spans="4:7">
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="4:7">
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="4:7">
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="4:7">
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
     </row>
     <row r="26" spans="4:7">
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
     </row>
     <row r="27" spans="4:7">
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
     </row>
     <row r="28" spans="4:7">
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
     </row>
     <row r="29" spans="4:7">
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
     </row>
     <row r="30" spans="4:7">
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
     </row>
     <row r="31" spans="4:7">
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
     </row>
     <row r="32" spans="4:7">
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
     </row>
     <row r="33" spans="4:7">
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
     </row>
     <row r="34" spans="4:7">
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
     </row>
     <row r="35" spans="4:7">
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
     </row>
     <row r="36" spans="4:7">
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
     </row>
     <row r="37" spans="4:7">
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
     </row>
     <row r="38" spans="4:7">
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
     </row>
     <row r="39" spans="4:7">
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
     </row>
     <row r="40" spans="4:7">
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
     </row>
     <row r="41" spans="4:7">
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="4:7">
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="4:7">
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
     </row>
     <row r="44" spans="4:7">
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
     </row>
     <row r="45" spans="4:7">
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
     </row>
     <row r="46" spans="4:7">
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
     </row>
     <row r="47" spans="4:7">
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
     </row>
     <row r="48" spans="4:7">
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
     </row>
     <row r="49" spans="4:7">
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
     </row>
     <row r="50" spans="4:7">
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
     </row>
     <row r="51" spans="4:7">
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
     </row>
     <row r="52" spans="4:7">
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
     </row>
     <row r="53" spans="4:7">
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
     </row>
     <row r="54" spans="4:7">
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
     </row>
     <row r="55" spans="4:7">
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
     </row>
     <row r="56" spans="4:7">
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
     </row>
     <row r="57" spans="4:7">
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
     </row>
     <row r="58" spans="4:7">
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
     </row>
     <row r="59" spans="4:7">
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
     </row>
     <row r="60" spans="4:7">
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
     </row>
     <row r="61" spans="4:7">
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
     </row>
     <row r="62" spans="4:7">
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
     </row>
     <row r="63" spans="4:7">
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
     </row>
     <row r="64" spans="4:7">
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
     </row>
     <row r="65" spans="4:7">
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
     </row>
     <row r="66" spans="4:7">
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
     </row>
     <row r="67" spans="4:7">
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
     </row>
     <row r="68" spans="4:7">
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
     </row>
     <row r="69" spans="4:7">
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
     </row>
     <row r="70" spans="4:7">
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
     </row>
     <row r="71" spans="4:7">
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
     </row>
     <row r="72" spans="4:7">
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
     </row>
     <row r="73" spans="4:7">
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
     </row>
     <row r="74" spans="4:7">
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
     </row>
     <row r="75" spans="4:7">
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
     </row>
     <row r="76" spans="4:7">
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
     </row>
     <row r="77" spans="4:7">
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
     </row>
     <row r="78" spans="4:7">
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
     </row>
     <row r="79" spans="4:7">
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
     </row>
     <row r="80" spans="4:7">
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
     </row>
     <row r="81" spans="4:7">
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
     </row>
     <row r="82" spans="4:7">
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
     </row>
     <row r="83" spans="4:7">
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
     </row>
     <row r="84" spans="4:7">
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
     </row>
     <row r="85" spans="4:7">
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
     </row>
     <row r="86" spans="4:7">
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
     </row>
     <row r="87" spans="4:7">
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
     </row>
     <row r="88" spans="4:7">
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
     </row>
     <row r="89" spans="4:7">
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
     </row>
     <row r="90" spans="4:7">
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
     </row>
     <row r="91" spans="4:7">
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
     </row>
     <row r="92" spans="4:7">
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
     </row>
     <row r="93" spans="4:7">
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
     </row>
     <row r="94" spans="4:7">
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
     </row>
     <row r="95" spans="4:7">
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
     </row>
     <row r="96" spans="4:7">
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
     </row>
     <row r="97" spans="4:7">
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
     </row>
     <row r="98" spans="4:7">
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
     </row>
     <row r="99" spans="4:7">
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
     </row>
     <row r="100" spans="4:7">
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
     </row>
     <row r="101" spans="4:7">
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
     </row>
     <row r="102" spans="4:7">
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="14"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
     </row>
     <row r="103" spans="4:7">
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
     </row>
     <row r="104" spans="4:7">
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
     </row>
     <row r="105" spans="4:7">
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
     </row>
     <row r="106" spans="4:7">
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
     </row>
     <row r="107" spans="4:7">
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
     </row>
     <row r="108" spans="4:7">
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
     </row>
     <row r="109" spans="4:7">
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
     </row>
     <row r="110" spans="4:7">
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
     </row>
     <row r="111" spans="4:7">
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21"/>
     </row>
     <row r="112" spans="4:7">
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21"/>
     </row>
     <row r="113" spans="4:7">
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="21"/>
     </row>
     <row r="114" spans="4:7">
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c r="G114" s="14"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
     </row>
     <row r="115" spans="4:7">
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
     </row>
     <row r="116" spans="4:7">
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="21"/>
     </row>
     <row r="117" spans="4:7">
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
     </row>
     <row r="118" spans="4:7">
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="21"/>
     </row>
     <row r="119" spans="4:7">
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="21"/>
     </row>
     <row r="120" spans="4:7">
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="21"/>
     </row>
     <row r="121" spans="4:7">
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="21"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="21"/>
     </row>
     <row r="122" spans="4:7">
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="21"/>
     </row>
     <row r="123" spans="4:7">
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
     </row>
     <row r="124" spans="4:7">
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c r="G124" s="14"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="21"/>
+      <c r="G124" s="21"/>
     </row>
     <row r="125" spans="4:7">
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="21"/>
     </row>
     <row r="126" spans="4:7">
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="21"/>
     </row>
     <row r="127" spans="4:7">
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="21"/>
     </row>
     <row r="128" spans="4:7">
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c r="G128" s="14"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="21"/>
     </row>
     <row r="129" spans="4:7">
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
+      <c r="D129" s="21"/>
+      <c r="E129" s="21"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="21"/>
     </row>
     <row r="130" spans="4:7">
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c r="G130" s="14"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="21"/>
     </row>
     <row r="131" spans="4:7">
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c r="G131" s="14"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="21"/>
     </row>
     <row r="132" spans="4:7">
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c r="G132" s="14"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="21"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="21"/>
     </row>
     <row r="133" spans="4:7">
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="21"/>
     </row>
     <row r="134" spans="4:7">
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="14"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="21"/>
     </row>
     <row r="135" spans="4:7">
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="21"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="21"/>
     </row>
     <row r="136" spans="4:7">
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c r="G136" s="14"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="21"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="21"/>
     </row>
     <row r="137" spans="4:7">
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c r="G137" s="14"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
     </row>
     <row r="138" spans="4:7">
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="14"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="21"/>
+      <c r="F138" s="21"/>
+      <c r="G138" s="21"/>
     </row>
     <row r="139" spans="4:7">
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="14"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="21"/>
+      <c r="G139" s="21"/>
     </row>
     <row r="140" spans="4:7">
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
+      <c r="D140" s="21"/>
+      <c r="E140" s="21"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="21"/>
     </row>
     <row r="141" spans="4:7">
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="14"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="21"/>
     </row>
     <row r="142" spans="4:7">
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="14"/>
+      <c r="D142" s="21"/>
+      <c r="E142" s="21"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="21"/>
     </row>
     <row r="143" spans="4:7">
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
+      <c r="D143" s="21"/>
+      <c r="E143" s="21"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="21"/>
     </row>
     <row r="144" spans="4:7">
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="14"/>
+      <c r="D144" s="21"/>
+      <c r="E144" s="21"/>
+      <c r="F144" s="21"/>
+      <c r="G144" s="21"/>
     </row>
     <row r="145" spans="4:7">
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
-      <c r="G145" s="14"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="21"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="21"/>
     </row>
     <row r="146" spans="4:7">
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="14"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="21"/>
     </row>
     <row r="147" spans="4:7">
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="21"/>
     </row>
     <row r="148" spans="4:7">
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
-      <c r="G148" s="14"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="21"/>
     </row>
     <row r="149" spans="4:7">
-      <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="14"/>
-      <c r="G149" s="14"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="21"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="21"/>
     </row>
     <row r="150" spans="4:7">
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="14"/>
+      <c r="D150" s="21"/>
+      <c r="E150" s="21"/>
+      <c r="F150" s="21"/>
+      <c r="G150" s="21"/>
     </row>
     <row r="151" spans="4:7">
-      <c r="D151" s="14"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="14"/>
-      <c r="G151" s="14"/>
+      <c r="D151" s="21"/>
+      <c r="E151" s="21"/>
+      <c r="F151" s="21"/>
+      <c r="G151" s="21"/>
     </row>
     <row r="152" spans="4:7">
-      <c r="D152" s="14"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="14"/>
-      <c r="G152" s="14"/>
+      <c r="D152" s="21"/>
+      <c r="E152" s="21"/>
+      <c r="F152" s="21"/>
+      <c r="G152" s="21"/>
     </row>
     <row r="153" spans="4:7">
-      <c r="D153" s="14"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
+      <c r="D153" s="21"/>
+      <c r="E153" s="21"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="21"/>
     </row>
     <row r="154" spans="4:7">
-      <c r="D154" s="14"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
-      <c r="G154" s="14"/>
+      <c r="D154" s="21"/>
+      <c r="E154" s="21"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="21"/>
     </row>
     <row r="155" spans="4:7">
-      <c r="D155" s="14"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="14"/>
-      <c r="G155" s="14"/>
+      <c r="D155" s="21"/>
+      <c r="E155" s="21"/>
+      <c r="F155" s="21"/>
+      <c r="G155" s="21"/>
     </row>
     <row r="156" spans="4:7">
-      <c r="D156" s="14"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="14"/>
-      <c r="G156" s="14"/>
+      <c r="D156" s="21"/>
+      <c r="E156" s="21"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="21"/>
     </row>
     <row r="157" spans="4:7">
-      <c r="D157" s="14"/>
-      <c r="E157" s="14"/>
-      <c r="F157" s="14"/>
-      <c r="G157" s="14"/>
+      <c r="D157" s="21"/>
+      <c r="E157" s="21"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="21"/>
     </row>
     <row r="158" spans="4:7">
-      <c r="D158" s="14"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="14"/>
-      <c r="G158" s="14"/>
+      <c r="D158" s="21"/>
+      <c r="E158" s="21"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="21"/>
     </row>
     <row r="159" spans="4:7">
-      <c r="D159" s="14"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="14"/>
-      <c r="G159" s="14"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="21"/>
     </row>
     <row r="160" spans="4:7">
-      <c r="D160" s="14"/>
-      <c r="E160" s="14"/>
-      <c r="F160" s="14"/>
-      <c r="G160" s="14"/>
+      <c r="D160" s="21"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="21"/>
     </row>
     <row r="161" spans="4:7">
-      <c r="D161" s="14"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="14"/>
-      <c r="G161" s="14"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="21"/>
     </row>
     <row r="162" spans="4:7">
-      <c r="D162" s="14"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="14"/>
-      <c r="G162" s="14"/>
+      <c r="D162" s="21"/>
+      <c r="E162" s="21"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="21"/>
     </row>
     <row r="163" spans="4:7">
-      <c r="D163" s="14"/>
-      <c r="E163" s="14"/>
-      <c r="F163" s="14"/>
-      <c r="G163" s="14"/>
+      <c r="D163" s="21"/>
+      <c r="E163" s="21"/>
+      <c r="F163" s="21"/>
+      <c r="G163" s="21"/>
     </row>
     <row r="164" spans="4:7">
-      <c r="D164" s="14"/>
-      <c r="E164" s="14"/>
-      <c r="F164" s="14"/>
-      <c r="G164" s="14"/>
+      <c r="D164" s="21"/>
+      <c r="E164" s="21"/>
+      <c r="F164" s="21"/>
+      <c r="G164" s="21"/>
     </row>
     <row r="165" spans="4:7">
-      <c r="D165" s="14"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="14"/>
-      <c r="G165" s="14"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="21"/>
+      <c r="F165" s="21"/>
+      <c r="G165" s="21"/>
     </row>
     <row r="166" spans="4:7">
-      <c r="D166" s="14"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="14"/>
-      <c r="G166" s="14"/>
+      <c r="D166" s="21"/>
+      <c r="E166" s="21"/>
+      <c r="F166" s="21"/>
+      <c r="G166" s="21"/>
     </row>
     <row r="167" spans="4:7">
-      <c r="D167" s="14"/>
-      <c r="E167" s="14"/>
-      <c r="F167" s="14"/>
-      <c r="G167" s="14"/>
+      <c r="D167" s="21"/>
+      <c r="E167" s="21"/>
+      <c r="F167" s="21"/>
+      <c r="G167" s="21"/>
     </row>
     <row r="168" spans="4:7">
-      <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="14"/>
-      <c r="G168" s="14"/>
+      <c r="D168" s="21"/>
+      <c r="E168" s="21"/>
+      <c r="F168" s="21"/>
+      <c r="G168" s="21"/>
     </row>
     <row r="169" spans="4:7">
-      <c r="D169" s="14"/>
-      <c r="E169" s="14"/>
-      <c r="F169" s="14"/>
-      <c r="G169" s="14"/>
+      <c r="D169" s="21"/>
+      <c r="E169" s="21"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="21"/>
     </row>
     <row r="170" spans="4:7">
-      <c r="D170" s="14"/>
-      <c r="E170" s="14"/>
-      <c r="F170" s="14"/>
-      <c r="G170" s="14"/>
+      <c r="D170" s="21"/>
+      <c r="E170" s="21"/>
+      <c r="F170" s="21"/>
+      <c r="G170" s="21"/>
     </row>
     <row r="171" spans="4:7">
-      <c r="D171" s="14"/>
-      <c r="E171" s="14"/>
-      <c r="F171" s="14"/>
-      <c r="G171" s="14"/>
+      <c r="D171" s="21"/>
+      <c r="E171" s="21"/>
+      <c r="F171" s="21"/>
+      <c r="G171" s="21"/>
     </row>
     <row r="172" spans="4:7">
-      <c r="D172" s="14"/>
-      <c r="E172" s="14"/>
-      <c r="F172" s="14"/>
-      <c r="G172" s="14"/>
+      <c r="D172" s="21"/>
+      <c r="E172" s="21"/>
+      <c r="F172" s="21"/>
+      <c r="G172" s="21"/>
     </row>
     <row r="173" spans="4:7">
-      <c r="D173" s="14"/>
-      <c r="E173" s="14"/>
-      <c r="F173" s="14"/>
-      <c r="G173" s="14"/>
+      <c r="D173" s="21"/>
+      <c r="E173" s="21"/>
+      <c r="F173" s="21"/>
+      <c r="G173" s="21"/>
     </row>
     <row r="174" spans="4:7">
-      <c r="D174" s="14"/>
-      <c r="E174" s="14"/>
-      <c r="F174" s="14"/>
-      <c r="G174" s="14"/>
+      <c r="D174" s="21"/>
+      <c r="E174" s="21"/>
+      <c r="F174" s="21"/>
+      <c r="G174" s="21"/>
     </row>
     <row r="175" spans="4:7">
-      <c r="D175" s="14"/>
-      <c r="E175" s="14"/>
-      <c r="F175" s="14"/>
-      <c r="G175" s="14"/>
+      <c r="D175" s="21"/>
+      <c r="E175" s="21"/>
+      <c r="F175" s="21"/>
+      <c r="G175" s="21"/>
     </row>
     <row r="176" spans="4:7">
-      <c r="D176" s="14"/>
-      <c r="E176" s="14"/>
-      <c r="F176" s="14"/>
-      <c r="G176" s="14"/>
+      <c r="D176" s="21"/>
+      <c r="E176" s="21"/>
+      <c r="F176" s="21"/>
+      <c r="G176" s="21"/>
     </row>
     <row r="177" spans="4:7">
-      <c r="D177" s="14"/>
-      <c r="E177" s="14"/>
-      <c r="F177" s="14"/>
-      <c r="G177" s="14"/>
+      <c r="D177" s="21"/>
+      <c r="E177" s="21"/>
+      <c r="F177" s="21"/>
+      <c r="G177" s="21"/>
     </row>
     <row r="178" spans="4:7">
-      <c r="D178" s="14"/>
-      <c r="E178" s="14"/>
-      <c r="F178" s="14"/>
-      <c r="G178" s="14"/>
+      <c r="D178" s="21"/>
+      <c r="E178" s="21"/>
+      <c r="F178" s="21"/>
+      <c r="G178" s="21"/>
     </row>
     <row r="179" spans="4:7">
-      <c r="D179" s="14"/>
-      <c r="E179" s="14"/>
-      <c r="F179" s="14"/>
-      <c r="G179" s="14"/>
+      <c r="D179" s="21"/>
+      <c r="E179" s="21"/>
+      <c r="F179" s="21"/>
+      <c r="G179" s="21"/>
     </row>
     <row r="180" spans="4:7">
-      <c r="D180" s="14"/>
-      <c r="E180" s="14"/>
-      <c r="F180" s="14"/>
-      <c r="G180" s="14"/>
+      <c r="D180" s="21"/>
+      <c r="E180" s="21"/>
+      <c r="F180" s="21"/>
+      <c r="G180" s="21"/>
     </row>
     <row r="181" spans="4:7">
-      <c r="D181" s="14"/>
-      <c r="E181" s="14"/>
-      <c r="F181" s="14"/>
-      <c r="G181" s="14"/>
+      <c r="D181" s="21"/>
+      <c r="E181" s="21"/>
+      <c r="F181" s="21"/>
+      <c r="G181" s="21"/>
     </row>
     <row r="182" spans="4:7">
-      <c r="D182" s="14"/>
-      <c r="E182" s="14"/>
-      <c r="F182" s="14"/>
-      <c r="G182" s="14"/>
+      <c r="D182" s="21"/>
+      <c r="E182" s="21"/>
+      <c r="F182" s="21"/>
+      <c r="G182" s="21"/>
     </row>
     <row r="183" spans="4:7">
-      <c r="D183" s="14"/>
-      <c r="E183" s="14"/>
-      <c r="F183" s="14"/>
-      <c r="G183" s="14"/>
+      <c r="D183" s="21"/>
+      <c r="E183" s="21"/>
+      <c r="F183" s="21"/>
+      <c r="G183" s="21"/>
     </row>
     <row r="184" spans="4:7">
-      <c r="D184" s="14"/>
-      <c r="E184" s="14"/>
-      <c r="F184" s="14"/>
-      <c r="G184" s="14"/>
+      <c r="D184" s="21"/>
+      <c r="E184" s="21"/>
+      <c r="F184" s="21"/>
+      <c r="G184" s="21"/>
     </row>
     <row r="185" spans="4:7">
-      <c r="D185" s="14"/>
-      <c r="E185" s="14"/>
-      <c r="F185" s="14"/>
-      <c r="G185" s="14"/>
+      <c r="D185" s="21"/>
+      <c r="E185" s="21"/>
+      <c r="F185" s="21"/>
+      <c r="G185" s="21"/>
     </row>
     <row r="186" spans="4:7">
-      <c r="D186" s="14"/>
-      <c r="E186" s="14"/>
-      <c r="F186" s="14"/>
-      <c r="G186" s="14"/>
+      <c r="D186" s="21"/>
+      <c r="E186" s="21"/>
+      <c r="F186" s="21"/>
+      <c r="G186" s="21"/>
     </row>
     <row r="187" spans="4:7">
-      <c r="D187" s="14"/>
-      <c r="E187" s="14"/>
-      <c r="F187" s="14"/>
-      <c r="G187" s="14"/>
+      <c r="D187" s="21"/>
+      <c r="E187" s="21"/>
+      <c r="F187" s="21"/>
+      <c r="G187" s="21"/>
     </row>
     <row r="188" spans="4:7">
-      <c r="D188" s="14"/>
-      <c r="E188" s="14"/>
-      <c r="F188" s="14"/>
-      <c r="G188" s="14"/>
+      <c r="D188" s="21"/>
+      <c r="E188" s="21"/>
+      <c r="F188" s="21"/>
+      <c r="G188" s="21"/>
     </row>
     <row r="189" spans="4:7">
-      <c r="D189" s="14"/>
-      <c r="E189" s="14"/>
-      <c r="F189" s="14"/>
-      <c r="G189" s="14"/>
+      <c r="D189" s="21"/>
+      <c r="E189" s="21"/>
+      <c r="F189" s="21"/>
+      <c r="G189" s="21"/>
     </row>
     <row r="190" spans="4:7">
-      <c r="D190" s="14"/>
-      <c r="E190" s="14"/>
-      <c r="F190" s="14"/>
-      <c r="G190" s="14"/>
+      <c r="D190" s="21"/>
+      <c r="E190" s="21"/>
+      <c r="F190" s="21"/>
+      <c r="G190" s="21"/>
     </row>
     <row r="191" spans="4:7">
-      <c r="D191" s="14"/>
-      <c r="E191" s="14"/>
-      <c r="F191" s="14"/>
-      <c r="G191" s="14"/>
+      <c r="D191" s="21"/>
+      <c r="E191" s="21"/>
+      <c r="F191" s="21"/>
+      <c r="G191" s="21"/>
     </row>
     <row r="192" spans="4:7">
-      <c r="D192" s="14"/>
-      <c r="E192" s="14"/>
-      <c r="F192" s="14"/>
-      <c r="G192" s="14"/>
+      <c r="D192" s="21"/>
+      <c r="E192" s="21"/>
+      <c r="F192" s="21"/>
+      <c r="G192" s="21"/>
     </row>
     <row r="193" spans="4:7">
-      <c r="D193" s="14"/>
-      <c r="E193" s="14"/>
-      <c r="F193" s="14"/>
-      <c r="G193" s="14"/>
+      <c r="D193" s="21"/>
+      <c r="E193" s="21"/>
+      <c r="F193" s="21"/>
+      <c r="G193" s="21"/>
     </row>
     <row r="194" spans="4:7">
-      <c r="D194" s="14"/>
-      <c r="E194" s="14"/>
-      <c r="F194" s="14"/>
-      <c r="G194" s="14"/>
+      <c r="D194" s="21"/>
+      <c r="E194" s="21"/>
+      <c r="F194" s="21"/>
+      <c r="G194" s="21"/>
     </row>
     <row r="195" spans="4:7">
-      <c r="D195" s="14"/>
-      <c r="E195" s="14"/>
-      <c r="F195" s="14"/>
-      <c r="G195" s="14"/>
+      <c r="D195" s="21"/>
+      <c r="E195" s="21"/>
+      <c r="F195" s="21"/>
+      <c r="G195" s="21"/>
     </row>
     <row r="196" spans="4:7">
-      <c r="D196" s="14"/>
-      <c r="E196" s="14"/>
-      <c r="F196" s="14"/>
-      <c r="G196" s="14"/>
+      <c r="D196" s="21"/>
+      <c r="E196" s="21"/>
+      <c r="F196" s="21"/>
+      <c r="G196" s="21"/>
     </row>
     <row r="197" spans="4:7">
-      <c r="D197" s="14"/>
-      <c r="E197" s="14"/>
-      <c r="F197" s="14"/>
-      <c r="G197" s="14"/>
+      <c r="D197" s="21"/>
+      <c r="E197" s="21"/>
+      <c r="F197" s="21"/>
+      <c r="G197" s="21"/>
     </row>
     <row r="198" spans="4:7">
-      <c r="D198" s="14"/>
-      <c r="E198" s="14"/>
-      <c r="F198" s="14"/>
-      <c r="G198" s="14"/>
+      <c r="D198" s="21"/>
+      <c r="E198" s="21"/>
+      <c r="F198" s="21"/>
+      <c r="G198" s="21"/>
     </row>
     <row r="199" spans="4:7">
-      <c r="D199" s="14"/>
-      <c r="E199" s="14"/>
-      <c r="F199" s="14"/>
-      <c r="G199" s="14"/>
+      <c r="D199" s="21"/>
+      <c r="E199" s="21"/>
+      <c r="F199" s="21"/>
+      <c r="G199" s="21"/>
     </row>
     <row r="200" spans="4:7">
-      <c r="D200" s="14"/>
-      <c r="E200" s="14"/>
-      <c r="F200" s="14"/>
-      <c r="G200" s="14"/>
+      <c r="D200" s="21"/>
+      <c r="E200" s="21"/>
+      <c r="F200" s="21"/>
+      <c r="G200" s="21"/>
     </row>
     <row r="201" spans="4:7">
-      <c r="D201" s="14"/>
-      <c r="E201" s="14"/>
-      <c r="F201" s="14"/>
-      <c r="G201" s="14"/>
+      <c r="D201" s="21"/>
+      <c r="E201" s="21"/>
+      <c r="F201" s="21"/>
+      <c r="G201" s="21"/>
     </row>
     <row r="202" spans="4:7">
-      <c r="D202" s="14"/>
-      <c r="E202" s="14"/>
-      <c r="F202" s="14"/>
-      <c r="G202" s="14"/>
+      <c r="D202" s="21"/>
+      <c r="E202" s="21"/>
+      <c r="F202" s="21"/>
+      <c r="G202" s="21"/>
     </row>
     <row r="203" spans="4:7">
-      <c r="D203" s="14"/>
-      <c r="E203" s="14"/>
-      <c r="F203" s="14"/>
-      <c r="G203" s="14"/>
+      <c r="D203" s="21"/>
+      <c r="E203" s="21"/>
+      <c r="F203" s="21"/>
+      <c r="G203" s="21"/>
     </row>
     <row r="204" spans="4:7">
-      <c r="D204" s="14"/>
-      <c r="E204" s="14"/>
-      <c r="F204" s="14"/>
-      <c r="G204" s="14"/>
+      <c r="D204" s="21"/>
+      <c r="E204" s="21"/>
+      <c r="F204" s="21"/>
+      <c r="G204" s="21"/>
     </row>
     <row r="205" spans="4:7">
-      <c r="D205" s="14"/>
-      <c r="E205" s="14"/>
-      <c r="F205" s="14"/>
-      <c r="G205" s="14"/>
+      <c r="D205" s="21"/>
+      <c r="E205" s="21"/>
+      <c r="F205" s="21"/>
+      <c r="G205" s="21"/>
     </row>
     <row r="206" spans="4:7">
-      <c r="D206" s="14"/>
-      <c r="E206" s="14"/>
-      <c r="F206" s="14"/>
-      <c r="G206" s="14"/>
+      <c r="D206" s="21"/>
+      <c r="E206" s="21"/>
+      <c r="F206" s="21"/>
+      <c r="G206" s="21"/>
     </row>
     <row r="207" spans="4:7">
-      <c r="D207" s="14"/>
-      <c r="E207" s="14"/>
-      <c r="F207" s="14"/>
-      <c r="G207" s="14"/>
+      <c r="D207" s="21"/>
+      <c r="E207" s="21"/>
+      <c r="F207" s="21"/>
+      <c r="G207" s="21"/>
     </row>
     <row r="208" spans="4:7">
-      <c r="D208" s="14"/>
-      <c r="E208" s="14"/>
-      <c r="F208" s="14"/>
-      <c r="G208" s="14"/>
+      <c r="D208" s="21"/>
+      <c r="E208" s="21"/>
+      <c r="F208" s="21"/>
+      <c r="G208" s="21"/>
     </row>
     <row r="209" spans="4:7">
-      <c r="D209" s="14"/>
-      <c r="E209" s="14"/>
-      <c r="F209" s="14"/>
-      <c r="G209" s="14"/>
+      <c r="D209" s="21"/>
+      <c r="E209" s="21"/>
+      <c r="F209" s="21"/>
+      <c r="G209" s="21"/>
     </row>
     <row r="210" spans="4:7">
-      <c r="D210" s="14"/>
-      <c r="E210" s="14"/>
-      <c r="F210" s="14"/>
-      <c r="G210" s="14"/>
+      <c r="D210" s="21"/>
+      <c r="E210" s="21"/>
+      <c r="F210" s="21"/>
+      <c r="G210" s="21"/>
     </row>
     <row r="211" spans="4:7">
-      <c r="D211" s="14"/>
-      <c r="E211" s="14"/>
-      <c r="F211" s="14"/>
-      <c r="G211" s="14"/>
+      <c r="D211" s="21"/>
+      <c r="E211" s="21"/>
+      <c r="F211" s="21"/>
+      <c r="G211" s="21"/>
     </row>
     <row r="212" spans="4:7">
-      <c r="D212" s="14"/>
-      <c r="E212" s="14"/>
-      <c r="F212" s="14"/>
-      <c r="G212" s="14"/>
+      <c r="D212" s="21"/>
+      <c r="E212" s="21"/>
+      <c r="F212" s="21"/>
+      <c r="G212" s="21"/>
     </row>
     <row r="213" spans="4:7">
-      <c r="D213" s="14"/>
-      <c r="E213" s="14"/>
-      <c r="F213" s="14"/>
-      <c r="G213" s="14"/>
+      <c r="D213" s="21"/>
+      <c r="E213" s="21"/>
+      <c r="F213" s="21"/>
+      <c r="G213" s="21"/>
     </row>
     <row r="214" spans="4:7">
-      <c r="D214" s="14"/>
-      <c r="E214" s="14"/>
-      <c r="F214" s="14"/>
-      <c r="G214" s="14"/>
+      <c r="D214" s="21"/>
+      <c r="E214" s="21"/>
+      <c r="F214" s="21"/>
+      <c r="G214" s="21"/>
     </row>
     <row r="215" spans="4:7">
-      <c r="D215" s="14"/>
-      <c r="E215" s="14"/>
-      <c r="F215" s="14"/>
-      <c r="G215" s="14"/>
+      <c r="D215" s="21"/>
+      <c r="E215" s="21"/>
+      <c r="F215" s="21"/>
+      <c r="G215" s="21"/>
     </row>
     <row r="216" spans="4:7">
-      <c r="D216" s="14"/>
-      <c r="E216" s="14"/>
-      <c r="F216" s="14"/>
-      <c r="G216" s="14"/>
+      <c r="D216" s="21"/>
+      <c r="E216" s="21"/>
+      <c r="F216" s="21"/>
+      <c r="G216" s="21"/>
     </row>
     <row r="217" spans="4:7">
-      <c r="D217" s="14"/>
-      <c r="E217" s="14"/>
-      <c r="F217" s="14"/>
-      <c r="G217" s="14"/>
+      <c r="D217" s="21"/>
+      <c r="E217" s="21"/>
+      <c r="F217" s="21"/>
+      <c r="G217" s="21"/>
     </row>
     <row r="218" spans="4:7">
-      <c r="D218" s="14"/>
-      <c r="E218" s="14"/>
-      <c r="F218" s="14"/>
-      <c r="G218" s="14"/>
+      <c r="D218" s="21"/>
+      <c r="E218" s="21"/>
+      <c r="F218" s="21"/>
+      <c r="G218" s="21"/>
     </row>
     <row r="219" spans="4:7">
-      <c r="D219" s="14"/>
-      <c r="E219" s="14"/>
-      <c r="F219" s="14"/>
-      <c r="G219" s="14"/>
+      <c r="D219" s="21"/>
+      <c r="E219" s="21"/>
+      <c r="F219" s="21"/>
+      <c r="G219" s="21"/>
     </row>
     <row r="220" spans="4:7">
-      <c r="D220" s="14"/>
-      <c r="E220" s="14"/>
-      <c r="F220" s="14"/>
-      <c r="G220" s="14"/>
+      <c r="D220" s="21"/>
+      <c r="E220" s="21"/>
+      <c r="F220" s="21"/>
+      <c r="G220" s="21"/>
     </row>
     <row r="221" spans="4:7">
-      <c r="D221" s="14"/>
-      <c r="E221" s="14"/>
-      <c r="F221" s="14"/>
-      <c r="G221" s="14"/>
+      <c r="D221" s="21"/>
+      <c r="E221" s="21"/>
+      <c r="F221" s="21"/>
+      <c r="G221" s="21"/>
     </row>
     <row r="222" spans="4:7">
-      <c r="D222" s="14"/>
-      <c r="E222" s="14"/>
-      <c r="F222" s="14"/>
-      <c r="G222" s="14"/>
+      <c r="D222" s="21"/>
+      <c r="E222" s="21"/>
+      <c r="F222" s="21"/>
+      <c r="G222" s="21"/>
     </row>
     <row r="223" spans="4:7">
-      <c r="D223" s="14"/>
-      <c r="E223" s="14"/>
-      <c r="F223" s="14"/>
-      <c r="G223" s="14"/>
+      <c r="D223" s="21"/>
+      <c r="E223" s="21"/>
+      <c r="F223" s="21"/>
+      <c r="G223" s="21"/>
     </row>
     <row r="224" spans="4:7">
-      <c r="D224" s="14"/>
-      <c r="E224" s="14"/>
-      <c r="F224" s="14"/>
-      <c r="G224" s="14"/>
+      <c r="D224" s="21"/>
+      <c r="E224" s="21"/>
+      <c r="F224" s="21"/>
+      <c r="G224" s="21"/>
     </row>
     <row r="225" spans="4:7">
-      <c r="D225" s="14"/>
-      <c r="E225" s="14"/>
-      <c r="F225" s="14"/>
-      <c r="G225" s="14"/>
+      <c r="D225" s="21"/>
+      <c r="E225" s="21"/>
+      <c r="F225" s="21"/>
+      <c r="G225" s="21"/>
     </row>
     <row r="226" spans="4:7">
-      <c r="D226" s="14"/>
-      <c r="E226" s="14"/>
-      <c r="F226" s="14"/>
-      <c r="G226" s="14"/>
+      <c r="D226" s="21"/>
+      <c r="E226" s="21"/>
+      <c r="F226" s="21"/>
+      <c r="G226" s="21"/>
     </row>
     <row r="227" spans="4:7">
-      <c r="D227" s="14"/>
-      <c r="E227" s="14"/>
-      <c r="F227" s="14"/>
-      <c r="G227" s="14"/>
+      <c r="D227" s="21"/>
+      <c r="E227" s="21"/>
+      <c r="F227" s="21"/>
+      <c r="G227" s="21"/>
     </row>
     <row r="228" spans="4:7">
-      <c r="D228" s="14"/>
-      <c r="E228" s="14"/>
-      <c r="F228" s="14"/>
-      <c r="G228" s="14"/>
+      <c r="D228" s="21"/>
+      <c r="E228" s="21"/>
+      <c r="F228" s="21"/>
+      <c r="G228" s="21"/>
     </row>
     <row r="229" spans="4:7">
-      <c r="D229" s="14"/>
-      <c r="E229" s="14"/>
-      <c r="F229" s="14"/>
-      <c r="G229" s="14"/>
+      <c r="D229" s="21"/>
+      <c r="E229" s="21"/>
+      <c r="F229" s="21"/>
+      <c r="G229" s="21"/>
     </row>
     <row r="230" spans="4:7">
-      <c r="D230" s="14"/>
-      <c r="E230" s="14"/>
-      <c r="F230" s="14"/>
-      <c r="G230" s="14"/>
+      <c r="D230" s="21"/>
+      <c r="E230" s="21"/>
+      <c r="F230" s="21"/>
+      <c r="G230" s="21"/>
     </row>
     <row r="231" spans="4:7">
-      <c r="D231" s="14"/>
-      <c r="E231" s="14"/>
-      <c r="F231" s="14"/>
-      <c r="G231" s="14"/>
+      <c r="D231" s="21"/>
+      <c r="E231" s="21"/>
+      <c r="F231" s="21"/>
+      <c r="G231" s="21"/>
     </row>
     <row r="232" spans="4:7">
-      <c r="D232" s="14"/>
-      <c r="E232" s="14"/>
-      <c r="F232" s="14"/>
-      <c r="G232" s="14"/>
+      <c r="D232" s="21"/>
+      <c r="E232" s="21"/>
+      <c r="F232" s="21"/>
+      <c r="G232" s="21"/>
     </row>
     <row r="233" spans="4:7">
-      <c r="D233" s="14"/>
-      <c r="E233" s="14"/>
-      <c r="F233" s="14"/>
-      <c r="G233" s="14"/>
+      <c r="D233" s="21"/>
+      <c r="E233" s="21"/>
+      <c r="F233" s="21"/>
+      <c r="G233" s="21"/>
     </row>
     <row r="234" spans="4:7">
-      <c r="D234" s="14"/>
-      <c r="E234" s="14"/>
-      <c r="F234" s="14"/>
-      <c r="G234" s="14"/>
+      <c r="D234" s="21"/>
+      <c r="E234" s="21"/>
+      <c r="F234" s="21"/>
+      <c r="G234" s="21"/>
     </row>
     <row r="235" spans="4:7">
-      <c r="D235" s="14"/>
-      <c r="E235" s="14"/>
-      <c r="F235" s="14"/>
-      <c r="G235" s="14"/>
+      <c r="D235" s="21"/>
+      <c r="E235" s="21"/>
+      <c r="F235" s="21"/>
+      <c r="G235" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Config/Datas/SwordSkillBase.xlsx
+++ b/Luban/Config/Datas/SwordSkillBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -316,6 +316,15 @@
   </si>
   <si>
     <t>近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0}</t>
+  </si>
+  <si>
+    <t>SwordType</t>
+  </si>
+  <si>
+    <t>0,3,1|10,3,1|20,3,1|0,3,1|20,3,1|40,3,1|50,3,1|0,3,1|0,3,1|60,3,1|0,3,1|100,3,1|0,3,1|0,3,1|200,3,1|199,3,1|20,3,1|50,3,1|50,3,1|100,3,1|0,3,1</t>
+  </si>
+  <si>
+    <t>5,-100,FALSE,0|5,-110,FALSE,0|5,-120,FALSE,0|5,-140,FALSE,0|5,-800,FALSE,0|5,-140,FALSE,0|5,-150,FALSE,0|5,-160,FALSE,0|5,-170,FALSE,0|5,-180,FALSE,0|5,-190,FALSE,0|5,-200,FALSE,0|5,-210,FALSE,0|5,-220,FALSE,0|5,-210,FALSE,0|5,-240,FALSE,0|5,-250,FALSE,0|5,-260,FALSE,0|5,-270,FALSE,0|5,-280,FALSE,0|5,-290,FALSE,0</t>
   </si>
 </sst>
 </file>
@@ -1498,21 +1507,21 @@
   <sheetPr/>
   <dimension ref="A1:AC235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.175" customWidth="1"/>
-    <col min="2" max="2" width="8.50833333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.3416666666667" customWidth="1"/>
-    <col min="4" max="4" width="10.675" customWidth="1"/>
-    <col min="5" max="5" width="40.625" customWidth="1"/>
-    <col min="6" max="6" width="12.0083333333333" customWidth="1"/>
-    <col min="7" max="8" width="40.625" customWidth="1"/>
-    <col min="9" max="9" width="14.5083333333333" customWidth="1"/>
-    <col min="10" max="11" width="40.625" customWidth="1"/>
+    <col min="1" max="1" width="9.17592592592593" customWidth="1"/>
+    <col min="2" max="2" width="8.50925925925926" customWidth="1"/>
+    <col min="3" max="3" width="10.3425925925926" customWidth="1"/>
+    <col min="4" max="4" width="10.6759259259259" customWidth="1"/>
+    <col min="5" max="5" width="40.6296296296296" customWidth="1"/>
+    <col min="6" max="6" width="12.0092592592593" customWidth="1"/>
+    <col min="7" max="8" width="40.6296296296296" customWidth="1"/>
+    <col min="9" max="9" width="14.5092592592593" customWidth="1"/>
+    <col min="10" max="11" width="40.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:29">
@@ -1874,7 +1883,7 @@
     <row r="11" ht="134" customHeight="1" spans="1:11">
       <c r="A11" s="15"/>
       <c r="B11" s="16">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="C11" s="16">
         <v>0</v>
@@ -1893,13 +1902,13 @@
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="18" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="4:7">

--- a/Luban/Config/Datas/SwordSkillBase.xlsx
+++ b/Luban/Config/Datas/SwordSkillBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
@@ -1153,38 +1153,32 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1507,21 +1501,21 @@
   <sheetPr/>
   <dimension ref="A1:AC235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.17592592592593" customWidth="1"/>
-    <col min="2" max="2" width="8.50925925925926" customWidth="1"/>
-    <col min="3" max="3" width="10.3425925925926" customWidth="1"/>
-    <col min="4" max="4" width="10.6759259259259" customWidth="1"/>
-    <col min="5" max="5" width="40.6296296296296" customWidth="1"/>
-    <col min="6" max="6" width="12.0092592592593" customWidth="1"/>
-    <col min="7" max="8" width="40.6296296296296" customWidth="1"/>
-    <col min="9" max="9" width="14.5092592592593" customWidth="1"/>
-    <col min="10" max="11" width="40.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="9.175" customWidth="1"/>
+    <col min="2" max="2" width="8.50833333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.3416666666667" customWidth="1"/>
+    <col min="4" max="4" width="10.675" customWidth="1"/>
+    <col min="5" max="5" width="40.6333333333333" customWidth="1"/>
+    <col min="6" max="6" width="12.0083333333333" customWidth="1"/>
+    <col min="7" max="8" width="40.6333333333333" customWidth="1"/>
+    <col min="9" max="9" width="14.5083333333333" customWidth="1"/>
+    <col min="10" max="11" width="40.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:29">
@@ -1577,7 +1571,7 @@
       <c r="AB1"/>
       <c r="AC1"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="35" customHeight="1" spans="1:29">
+    <row r="2" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:29">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -1683,7 +1677,7 @@
       <c r="AB3"/>
       <c r="AC3"/>
     </row>
-    <row r="4" ht="134" customHeight="1" spans="1:11">
+    <row r="4" ht="18.5" customHeight="1" spans="1:11">
       <c r="A4" s="9"/>
       <c r="B4" s="10">
         <v>1</v>
@@ -1706,11 +1700,11 @@
       <c r="H4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="19"/>
-    </row>
-    <row r="5" ht="134" customHeight="1" spans="1:11">
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" ht="18.5" customHeight="1" spans="1:11">
       <c r="A5" s="15"/>
       <c r="B5" s="16">
         <v>2</v>
@@ -1721,23 +1715,23 @@
       <c r="D5" s="16">
         <v>0</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-    </row>
-    <row r="6" ht="134" customHeight="1" spans="1:11">
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" ht="18.5" customHeight="1" spans="1:11">
       <c r="A6" s="15"/>
       <c r="B6" s="16">
         <v>3</v>
@@ -1748,23 +1742,23 @@
       <c r="D6" s="16">
         <v>0</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-    </row>
-    <row r="7" ht="134" customHeight="1" spans="1:11">
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" ht="18.5" customHeight="1" spans="1:11">
       <c r="A7" s="15"/>
       <c r="B7" s="16">
         <v>4</v>
@@ -1775,23 +1769,23 @@
       <c r="D7" s="16">
         <v>0</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-    </row>
-    <row r="8" ht="134" customHeight="1" spans="1:11">
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" ht="18.5" customHeight="1" spans="1:11">
       <c r="A8" s="15"/>
       <c r="B8" s="16">
         <v>5</v>
@@ -1802,23 +1796,23 @@
       <c r="D8" s="16">
         <v>0</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" ht="117.5" customHeight="1" spans="1:11">
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" ht="18.5" customHeight="1" spans="1:11">
       <c r="A9" s="15"/>
       <c r="B9" s="16">
         <v>101</v>
@@ -1829,27 +1823,27 @@
       <c r="D9" s="16">
         <v>1</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="18" t="s">
+      <c r="H9" s="14"/>
+      <c r="I9" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" ht="134" customHeight="1" spans="1:11">
+    <row r="10" ht="18.5" customHeight="1" spans="1:11">
       <c r="A10" s="15"/>
       <c r="B10" s="16">
         <v>201</v>
@@ -1860,27 +1854,27 @@
       <c r="D10" s="16">
         <v>2</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="18" t="s">
+      <c r="H10" s="14"/>
+      <c r="I10" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" ht="134" customHeight="1" spans="1:11">
+    <row r="11" ht="18.5" customHeight="1" spans="1:11">
       <c r="A11" s="15"/>
       <c r="B11" s="16">
         <v>301</v>
@@ -1891,1369 +1885,1369 @@
       <c r="D11" s="16">
         <v>2</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="18" t="s">
+      <c r="H11" s="14"/>
+      <c r="I11" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="4:7">
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="4:7">
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="4:7">
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="4:7">
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="4:7">
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="4:7">
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="4:7">
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="4:7">
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="4:7">
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="4:7">
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" spans="4:7">
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="4:7">
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" spans="4:7">
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" spans="4:7">
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" spans="4:7">
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" spans="4:7">
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" spans="4:7">
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="4:7">
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
     </row>
     <row r="30" spans="4:7">
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
     </row>
     <row r="31" spans="4:7">
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
     </row>
     <row r="32" spans="4:7">
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
     </row>
     <row r="33" spans="4:7">
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
     </row>
     <row r="34" spans="4:7">
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
     </row>
     <row r="35" spans="4:7">
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
     </row>
     <row r="36" spans="4:7">
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
     </row>
     <row r="37" spans="4:7">
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
     </row>
     <row r="38" spans="4:7">
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
     </row>
     <row r="39" spans="4:7">
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
     </row>
     <row r="40" spans="4:7">
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
     </row>
     <row r="41" spans="4:7">
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
     </row>
     <row r="42" spans="4:7">
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
     </row>
     <row r="43" spans="4:7">
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
     </row>
     <row r="44" spans="4:7">
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
     </row>
     <row r="45" spans="4:7">
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
     </row>
     <row r="46" spans="4:7">
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
     </row>
     <row r="47" spans="4:7">
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
     </row>
     <row r="48" spans="4:7">
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
     </row>
     <row r="49" spans="4:7">
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
     </row>
     <row r="50" spans="4:7">
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
     </row>
     <row r="51" spans="4:7">
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
     </row>
     <row r="52" spans="4:7">
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
     </row>
     <row r="53" spans="4:7">
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
     </row>
     <row r="54" spans="4:7">
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
     </row>
     <row r="55" spans="4:7">
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
     </row>
     <row r="56" spans="4:7">
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
     </row>
     <row r="57" spans="4:7">
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
     </row>
     <row r="58" spans="4:7">
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
     </row>
     <row r="59" spans="4:7">
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
     </row>
     <row r="60" spans="4:7">
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
     </row>
     <row r="61" spans="4:7">
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
     </row>
     <row r="62" spans="4:7">
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
     </row>
     <row r="63" spans="4:7">
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
     </row>
     <row r="64" spans="4:7">
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
     </row>
     <row r="65" spans="4:7">
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
     </row>
     <row r="66" spans="4:7">
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
     </row>
     <row r="67" spans="4:7">
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
     </row>
     <row r="68" spans="4:7">
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
     </row>
     <row r="69" spans="4:7">
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
     </row>
     <row r="70" spans="4:7">
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
     </row>
     <row r="71" spans="4:7">
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
     </row>
     <row r="72" spans="4:7">
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
     </row>
     <row r="73" spans="4:7">
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
     </row>
     <row r="74" spans="4:7">
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
     </row>
     <row r="75" spans="4:7">
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
     </row>
     <row r="76" spans="4:7">
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
     </row>
     <row r="77" spans="4:7">
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
     </row>
     <row r="78" spans="4:7">
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
     </row>
     <row r="79" spans="4:7">
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
     </row>
     <row r="80" spans="4:7">
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
     </row>
     <row r="81" spans="4:7">
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
     </row>
     <row r="82" spans="4:7">
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
     </row>
     <row r="83" spans="4:7">
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
     </row>
     <row r="84" spans="4:7">
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
     </row>
     <row r="85" spans="4:7">
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
     </row>
     <row r="86" spans="4:7">
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
     </row>
     <row r="87" spans="4:7">
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
     </row>
     <row r="88" spans="4:7">
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
     </row>
     <row r="89" spans="4:7">
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="21"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
     </row>
     <row r="90" spans="4:7">
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
     </row>
     <row r="91" spans="4:7">
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="21"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
     </row>
     <row r="92" spans="4:7">
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="21"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
     </row>
     <row r="93" spans="4:7">
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="21"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
     </row>
     <row r="94" spans="4:7">
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="21"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
     </row>
     <row r="95" spans="4:7">
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="21"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
     </row>
     <row r="96" spans="4:7">
-      <c r="D96" s="21"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="21"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
     </row>
     <row r="97" spans="4:7">
-      <c r="D97" s="21"/>
-      <c r="E97" s="21"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="21"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
     </row>
     <row r="98" spans="4:7">
-      <c r="D98" s="21"/>
-      <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="21"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
     </row>
     <row r="99" spans="4:7">
-      <c r="D99" s="21"/>
-      <c r="E99" s="21"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="21"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
     </row>
     <row r="100" spans="4:7">
-      <c r="D100" s="21"/>
-      <c r="E100" s="21"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="21"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
     </row>
     <row r="101" spans="4:7">
-      <c r="D101" s="21"/>
-      <c r="E101" s="21"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="21"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
     </row>
     <row r="102" spans="4:7">
-      <c r="D102" s="21"/>
-      <c r="E102" s="21"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="21"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
     </row>
     <row r="103" spans="4:7">
-      <c r="D103" s="21"/>
-      <c r="E103" s="21"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="21"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
     </row>
     <row r="104" spans="4:7">
-      <c r="D104" s="21"/>
-      <c r="E104" s="21"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="21"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
     </row>
     <row r="105" spans="4:7">
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="21"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
     </row>
     <row r="106" spans="4:7">
-      <c r="D106" s="21"/>
-      <c r="E106" s="21"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="21"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
     </row>
     <row r="107" spans="4:7">
-      <c r="D107" s="21"/>
-      <c r="E107" s="21"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="21"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
     </row>
     <row r="108" spans="4:7">
-      <c r="D108" s="21"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="21"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
     </row>
     <row r="109" spans="4:7">
-      <c r="D109" s="21"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="21"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
     </row>
     <row r="110" spans="4:7">
-      <c r="D110" s="21"/>
-      <c r="E110" s="21"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="21"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
     </row>
     <row r="111" spans="4:7">
-      <c r="D111" s="21"/>
-      <c r="E111" s="21"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="21"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
     </row>
     <row r="112" spans="4:7">
-      <c r="D112" s="21"/>
-      <c r="E112" s="21"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="21"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
     </row>
     <row r="113" spans="4:7">
-      <c r="D113" s="21"/>
-      <c r="E113" s="21"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="21"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
     </row>
     <row r="114" spans="4:7">
-      <c r="D114" s="21"/>
-      <c r="E114" s="21"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="21"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
     </row>
     <row r="115" spans="4:7">
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="21"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
     </row>
     <row r="116" spans="4:7">
-      <c r="D116" s="21"/>
-      <c r="E116" s="21"/>
-      <c r="F116" s="21"/>
-      <c r="G116" s="21"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
     </row>
     <row r="117" spans="4:7">
-      <c r="D117" s="21"/>
-      <c r="E117" s="21"/>
-      <c r="F117" s="21"/>
-      <c r="G117" s="21"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
     </row>
     <row r="118" spans="4:7">
-      <c r="D118" s="21"/>
-      <c r="E118" s="21"/>
-      <c r="F118" s="21"/>
-      <c r="G118" s="21"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
     </row>
     <row r="119" spans="4:7">
-      <c r="D119" s="21"/>
-      <c r="E119" s="21"/>
-      <c r="F119" s="21"/>
-      <c r="G119" s="21"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
     </row>
     <row r="120" spans="4:7">
-      <c r="D120" s="21"/>
-      <c r="E120" s="21"/>
-      <c r="F120" s="21"/>
-      <c r="G120" s="21"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
     </row>
     <row r="121" spans="4:7">
-      <c r="D121" s="21"/>
-      <c r="E121" s="21"/>
-      <c r="F121" s="21"/>
-      <c r="G121" s="21"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
     </row>
     <row r="122" spans="4:7">
-      <c r="D122" s="21"/>
-      <c r="E122" s="21"/>
-      <c r="F122" s="21"/>
-      <c r="G122" s="21"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
     </row>
     <row r="123" spans="4:7">
-      <c r="D123" s="21"/>
-      <c r="E123" s="21"/>
-      <c r="F123" s="21"/>
-      <c r="G123" s="21"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
     </row>
     <row r="124" spans="4:7">
-      <c r="D124" s="21"/>
-      <c r="E124" s="21"/>
-      <c r="F124" s="21"/>
-      <c r="G124" s="21"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
     </row>
     <row r="125" spans="4:7">
-      <c r="D125" s="21"/>
-      <c r="E125" s="21"/>
-      <c r="F125" s="21"/>
-      <c r="G125" s="21"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
     </row>
     <row r="126" spans="4:7">
-      <c r="D126" s="21"/>
-      <c r="E126" s="21"/>
-      <c r="F126" s="21"/>
-      <c r="G126" s="21"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
     </row>
     <row r="127" spans="4:7">
-      <c r="D127" s="21"/>
-      <c r="E127" s="21"/>
-      <c r="F127" s="21"/>
-      <c r="G127" s="21"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
     </row>
     <row r="128" spans="4:7">
-      <c r="D128" s="21"/>
-      <c r="E128" s="21"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="21"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
     </row>
     <row r="129" spans="4:7">
-      <c r="D129" s="21"/>
-      <c r="E129" s="21"/>
-      <c r="F129" s="21"/>
-      <c r="G129" s="21"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="17"/>
     </row>
     <row r="130" spans="4:7">
-      <c r="D130" s="21"/>
-      <c r="E130" s="21"/>
-      <c r="F130" s="21"/>
-      <c r="G130" s="21"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="17"/>
     </row>
     <row r="131" spans="4:7">
-      <c r="D131" s="21"/>
-      <c r="E131" s="21"/>
-      <c r="F131" s="21"/>
-      <c r="G131" s="21"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="17"/>
     </row>
     <row r="132" spans="4:7">
-      <c r="D132" s="21"/>
-      <c r="E132" s="21"/>
-      <c r="F132" s="21"/>
-      <c r="G132" s="21"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="17"/>
     </row>
     <row r="133" spans="4:7">
-      <c r="D133" s="21"/>
-      <c r="E133" s="21"/>
-      <c r="F133" s="21"/>
-      <c r="G133" s="21"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="17"/>
     </row>
     <row r="134" spans="4:7">
-      <c r="D134" s="21"/>
-      <c r="E134" s="21"/>
-      <c r="F134" s="21"/>
-      <c r="G134" s="21"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="17"/>
     </row>
     <row r="135" spans="4:7">
-      <c r="D135" s="21"/>
-      <c r="E135" s="21"/>
-      <c r="F135" s="21"/>
-      <c r="G135" s="21"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="17"/>
     </row>
     <row r="136" spans="4:7">
-      <c r="D136" s="21"/>
-      <c r="E136" s="21"/>
-      <c r="F136" s="21"/>
-      <c r="G136" s="21"/>
+      <c r="D136" s="17"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="17"/>
+      <c r="G136" s="17"/>
     </row>
     <row r="137" spans="4:7">
-      <c r="D137" s="21"/>
-      <c r="E137" s="21"/>
-      <c r="F137" s="21"/>
-      <c r="G137" s="21"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="17"/>
     </row>
     <row r="138" spans="4:7">
-      <c r="D138" s="21"/>
-      <c r="E138" s="21"/>
-      <c r="F138" s="21"/>
-      <c r="G138" s="21"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="17"/>
     </row>
     <row r="139" spans="4:7">
-      <c r="D139" s="21"/>
-      <c r="E139" s="21"/>
-      <c r="F139" s="21"/>
-      <c r="G139" s="21"/>
+      <c r="D139" s="17"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="17"/>
+      <c r="G139" s="17"/>
     </row>
     <row r="140" spans="4:7">
-      <c r="D140" s="21"/>
-      <c r="E140" s="21"/>
-      <c r="F140" s="21"/>
-      <c r="G140" s="21"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="17"/>
+      <c r="G140" s="17"/>
     </row>
     <row r="141" spans="4:7">
-      <c r="D141" s="21"/>
-      <c r="E141" s="21"/>
-      <c r="F141" s="21"/>
-      <c r="G141" s="21"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="17"/>
     </row>
     <row r="142" spans="4:7">
-      <c r="D142" s="21"/>
-      <c r="E142" s="21"/>
-      <c r="F142" s="21"/>
-      <c r="G142" s="21"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="17"/>
+      <c r="G142" s="17"/>
     </row>
     <row r="143" spans="4:7">
-      <c r="D143" s="21"/>
-      <c r="E143" s="21"/>
-      <c r="F143" s="21"/>
-      <c r="G143" s="21"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="17"/>
     </row>
     <row r="144" spans="4:7">
-      <c r="D144" s="21"/>
-      <c r="E144" s="21"/>
-      <c r="F144" s="21"/>
-      <c r="G144" s="21"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="17"/>
+      <c r="G144" s="17"/>
     </row>
     <row r="145" spans="4:7">
-      <c r="D145" s="21"/>
-      <c r="E145" s="21"/>
-      <c r="F145" s="21"/>
-      <c r="G145" s="21"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="17"/>
+      <c r="G145" s="17"/>
     </row>
     <row r="146" spans="4:7">
-      <c r="D146" s="21"/>
-      <c r="E146" s="21"/>
-      <c r="F146" s="21"/>
-      <c r="G146" s="21"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="17"/>
+      <c r="G146" s="17"/>
     </row>
     <row r="147" spans="4:7">
-      <c r="D147" s="21"/>
-      <c r="E147" s="21"/>
-      <c r="F147" s="21"/>
-      <c r="G147" s="21"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="17"/>
     </row>
     <row r="148" spans="4:7">
-      <c r="D148" s="21"/>
-      <c r="E148" s="21"/>
-      <c r="F148" s="21"/>
-      <c r="G148" s="21"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="17"/>
+      <c r="G148" s="17"/>
     </row>
     <row r="149" spans="4:7">
-      <c r="D149" s="21"/>
-      <c r="E149" s="21"/>
-      <c r="F149" s="21"/>
-      <c r="G149" s="21"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="17"/>
     </row>
     <row r="150" spans="4:7">
-      <c r="D150" s="21"/>
-      <c r="E150" s="21"/>
-      <c r="F150" s="21"/>
-      <c r="G150" s="21"/>
+      <c r="D150" s="17"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="17"/>
+      <c r="G150" s="17"/>
     </row>
     <row r="151" spans="4:7">
-      <c r="D151" s="21"/>
-      <c r="E151" s="21"/>
-      <c r="F151" s="21"/>
-      <c r="G151" s="21"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="17"/>
+      <c r="G151" s="17"/>
     </row>
     <row r="152" spans="4:7">
-      <c r="D152" s="21"/>
-      <c r="E152" s="21"/>
-      <c r="F152" s="21"/>
-      <c r="G152" s="21"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="17"/>
+      <c r="F152" s="17"/>
+      <c r="G152" s="17"/>
     </row>
     <row r="153" spans="4:7">
-      <c r="D153" s="21"/>
-      <c r="E153" s="21"/>
-      <c r="F153" s="21"/>
-      <c r="G153" s="21"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="17"/>
+      <c r="G153" s="17"/>
     </row>
     <row r="154" spans="4:7">
-      <c r="D154" s="21"/>
-      <c r="E154" s="21"/>
-      <c r="F154" s="21"/>
-      <c r="G154" s="21"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="17"/>
+      <c r="G154" s="17"/>
     </row>
     <row r="155" spans="4:7">
-      <c r="D155" s="21"/>
-      <c r="E155" s="21"/>
-      <c r="F155" s="21"/>
-      <c r="G155" s="21"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="17"/>
+      <c r="G155" s="17"/>
     </row>
     <row r="156" spans="4:7">
-      <c r="D156" s="21"/>
-      <c r="E156" s="21"/>
-      <c r="F156" s="21"/>
-      <c r="G156" s="21"/>
+      <c r="D156" s="17"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="17"/>
+      <c r="G156" s="17"/>
     </row>
     <row r="157" spans="4:7">
-      <c r="D157" s="21"/>
-      <c r="E157" s="21"/>
-      <c r="F157" s="21"/>
-      <c r="G157" s="21"/>
+      <c r="D157" s="17"/>
+      <c r="E157" s="17"/>
+      <c r="F157" s="17"/>
+      <c r="G157" s="17"/>
     </row>
     <row r="158" spans="4:7">
-      <c r="D158" s="21"/>
-      <c r="E158" s="21"/>
-      <c r="F158" s="21"/>
-      <c r="G158" s="21"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="17"/>
+      <c r="G158" s="17"/>
     </row>
     <row r="159" spans="4:7">
-      <c r="D159" s="21"/>
-      <c r="E159" s="21"/>
-      <c r="F159" s="21"/>
-      <c r="G159" s="21"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="17"/>
+      <c r="G159" s="17"/>
     </row>
     <row r="160" spans="4:7">
-      <c r="D160" s="21"/>
-      <c r="E160" s="21"/>
-      <c r="F160" s="21"/>
-      <c r="G160" s="21"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="17"/>
+      <c r="G160" s="17"/>
     </row>
     <row r="161" spans="4:7">
-      <c r="D161" s="21"/>
-      <c r="E161" s="21"/>
-      <c r="F161" s="21"/>
-      <c r="G161" s="21"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="17"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="17"/>
     </row>
     <row r="162" spans="4:7">
-      <c r="D162" s="21"/>
-      <c r="E162" s="21"/>
-      <c r="F162" s="21"/>
-      <c r="G162" s="21"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="17"/>
+      <c r="G162" s="17"/>
     </row>
     <row r="163" spans="4:7">
-      <c r="D163" s="21"/>
-      <c r="E163" s="21"/>
-      <c r="F163" s="21"/>
-      <c r="G163" s="21"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="17"/>
     </row>
     <row r="164" spans="4:7">
-      <c r="D164" s="21"/>
-      <c r="E164" s="21"/>
-      <c r="F164" s="21"/>
-      <c r="G164" s="21"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="17"/>
     </row>
     <row r="165" spans="4:7">
-      <c r="D165" s="21"/>
-      <c r="E165" s="21"/>
-      <c r="F165" s="21"/>
-      <c r="G165" s="21"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="17"/>
     </row>
     <row r="166" spans="4:7">
-      <c r="D166" s="21"/>
-      <c r="E166" s="21"/>
-      <c r="F166" s="21"/>
-      <c r="G166" s="21"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="17"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="17"/>
     </row>
     <row r="167" spans="4:7">
-      <c r="D167" s="21"/>
-      <c r="E167" s="21"/>
-      <c r="F167" s="21"/>
-      <c r="G167" s="21"/>
+      <c r="D167" s="17"/>
+      <c r="E167" s="17"/>
+      <c r="F167" s="17"/>
+      <c r="G167" s="17"/>
     </row>
     <row r="168" spans="4:7">
-      <c r="D168" s="21"/>
-      <c r="E168" s="21"/>
-      <c r="F168" s="21"/>
-      <c r="G168" s="21"/>
+      <c r="D168" s="17"/>
+      <c r="E168" s="17"/>
+      <c r="F168" s="17"/>
+      <c r="G168" s="17"/>
     </row>
     <row r="169" spans="4:7">
-      <c r="D169" s="21"/>
-      <c r="E169" s="21"/>
-      <c r="F169" s="21"/>
-      <c r="G169" s="21"/>
+      <c r="D169" s="17"/>
+      <c r="E169" s="17"/>
+      <c r="F169" s="17"/>
+      <c r="G169" s="17"/>
     </row>
     <row r="170" spans="4:7">
-      <c r="D170" s="21"/>
-      <c r="E170" s="21"/>
-      <c r="F170" s="21"/>
-      <c r="G170" s="21"/>
+      <c r="D170" s="17"/>
+      <c r="E170" s="17"/>
+      <c r="F170" s="17"/>
+      <c r="G170" s="17"/>
     </row>
     <row r="171" spans="4:7">
-      <c r="D171" s="21"/>
-      <c r="E171" s="21"/>
-      <c r="F171" s="21"/>
-      <c r="G171" s="21"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="17"/>
+      <c r="F171" s="17"/>
+      <c r="G171" s="17"/>
     </row>
     <row r="172" spans="4:7">
-      <c r="D172" s="21"/>
-      <c r="E172" s="21"/>
-      <c r="F172" s="21"/>
-      <c r="G172" s="21"/>
+      <c r="D172" s="17"/>
+      <c r="E172" s="17"/>
+      <c r="F172" s="17"/>
+      <c r="G172" s="17"/>
     </row>
     <row r="173" spans="4:7">
-      <c r="D173" s="21"/>
-      <c r="E173" s="21"/>
-      <c r="F173" s="21"/>
-      <c r="G173" s="21"/>
+      <c r="D173" s="17"/>
+      <c r="E173" s="17"/>
+      <c r="F173" s="17"/>
+      <c r="G173" s="17"/>
     </row>
     <row r="174" spans="4:7">
-      <c r="D174" s="21"/>
-      <c r="E174" s="21"/>
-      <c r="F174" s="21"/>
-      <c r="G174" s="21"/>
+      <c r="D174" s="17"/>
+      <c r="E174" s="17"/>
+      <c r="F174" s="17"/>
+      <c r="G174" s="17"/>
     </row>
     <row r="175" spans="4:7">
-      <c r="D175" s="21"/>
-      <c r="E175" s="21"/>
-      <c r="F175" s="21"/>
-      <c r="G175" s="21"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="17"/>
+      <c r="F175" s="17"/>
+      <c r="G175" s="17"/>
     </row>
     <row r="176" spans="4:7">
-      <c r="D176" s="21"/>
-      <c r="E176" s="21"/>
-      <c r="F176" s="21"/>
-      <c r="G176" s="21"/>
+      <c r="D176" s="17"/>
+      <c r="E176" s="17"/>
+      <c r="F176" s="17"/>
+      <c r="G176" s="17"/>
     </row>
     <row r="177" spans="4:7">
-      <c r="D177" s="21"/>
-      <c r="E177" s="21"/>
-      <c r="F177" s="21"/>
-      <c r="G177" s="21"/>
+      <c r="D177" s="17"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="17"/>
     </row>
     <row r="178" spans="4:7">
-      <c r="D178" s="21"/>
-      <c r="E178" s="21"/>
-      <c r="F178" s="21"/>
-      <c r="G178" s="21"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="17"/>
     </row>
     <row r="179" spans="4:7">
-      <c r="D179" s="21"/>
-      <c r="E179" s="21"/>
-      <c r="F179" s="21"/>
-      <c r="G179" s="21"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="17"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="17"/>
     </row>
     <row r="180" spans="4:7">
-      <c r="D180" s="21"/>
-      <c r="E180" s="21"/>
-      <c r="F180" s="21"/>
-      <c r="G180" s="21"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="17"/>
+      <c r="F180" s="17"/>
+      <c r="G180" s="17"/>
     </row>
     <row r="181" spans="4:7">
-      <c r="D181" s="21"/>
-      <c r="E181" s="21"/>
-      <c r="F181" s="21"/>
-      <c r="G181" s="21"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="17"/>
+      <c r="F181" s="17"/>
+      <c r="G181" s="17"/>
     </row>
     <row r="182" spans="4:7">
-      <c r="D182" s="21"/>
-      <c r="E182" s="21"/>
-      <c r="F182" s="21"/>
-      <c r="G182" s="21"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="17"/>
+      <c r="F182" s="17"/>
+      <c r="G182" s="17"/>
     </row>
     <row r="183" spans="4:7">
-      <c r="D183" s="21"/>
-      <c r="E183" s="21"/>
-      <c r="F183" s="21"/>
-      <c r="G183" s="21"/>
+      <c r="D183" s="17"/>
+      <c r="E183" s="17"/>
+      <c r="F183" s="17"/>
+      <c r="G183" s="17"/>
     </row>
     <row r="184" spans="4:7">
-      <c r="D184" s="21"/>
-      <c r="E184" s="21"/>
-      <c r="F184" s="21"/>
-      <c r="G184" s="21"/>
+      <c r="D184" s="17"/>
+      <c r="E184" s="17"/>
+      <c r="F184" s="17"/>
+      <c r="G184" s="17"/>
     </row>
     <row r="185" spans="4:7">
-      <c r="D185" s="21"/>
-      <c r="E185" s="21"/>
-      <c r="F185" s="21"/>
-      <c r="G185" s="21"/>
+      <c r="D185" s="17"/>
+      <c r="E185" s="17"/>
+      <c r="F185" s="17"/>
+      <c r="G185" s="17"/>
     </row>
     <row r="186" spans="4:7">
-      <c r="D186" s="21"/>
-      <c r="E186" s="21"/>
-      <c r="F186" s="21"/>
-      <c r="G186" s="21"/>
+      <c r="D186" s="17"/>
+      <c r="E186" s="17"/>
+      <c r="F186" s="17"/>
+      <c r="G186" s="17"/>
     </row>
     <row r="187" spans="4:7">
-      <c r="D187" s="21"/>
-      <c r="E187" s="21"/>
-      <c r="F187" s="21"/>
-      <c r="G187" s="21"/>
+      <c r="D187" s="17"/>
+      <c r="E187" s="17"/>
+      <c r="F187" s="17"/>
+      <c r="G187" s="17"/>
     </row>
     <row r="188" spans="4:7">
-      <c r="D188" s="21"/>
-      <c r="E188" s="21"/>
-      <c r="F188" s="21"/>
-      <c r="G188" s="21"/>
+      <c r="D188" s="17"/>
+      <c r="E188" s="17"/>
+      <c r="F188" s="17"/>
+      <c r="G188" s="17"/>
     </row>
     <row r="189" spans="4:7">
-      <c r="D189" s="21"/>
-      <c r="E189" s="21"/>
-      <c r="F189" s="21"/>
-      <c r="G189" s="21"/>
+      <c r="D189" s="17"/>
+      <c r="E189" s="17"/>
+      <c r="F189" s="17"/>
+      <c r="G189" s="17"/>
     </row>
     <row r="190" spans="4:7">
-      <c r="D190" s="21"/>
-      <c r="E190" s="21"/>
-      <c r="F190" s="21"/>
-      <c r="G190" s="21"/>
+      <c r="D190" s="17"/>
+      <c r="E190" s="17"/>
+      <c r="F190" s="17"/>
+      <c r="G190" s="17"/>
     </row>
     <row r="191" spans="4:7">
-      <c r="D191" s="21"/>
-      <c r="E191" s="21"/>
-      <c r="F191" s="21"/>
-      <c r="G191" s="21"/>
+      <c r="D191" s="17"/>
+      <c r="E191" s="17"/>
+      <c r="F191" s="17"/>
+      <c r="G191" s="17"/>
     </row>
     <row r="192" spans="4:7">
-      <c r="D192" s="21"/>
-      <c r="E192" s="21"/>
-      <c r="F192" s="21"/>
-      <c r="G192" s="21"/>
+      <c r="D192" s="17"/>
+      <c r="E192" s="17"/>
+      <c r="F192" s="17"/>
+      <c r="G192" s="17"/>
     </row>
     <row r="193" spans="4:7">
-      <c r="D193" s="21"/>
-      <c r="E193" s="21"/>
-      <c r="F193" s="21"/>
-      <c r="G193" s="21"/>
+      <c r="D193" s="17"/>
+      <c r="E193" s="17"/>
+      <c r="F193" s="17"/>
+      <c r="G193" s="17"/>
     </row>
     <row r="194" spans="4:7">
-      <c r="D194" s="21"/>
-      <c r="E194" s="21"/>
-      <c r="F194" s="21"/>
-      <c r="G194" s="21"/>
+      <c r="D194" s="17"/>
+      <c r="E194" s="17"/>
+      <c r="F194" s="17"/>
+      <c r="G194" s="17"/>
     </row>
     <row r="195" spans="4:7">
-      <c r="D195" s="21"/>
-      <c r="E195" s="21"/>
-      <c r="F195" s="21"/>
-      <c r="G195" s="21"/>
+      <c r="D195" s="17"/>
+      <c r="E195" s="17"/>
+      <c r="F195" s="17"/>
+      <c r="G195" s="17"/>
     </row>
     <row r="196" spans="4:7">
-      <c r="D196" s="21"/>
-      <c r="E196" s="21"/>
-      <c r="F196" s="21"/>
-      <c r="G196" s="21"/>
+      <c r="D196" s="17"/>
+      <c r="E196" s="17"/>
+      <c r="F196" s="17"/>
+      <c r="G196" s="17"/>
     </row>
     <row r="197" spans="4:7">
-      <c r="D197" s="21"/>
-      <c r="E197" s="21"/>
-      <c r="F197" s="21"/>
-      <c r="G197" s="21"/>
+      <c r="D197" s="17"/>
+      <c r="E197" s="17"/>
+      <c r="F197" s="17"/>
+      <c r="G197" s="17"/>
     </row>
     <row r="198" spans="4:7">
-      <c r="D198" s="21"/>
-      <c r="E198" s="21"/>
-      <c r="F198" s="21"/>
-      <c r="G198" s="21"/>
+      <c r="D198" s="17"/>
+      <c r="E198" s="17"/>
+      <c r="F198" s="17"/>
+      <c r="G198" s="17"/>
     </row>
     <row r="199" spans="4:7">
-      <c r="D199" s="21"/>
-      <c r="E199" s="21"/>
-      <c r="F199" s="21"/>
-      <c r="G199" s="21"/>
+      <c r="D199" s="17"/>
+      <c r="E199" s="17"/>
+      <c r="F199" s="17"/>
+      <c r="G199" s="17"/>
     </row>
     <row r="200" spans="4:7">
-      <c r="D200" s="21"/>
-      <c r="E200" s="21"/>
-      <c r="F200" s="21"/>
-      <c r="G200" s="21"/>
+      <c r="D200" s="17"/>
+      <c r="E200" s="17"/>
+      <c r="F200" s="17"/>
+      <c r="G200" s="17"/>
     </row>
     <row r="201" spans="4:7">
-      <c r="D201" s="21"/>
-      <c r="E201" s="21"/>
-      <c r="F201" s="21"/>
-      <c r="G201" s="21"/>
+      <c r="D201" s="17"/>
+      <c r="E201" s="17"/>
+      <c r="F201" s="17"/>
+      <c r="G201" s="17"/>
     </row>
     <row r="202" spans="4:7">
-      <c r="D202" s="21"/>
-      <c r="E202" s="21"/>
-      <c r="F202" s="21"/>
-      <c r="G202" s="21"/>
+      <c r="D202" s="17"/>
+      <c r="E202" s="17"/>
+      <c r="F202" s="17"/>
+      <c r="G202" s="17"/>
     </row>
     <row r="203" spans="4:7">
-      <c r="D203" s="21"/>
-      <c r="E203" s="21"/>
-      <c r="F203" s="21"/>
-      <c r="G203" s="21"/>
+      <c r="D203" s="17"/>
+      <c r="E203" s="17"/>
+      <c r="F203" s="17"/>
+      <c r="G203" s="17"/>
     </row>
     <row r="204" spans="4:7">
-      <c r="D204" s="21"/>
-      <c r="E204" s="21"/>
-      <c r="F204" s="21"/>
-      <c r="G204" s="21"/>
+      <c r="D204" s="17"/>
+      <c r="E204" s="17"/>
+      <c r="F204" s="17"/>
+      <c r="G204" s="17"/>
     </row>
     <row r="205" spans="4:7">
-      <c r="D205" s="21"/>
-      <c r="E205" s="21"/>
-      <c r="F205" s="21"/>
-      <c r="G205" s="21"/>
+      <c r="D205" s="17"/>
+      <c r="E205" s="17"/>
+      <c r="F205" s="17"/>
+      <c r="G205" s="17"/>
     </row>
     <row r="206" spans="4:7">
-      <c r="D206" s="21"/>
-      <c r="E206" s="21"/>
-      <c r="F206" s="21"/>
-      <c r="G206" s="21"/>
+      <c r="D206" s="17"/>
+      <c r="E206" s="17"/>
+      <c r="F206" s="17"/>
+      <c r="G206" s="17"/>
     </row>
     <row r="207" spans="4:7">
-      <c r="D207" s="21"/>
-      <c r="E207" s="21"/>
-      <c r="F207" s="21"/>
-      <c r="G207" s="21"/>
+      <c r="D207" s="17"/>
+      <c r="E207" s="17"/>
+      <c r="F207" s="17"/>
+      <c r="G207" s="17"/>
     </row>
     <row r="208" spans="4:7">
-      <c r="D208" s="21"/>
-      <c r="E208" s="21"/>
-      <c r="F208" s="21"/>
-      <c r="G208" s="21"/>
+      <c r="D208" s="17"/>
+      <c r="E208" s="17"/>
+      <c r="F208" s="17"/>
+      <c r="G208" s="17"/>
     </row>
     <row r="209" spans="4:7">
-      <c r="D209" s="21"/>
-      <c r="E209" s="21"/>
-      <c r="F209" s="21"/>
-      <c r="G209" s="21"/>
+      <c r="D209" s="17"/>
+      <c r="E209" s="17"/>
+      <c r="F209" s="17"/>
+      <c r="G209" s="17"/>
     </row>
     <row r="210" spans="4:7">
-      <c r="D210" s="21"/>
-      <c r="E210" s="21"/>
-      <c r="F210" s="21"/>
-      <c r="G210" s="21"/>
+      <c r="D210" s="17"/>
+      <c r="E210" s="17"/>
+      <c r="F210" s="17"/>
+      <c r="G210" s="17"/>
     </row>
     <row r="211" spans="4:7">
-      <c r="D211" s="21"/>
-      <c r="E211" s="21"/>
-      <c r="F211" s="21"/>
-      <c r="G211" s="21"/>
+      <c r="D211" s="17"/>
+      <c r="E211" s="17"/>
+      <c r="F211" s="17"/>
+      <c r="G211" s="17"/>
     </row>
     <row r="212" spans="4:7">
-      <c r="D212" s="21"/>
-      <c r="E212" s="21"/>
-      <c r="F212" s="21"/>
-      <c r="G212" s="21"/>
+      <c r="D212" s="17"/>
+      <c r="E212" s="17"/>
+      <c r="F212" s="17"/>
+      <c r="G212" s="17"/>
     </row>
     <row r="213" spans="4:7">
-      <c r="D213" s="21"/>
-      <c r="E213" s="21"/>
-      <c r="F213" s="21"/>
-      <c r="G213" s="21"/>
+      <c r="D213" s="17"/>
+      <c r="E213" s="17"/>
+      <c r="F213" s="17"/>
+      <c r="G213" s="17"/>
     </row>
     <row r="214" spans="4:7">
-      <c r="D214" s="21"/>
-      <c r="E214" s="21"/>
-      <c r="F214" s="21"/>
-      <c r="G214" s="21"/>
+      <c r="D214" s="17"/>
+      <c r="E214" s="17"/>
+      <c r="F214" s="17"/>
+      <c r="G214" s="17"/>
     </row>
     <row r="215" spans="4:7">
-      <c r="D215" s="21"/>
-      <c r="E215" s="21"/>
-      <c r="F215" s="21"/>
-      <c r="G215" s="21"/>
+      <c r="D215" s="17"/>
+      <c r="E215" s="17"/>
+      <c r="F215" s="17"/>
+      <c r="G215" s="17"/>
     </row>
     <row r="216" spans="4:7">
-      <c r="D216" s="21"/>
-      <c r="E216" s="21"/>
-      <c r="F216" s="21"/>
-      <c r="G216" s="21"/>
+      <c r="D216" s="17"/>
+      <c r="E216" s="17"/>
+      <c r="F216" s="17"/>
+      <c r="G216" s="17"/>
     </row>
     <row r="217" spans="4:7">
-      <c r="D217" s="21"/>
-      <c r="E217" s="21"/>
-      <c r="F217" s="21"/>
-      <c r="G217" s="21"/>
+      <c r="D217" s="17"/>
+      <c r="E217" s="17"/>
+      <c r="F217" s="17"/>
+      <c r="G217" s="17"/>
     </row>
     <row r="218" spans="4:7">
-      <c r="D218" s="21"/>
-      <c r="E218" s="21"/>
-      <c r="F218" s="21"/>
-      <c r="G218" s="21"/>
+      <c r="D218" s="17"/>
+      <c r="E218" s="17"/>
+      <c r="F218" s="17"/>
+      <c r="G218" s="17"/>
     </row>
     <row r="219" spans="4:7">
-      <c r="D219" s="21"/>
-      <c r="E219" s="21"/>
-      <c r="F219" s="21"/>
-      <c r="G219" s="21"/>
+      <c r="D219" s="17"/>
+      <c r="E219" s="17"/>
+      <c r="F219" s="17"/>
+      <c r="G219" s="17"/>
     </row>
     <row r="220" spans="4:7">
-      <c r="D220" s="21"/>
-      <c r="E220" s="21"/>
-      <c r="F220" s="21"/>
-      <c r="G220" s="21"/>
+      <c r="D220" s="17"/>
+      <c r="E220" s="17"/>
+      <c r="F220" s="17"/>
+      <c r="G220" s="17"/>
     </row>
     <row r="221" spans="4:7">
-      <c r="D221" s="21"/>
-      <c r="E221" s="21"/>
-      <c r="F221" s="21"/>
-      <c r="G221" s="21"/>
+      <c r="D221" s="17"/>
+      <c r="E221" s="17"/>
+      <c r="F221" s="17"/>
+      <c r="G221" s="17"/>
     </row>
     <row r="222" spans="4:7">
-      <c r="D222" s="21"/>
-      <c r="E222" s="21"/>
-      <c r="F222" s="21"/>
-      <c r="G222" s="21"/>
+      <c r="D222" s="17"/>
+      <c r="E222" s="17"/>
+      <c r="F222" s="17"/>
+      <c r="G222" s="17"/>
     </row>
     <row r="223" spans="4:7">
-      <c r="D223" s="21"/>
-      <c r="E223" s="21"/>
-      <c r="F223" s="21"/>
-      <c r="G223" s="21"/>
+      <c r="D223" s="17"/>
+      <c r="E223" s="17"/>
+      <c r="F223" s="17"/>
+      <c r="G223" s="17"/>
     </row>
     <row r="224" spans="4:7">
-      <c r="D224" s="21"/>
-      <c r="E224" s="21"/>
-      <c r="F224" s="21"/>
-      <c r="G224" s="21"/>
+      <c r="D224" s="17"/>
+      <c r="E224" s="17"/>
+      <c r="F224" s="17"/>
+      <c r="G224" s="17"/>
     </row>
     <row r="225" spans="4:7">
-      <c r="D225" s="21"/>
-      <c r="E225" s="21"/>
-      <c r="F225" s="21"/>
-      <c r="G225" s="21"/>
+      <c r="D225" s="17"/>
+      <c r="E225" s="17"/>
+      <c r="F225" s="17"/>
+      <c r="G225" s="17"/>
     </row>
     <row r="226" spans="4:7">
-      <c r="D226" s="21"/>
-      <c r="E226" s="21"/>
-      <c r="F226" s="21"/>
-      <c r="G226" s="21"/>
+      <c r="D226" s="17"/>
+      <c r="E226" s="17"/>
+      <c r="F226" s="17"/>
+      <c r="G226" s="17"/>
     </row>
     <row r="227" spans="4:7">
-      <c r="D227" s="21"/>
-      <c r="E227" s="21"/>
-      <c r="F227" s="21"/>
-      <c r="G227" s="21"/>
+      <c r="D227" s="17"/>
+      <c r="E227" s="17"/>
+      <c r="F227" s="17"/>
+      <c r="G227" s="17"/>
     </row>
     <row r="228" spans="4:7">
-      <c r="D228" s="21"/>
-      <c r="E228" s="21"/>
-      <c r="F228" s="21"/>
-      <c r="G228" s="21"/>
+      <c r="D228" s="17"/>
+      <c r="E228" s="17"/>
+      <c r="F228" s="17"/>
+      <c r="G228" s="17"/>
     </row>
     <row r="229" spans="4:7">
-      <c r="D229" s="21"/>
-      <c r="E229" s="21"/>
-      <c r="F229" s="21"/>
-      <c r="G229" s="21"/>
+      <c r="D229" s="17"/>
+      <c r="E229" s="17"/>
+      <c r="F229" s="17"/>
+      <c r="G229" s="17"/>
     </row>
     <row r="230" spans="4:7">
-      <c r="D230" s="21"/>
-      <c r="E230" s="21"/>
-      <c r="F230" s="21"/>
-      <c r="G230" s="21"/>
+      <c r="D230" s="17"/>
+      <c r="E230" s="17"/>
+      <c r="F230" s="17"/>
+      <c r="G230" s="17"/>
     </row>
     <row r="231" spans="4:7">
-      <c r="D231" s="21"/>
-      <c r="E231" s="21"/>
-      <c r="F231" s="21"/>
-      <c r="G231" s="21"/>
+      <c r="D231" s="17"/>
+      <c r="E231" s="17"/>
+      <c r="F231" s="17"/>
+      <c r="G231" s="17"/>
     </row>
     <row r="232" spans="4:7">
-      <c r="D232" s="21"/>
-      <c r="E232" s="21"/>
-      <c r="F232" s="21"/>
-      <c r="G232" s="21"/>
+      <c r="D232" s="17"/>
+      <c r="E232" s="17"/>
+      <c r="F232" s="17"/>
+      <c r="G232" s="17"/>
     </row>
     <row r="233" spans="4:7">
-      <c r="D233" s="21"/>
-      <c r="E233" s="21"/>
-      <c r="F233" s="21"/>
-      <c r="G233" s="21"/>
+      <c r="D233" s="17"/>
+      <c r="E233" s="17"/>
+      <c r="F233" s="17"/>
+      <c r="G233" s="17"/>
     </row>
     <row r="234" spans="4:7">
-      <c r="D234" s="21"/>
-      <c r="E234" s="21"/>
-      <c r="F234" s="21"/>
-      <c r="G234" s="21"/>
+      <c r="D234" s="17"/>
+      <c r="E234" s="17"/>
+      <c r="F234" s="17"/>
+      <c r="G234" s="17"/>
     </row>
     <row r="235" spans="4:7">
-      <c r="D235" s="21"/>
-      <c r="E235" s="21"/>
-      <c r="F235" s="21"/>
-      <c r="G235" s="21"/>
+      <c r="D235" s="17"/>
+      <c r="E235" s="17"/>
+      <c r="F235" s="17"/>
+      <c r="G235" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Config/Datas/SwordSkillBase.xlsx
+++ b/Luban/Config/Datas/SwordSkillBase.xlsx
@@ -85,8 +85,9 @@
           </rPr>
           <t xml:space="preserve">
 第一个表示MP消耗
-第二个表示目标范围
-第三个表示持续回合</t>
+第二个表示目标方向
+第三个表示范围
+第四个表示持续回合</t>
         </r>
       </text>
     </comment>
@@ -285,7 +286,7 @@
     <t>Close_Combat</t>
   </si>
   <si>
-    <t>0,1,1|10,1,1|20,1,1|0,1,1|20,1,1|40,1,1|50,1,1|0,1,1|0,1,1|60,1,1|0,1,1|100,1,1|0,1,1|0,1,1|200,1,1|199,1,1|20,3,1|50,3,1|50,3,1|100,3,1|0,3,1</t>
+    <t>0,3,1,1|10,3,1,1|20,3,1,1|0,3,1,1|20,3,1,1|40,3,1,1|50,3,1,1|0,3,1,1|0,3,1,1|60,3,1,1|0,3,1,1|100,3,1,1|0,3,1,1|0,3,1,1|200,3,1,1|199,3,1,1|20,3,1,1|50,3,4,1|50,3,4,1|100,3,4,1|0,3,4,1</t>
   </si>
   <si>
     <t>3,100,FALSE,0|3,110,FALSE,0|3,120,FALSE,0|3,130,FALSE,0|3,100,FALSE,0|3,140,FALSE,0|3,150,FALSE,0|3,160,FALSE,0|3,170,FALSE,0|3,180,FALSE,0|3,190,FALSE,0|3,200,FALSE,0|3,210,FALSE,0|3,220,FALSE,0|3,230,FALSE,0|3,240,FALSE,0|3,250,FALSE,0|3,260,FALSE,0|3,270,FALSE,0|3,280,FALSE,0|3,290,FALSE,0</t>
@@ -303,7 +304,7 @@
     <t>SUBSIDIARY</t>
   </si>
   <si>
-    <t>0,5,1|10,5,1|20,5,1|0,5,1|20,5,1|40,5,1|50,5,1|0,5,1|0,5,1|60,5,1|0,5,1|100,5,1|0,5,1|0,5,1|200,5,1|199,5,1|20,5,1|50,5,1|50,5,1|100,5,1|0,5,1</t>
+    <t>0,2,3,1|10,2,3,1|20,2,3,1|0,2,3,1|20,2,3,1|40,2,3,1|50,2,3,1|0,2,3,1|0,2,3,1|60,2,3,1|0,2,3,1|100,2,3,1|0,2,3,1|0,2,3,1|200,2,3,1|199,2,3,1|20,2,3,1|50,2,3,1|50,2,3,1|100,2,3,1|0,2,3,1</t>
   </si>
   <si>
     <t>1,100,FALSE,4|1,110,FALSE,4|1,120,FALSE,4|1,110,FALSE,4|1,100,FALSE,4|1,140,FALSE,4|1,150,FALSE,4|1,160,FALSE,4|1,170,FALSE,4|1,180,FALSE,4|1,190,FALSE,4|1,200,FALSE,4|1,210,FALSE,4|1,220,FALSE,4|1,210,FALSE,4|1,240,FALSE,4|1,250,FALSE,4|1,260,FALSE,4|1,270,FALSE,4|1,280,FALSE,4|1,290,FALSE,4</t>
@@ -321,7 +322,7 @@
     <t>SwordType</t>
   </si>
   <si>
-    <t>0,3,1|10,3,1|20,3,1|0,3,1|20,3,1|40,3,1|50,3,1|0,3,1|0,3,1|60,3,1|0,3,1|100,3,1|0,3,1|0,3,1|200,3,1|199,3,1|20,3,1|50,3,1|50,3,1|100,3,1|0,3,1</t>
+    <t>0,3,1,1|10,3,1,1|20,3,1,1|0,3,1,1|20,3,1,1|40,3,1,1|50,3,1,1|0,3,1,1|0,3,1,1|60,3,1,1|0,3,1,1|100,3,1,1|0,3,1,1|0,3,1,1|200,3,1,1|199,3,1,1|20,3,1,1|50,3,1,1|50,3,1,1|100,3,1,1|0,3,1,1</t>
   </si>
   <si>
     <t>5,-100,FALSE,0|5,-110,FALSE,0|5,-120,FALSE,0|5,-140,FALSE,0|5,-800,FALSE,0|5,-140,FALSE,0|5,-150,FALSE,0|5,-160,FALSE,0|5,-170,FALSE,0|5,-180,FALSE,0|5,-190,FALSE,0|5,-200,FALSE,0|5,-210,FALSE,0|5,-220,FALSE,0|5,-210,FALSE,0|5,-240,FALSE,0|5,-250,FALSE,0|5,-260,FALSE,0|5,-270,FALSE,0|5,-280,FALSE,0|5,-290,FALSE,0</t>
@@ -1502,7 +1503,7 @@
   <dimension ref="A1:AC235"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Luban/Config/Datas/SwordSkillBase.xlsx
+++ b/Luban/Config/Datas/SwordSkillBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,7 +289,7 @@
     <t>0,3,1,1|10,3,1,1|20,3,1,1|0,3,1,1|20,3,1,1|40,3,1,1|50,3,1,1|0,3,1,1|0,3,1,1|60,3,1,1|0,3,1,1|100,3,1,1|0,3,1,1|0,3,1,1|200,3,1,1|199,3,1,1|20,3,1,1|50,3,4,1|50,3,4,1|100,3,4,1|0,3,4,1</t>
   </si>
   <si>
-    <t>3,100,FALSE,0|3,110,FALSE,0|3,120,FALSE,0|3,130,FALSE,0|3,100,FALSE,0|3,140,FALSE,0|3,150,FALSE,0|3,160,FALSE,0|3,170,FALSE,0|3,180,FALSE,0|3,190,FALSE,0|3,200,FALSE,0|3,210,FALSE,0|3,220,FALSE,0|3,230,FALSE,0|3,240,FALSE,0|3,250,FALSE,0|3,260,FALSE,0|3,270,FALSE,0|3,280,FALSE,0|3,290,FALSE,0</t>
+    <t>3-100-FALSE-0|3-110-FALSE-0|3-120-FALSE-0|3-130-FALSE-0|3-100-FALSE-0|3-140-FALSE-0|3-150-FALSE-0|3-160-FALSE-0|3-170-FALSE-0|3-180-FALSE-0|3-190-FALSE-0|3-200-FALSE-0|3-210-FALSE-0|3-220-FALSE-0|3-230-FALSE-0|3-240-FALSE-0|3-250-FALSE-0|3-260-FALSE-0|3-270-FALSE-0|3-280-FALSE-0|3-290-FALSE-0</t>
   </si>
   <si>
     <t>九阳真气(1级),九阳真气(2级),九阳真气(3级),九阳真气(4级),九阳真气(5级),九阳真气(6级),九阳真气(7级),九阳真气(8级),九阳真气(9级),九阳真气(10级),进阶九阳真气(11级),进阶九阳真气(12级),进阶九阳真气(12级),进阶九阳真气(13级),进阶九阳真气(14级),进阶九阳真气(15级),高级九阳真气(16级),高级九阳真气(17级),高级九阳真气(18级),九阳真气专精(19级),九阳真气专精(20级),九阳真气大师(21级)</t>
@@ -307,7 +307,7 @@
     <t>0,2,3,1|10,2,3,1|20,2,3,1|0,2,3,1|20,2,3,1|40,2,3,1|50,2,3,1|0,2,3,1|0,2,3,1|60,2,3,1|0,2,3,1|100,2,3,1|0,2,3,1|0,2,3,1|200,2,3,1|199,2,3,1|20,2,3,1|50,2,3,1|50,2,3,1|100,2,3,1|0,2,3,1</t>
   </si>
   <si>
-    <t>1,100,FALSE,4|1,110,FALSE,4|1,120,FALSE,4|1,110,FALSE,4|1,100,FALSE,4|1,140,FALSE,4|1,150,FALSE,4|1,160,FALSE,4|1,170,FALSE,4|1,180,FALSE,4|1,190,FALSE,4|1,200,FALSE,4|1,210,FALSE,4|1,220,FALSE,4|1,210,FALSE,4|1,240,FALSE,4|1,250,FALSE,4|1,260,FALSE,4|1,270,FALSE,4|1,280,FALSE,4|1,290,FALSE,4</t>
+    <t>1-100-FALSE-4|1-110-FALSE-4|1-120-FALSE-4|1-110-FALSE-4|1-100-FALSE-4|1-140-FALSE-4|1-150-FALSE-4|1-160-FALSE-4|1-170-FALSE-4|1-180-FALSE-4|1-190-FALSE-4|1-200-FALSE-4|1-210-FALSE-4|1-220-FALSE-4|1-210-FALSE-4|1-240-FALSE-4|1-250-FALSE-4|1-260-FALSE-4|1-270-FALSE-4|1-280-FALSE-4|1-290-FALSE-4</t>
   </si>
   <si>
     <t>剑刃先攻(1级),剑刃先攻(2级),剑刃先攻(3级),剑刃先攻(4级),剑刃先攻(5级),剑刃先攻(6级),剑刃先攻(7级),剑刃先攻(8级),剑刃先攻(9级),剑刃先攻(10级),剑刃先攻(11级),剑刃先攻(12级),剑刃先攻(12级),剑刃先攻(13级),剑刃先攻(14级),剑刃先攻(15级),剑刃先攻(16级),剑刃先攻(17级),剑刃先攻(18级),剑刃先攻(19级),剑刃先攻(20级),剑刃先攻(21级)</t>
@@ -1502,21 +1502,21 @@
   <sheetPr/>
   <dimension ref="A1:AC235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.175" customWidth="1"/>
-    <col min="2" max="2" width="8.50833333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.3416666666667" customWidth="1"/>
-    <col min="4" max="4" width="10.675" customWidth="1"/>
-    <col min="5" max="5" width="40.6333333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.0083333333333" customWidth="1"/>
-    <col min="7" max="8" width="40.6333333333333" customWidth="1"/>
-    <col min="9" max="9" width="14.5083333333333" customWidth="1"/>
-    <col min="10" max="11" width="40.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="9.17592592592593" customWidth="1"/>
+    <col min="2" max="2" width="8.50925925925926" customWidth="1"/>
+    <col min="3" max="3" width="10.3425925925926" customWidth="1"/>
+    <col min="4" max="4" width="10.6759259259259" customWidth="1"/>
+    <col min="5" max="5" width="40.6296296296296" customWidth="1"/>
+    <col min="6" max="6" width="12.0092592592593" customWidth="1"/>
+    <col min="7" max="8" width="40.6296296296296" customWidth="1"/>
+    <col min="9" max="9" width="14.5092592592593" customWidth="1"/>
+    <col min="10" max="11" width="40.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:29">

--- a/Luban/Config/Datas/SwordSkillBase.xlsx
+++ b/Luban/Config/Datas/SwordSkillBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,10 +109,46 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-第一个表示属性值类型
-第二个表示数值
-第三个表示是否是百分比
-第四个表示附加的BUFFID</t>
+第一个表示技能目标,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">如果是0则采用技能前置的目标参数
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>第二个表示技能范围值,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如果是0则采用技能前置的范围参数</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+第三个表示属性值类型
+第四个表示数值
+第五个表示是否是百分比
+第六个表示附加的BUFFID</t>
         </r>
       </text>
     </comment>
@@ -289,7 +325,7 @@
     <t>0,3,1,1|10,3,1,1|20,3,1,1|0,3,1,1|20,3,1,1|40,3,1,1|50,3,1,1|0,3,1,1|0,3,1,1|60,3,1,1|0,3,1,1|100,3,1,1|0,3,1,1|0,3,1,1|200,3,1,1|199,3,1,1|20,3,1,1|50,3,4,1|50,3,4,1|100,3,4,1|0,3,4,1</t>
   </si>
   <si>
-    <t>3-100-FALSE-0|3-110-FALSE-0|3-120-FALSE-0|3-130-FALSE-0|3-100-FALSE-0|3-140-FALSE-0|3-150-FALSE-0|3-160-FALSE-0|3-170-FALSE-0|3-180-FALSE-0|3-190-FALSE-0|3-200-FALSE-0|3-210-FALSE-0|3-220-FALSE-0|3-230-FALSE-0|3-240-FALSE-0|3-250-FALSE-0|3-260-FALSE-0|3-270-FALSE-0|3-280-FALSE-0|3-290-FALSE-0</t>
+    <t>4-0-3-100-FALSE-0|4-0-3-110-FALSE-0|4-0-3-120-FALSE-0|4-0-3-130-FALSE-0|4-0-3-100-FALSE-0|4-0-3-140-FALSE-0|4-0-3-150-FALSE-0|4-0-3-160-FALSE-0|4-0-3-170-FALSE-0|4-0-3-180-FALSE-0|4-0-3-190-FALSE-0|4-0-3-200-FALSE-0|4-0-3-210-FALSE-0|4-0-3-220-FALSE-0|4-0-3-230-FALSE-0|4-0-3-240-FALSE-0|4-0-3-250-FALSE-0|4-0-3-260-FALSE-0|4-0-3-270-FALSE-0|4-0-3-280-FALSE-0|4-0-3-290-FALSE-0</t>
   </si>
   <si>
     <t>九阳真气(1级),九阳真气(2级),九阳真气(3级),九阳真气(4级),九阳真气(5级),九阳真气(6级),九阳真气(7级),九阳真气(8级),九阳真气(9级),九阳真气(10级),进阶九阳真气(11级),进阶九阳真气(12级),进阶九阳真气(12级),进阶九阳真气(13级),进阶九阳真气(14级),进阶九阳真气(15级),高级九阳真气(16级),高级九阳真气(17级),高级九阳真气(18级),九阳真气专精(19级),九阳真气专精(20级),九阳真气大师(21级)</t>
@@ -304,10 +340,10 @@
     <t>SUBSIDIARY</t>
   </si>
   <si>
-    <t>0,2,3,1|10,2,3,1|20,2,3,1|0,2,3,1|20,2,3,1|40,2,3,1|50,2,3,1|0,2,3,1|0,2,3,1|60,2,3,1|0,2,3,1|100,2,3,1|0,2,3,1|0,2,3,1|200,2,3,1|199,2,3,1|20,2,3,1|50,2,3,1|50,2,3,1|100,2,3,1|0,2,3,1</t>
-  </si>
-  <si>
-    <t>1-100-FALSE-4|1-110-FALSE-4|1-120-FALSE-4|1-110-FALSE-4|1-100-FALSE-4|1-140-FALSE-4|1-150-FALSE-4|1-160-FALSE-4|1-170-FALSE-4|1-180-FALSE-4|1-190-FALSE-4|1-200-FALSE-4|1-210-FALSE-4|1-220-FALSE-4|1-210-FALSE-4|1-240-FALSE-4|1-250-FALSE-4|1-260-FALSE-4|1-270-FALSE-4|1-280-FALSE-4|1-290-FALSE-4</t>
+    <t>0,4,0,1|10,4,0,1|20,4,0,1|0,4,0,1|20,4,0,1|40,4,0,1|50,2,3,1|0,4,0,1|0,4,0,1|60,4,0,1|0,4,0,1|100,4,0,1|0,4,0,1|0,4,0,1|200,4,0,1|199,4,0,1|20,4,0,1|50,4,0,1|50,4,0,1|100,4,0,1|0,4,0,1</t>
+  </si>
+  <si>
+    <t>0-0-1-100-FALSE-4|0-0-1-110-FALSE-4|0-0-1-120-FALSE-4|0-0-1-110-FALSE-4|0-0-1-100-FALSE-4|0-0-1-140-FALSE-4|0-0-1-150-FALSE-4|0-0-1-160-FALSE-4|0-0-1-170-FALSE-4|0-0-1-180-FALSE-4|0-0-1-190-FALSE-4|0-0-1-200-FALSE-4|0-0-1-210-FALSE-4|0-0-1-220-FALSE-4|0-0-1-210-FALSE-4|0-0-1-240-FALSE-4|0-0-1-250-FALSE-4|0-0-1-260-FALSE-4|0-0-1-270-FALSE-4|0-0-1-280-FALSE-4|0-0-1-290-FALSE-4</t>
   </si>
   <si>
     <t>剑刃先攻(1级),剑刃先攻(2级),剑刃先攻(3级),剑刃先攻(4级),剑刃先攻(5级),剑刃先攻(6级),剑刃先攻(7级),剑刃先攻(8级),剑刃先攻(9级),剑刃先攻(10级),剑刃先攻(11级),剑刃先攻(12级),剑刃先攻(12级),剑刃先攻(13级),剑刃先攻(14级),剑刃先攻(15级),剑刃先攻(16级),剑刃先攻(17级),剑刃先攻(18级),剑刃先攻(19级),剑刃先攻(20级),剑刃先攻(21级)</t>
@@ -325,7 +361,7 @@
     <t>0,3,1,1|10,3,1,1|20,3,1,1|0,3,1,1|20,3,1,1|40,3,1,1|50,3,1,1|0,3,1,1|0,3,1,1|60,3,1,1|0,3,1,1|100,3,1,1|0,3,1,1|0,3,1,1|200,3,1,1|199,3,1,1|20,3,1,1|50,3,1,1|50,3,1,1|100,3,1,1|0,3,1,1</t>
   </si>
   <si>
-    <t>5,-100,FALSE,0|5,-110,FALSE,0|5,-120,FALSE,0|5,-140,FALSE,0|5,-800,FALSE,0|5,-140,FALSE,0|5,-150,FALSE,0|5,-160,FALSE,0|5,-170,FALSE,0|5,-180,FALSE,0|5,-190,FALSE,0|5,-200,FALSE,0|5,-210,FALSE,0|5,-220,FALSE,0|5,-210,FALSE,0|5,-240,FALSE,0|5,-250,FALSE,0|5,-260,FALSE,0|5,-270,FALSE,0|5,-280,FALSE,0|5,-290,FALSE,0</t>
+    <t>0-0-5-100-FALSE-0|0-0-5-110-FALSE-0|0-0-5-120-FALSE-0|0-0-5--140-FALSE-0|0-0-5--800-FALSE-0|0-0-5--140-FALSE-0|0-0-5--150-FALSE-0|0-0-5--160-FALSE-0|0-0-5--170-FALSE-0|0-0-5--180-FALSE-0|0-0-5--190-FALSE-0|0-0-5--200-FALSE-0|0-0-5--210-FALSE-0|0-0-5--220-FALSE-0|0-0-5--210-FALSE-0|0-0-5--240-FALSE-0|0-0-5--250-FALSE-0|0-0-5--260-FALSE-0|0-0-5--270-FALSE-0|0-0-5--280-FALSE-0|0-0-5--290-FALSE-0</t>
   </si>
 </sst>
 </file>
@@ -338,7 +374,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,6 +560,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1502,21 +1544,21 @@
   <sheetPr/>
   <dimension ref="A1:AC235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.17592592592593" customWidth="1"/>
-    <col min="2" max="2" width="8.50925925925926" customWidth="1"/>
-    <col min="3" max="3" width="10.3425925925926" customWidth="1"/>
-    <col min="4" max="4" width="10.6759259259259" customWidth="1"/>
-    <col min="5" max="5" width="40.6296296296296" customWidth="1"/>
-    <col min="6" max="6" width="12.0092592592593" customWidth="1"/>
-    <col min="7" max="8" width="40.6296296296296" customWidth="1"/>
-    <col min="9" max="9" width="14.5092592592593" customWidth="1"/>
-    <col min="10" max="11" width="40.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="9.175" customWidth="1"/>
+    <col min="2" max="2" width="8.50833333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.3416666666667" customWidth="1"/>
+    <col min="4" max="4" width="10.675" customWidth="1"/>
+    <col min="5" max="5" width="40.6333333333333" customWidth="1"/>
+    <col min="6" max="6" width="12.0083333333333" customWidth="1"/>
+    <col min="7" max="8" width="40.6333333333333" customWidth="1"/>
+    <col min="9" max="9" width="14.5083333333333" customWidth="1"/>
+    <col min="10" max="11" width="40.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:29">
